--- a/delta2/lib_p/dpid_winlol.xlsx
+++ b/delta2/lib_p/dpid_winlol.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib/dpid/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E113BD4-B2DA-964B-AC44-EC16A81E1F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64EB9FB-E3EA-9540-92FA-F24F71AC3BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21100" windowWidth="38100" windowHeight="21100" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
   <sheets>
     <sheet name="winlol" sheetId="1" r:id="rId1"/>
@@ -2050,8 +2050,8 @@
   <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B156" sqref="B156:C158"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/delta2/lib_p/dpid_winlol.xlsx
+++ b/delta2/lib_p/dpid_winlol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64EB9FB-E3EA-9540-92FA-F24F71AC3BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87242F0-403E-4A49-9386-D82BAA5400CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
@@ -2050,8 +2050,8 @@
   <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/delta2/lib_p/dpid_winlol.xlsx
+++ b/delta2/lib_p/dpid_winlol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87242F0-403E-4A49-9386-D82BAA5400CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BF887F-50AC-8D44-B7AF-32FE099DE109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
@@ -2050,8 +2050,8 @@
   <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/delta2/lib_p/dpid_winlol.xlsx
+++ b/delta2/lib_p/dpid_winlol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BF887F-50AC-8D44-B7AF-32FE099DE109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FF3703-1F38-D041-BC89-54FAB8DB93CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="592">
   <si>
     <t>delta_pattern</t>
   </si>
@@ -96,27 +96,15 @@
     <t>Rundll Pattern Related to Process Memory Dumping</t>
   </si>
   <si>
-    <t>{case_insensitive}(file_name EQUALS [ 'rundll32.exe' OR 'rundll64.exe']) AND (process_command_line CONTAINS 'minidump')</t>
-  </si>
-  <si>
-    <t>{case_insensitive}(file_name EQUALS [ 'rundll32.exe' OR 'rundll64.exe']) AND (process_command_line CONTAINS [ 'minidumpw' OR '#24' OR '-24'])</t>
-  </si>
-  <si>
     <t>Rundll Called MiniDumpW on Commandline</t>
   </si>
   <si>
     <t>Rundll Called MiniDump on Commandline</t>
   </si>
   <si>
-    <t>{case_insensitive}(file_name ENDSWITH  '.dmp') AND(initiating_process_file_name EQUALS [ 'rundll32.exe' OR 'rundll64.exe'])</t>
-  </si>
-  <si>
     <t>Rundll Created Dump File</t>
   </si>
   <si>
-    <t>{case_insensitive}(file_name EQUALS 'lsass.exe') AND (initiating_process_file_name EQUALS [ 'rundll32.exe' OR 'rundll64.exe']) AND (initiating_process_command_line CONTAINS [ 'minidump' OR 'minidumpw' OR '#24' OR '-24'])</t>
-  </si>
-  <si>
     <t>Rundll Dumped LSASS Memory</t>
   </si>
   <si>
@@ -288,9 +276,6 @@
     <t>Rundll Pattern For Cred Dumping</t>
   </si>
   <si>
-    <t>{case_insensitive}(file_name EQUALS [ 'rundll32.exe' OR 'rundll64.exe']) AND (process_command_line CONTAINS ['keymgr' AND 'KRShowKeyMgr'])</t>
-  </si>
-  <si>
     <t>creds-vss</t>
   </si>
   <si>
@@ -1443,9 +1428,6 @@
     <t>{case_insensitive}(process_command_line CONTAINS ['mshta' ]) AND (process_command_line CONTAINS ['https://' OR 'http://'])</t>
   </si>
   <si>
-    <t>MSHTA Remote File Run</t>
-  </si>
-  <si>
     <t>{case_insensitive}(process_command_line CONTAINS ['mshta' AND 'javascript:' AND 'GetObject' AND '.exec()'])</t>
   </si>
   <si>
@@ -1615,6 +1597,222 @@
   </si>
   <si>
     <t>netsh-pid0008</t>
+  </si>
+  <si>
+    <t>netclt-pid0021</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name EQUALS ['net.exe'  OR 'net1.exe']) AND (process_command_line CONTAINS  'net user' ) AND (account_name EQUALS 'network service')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potential Recon </t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'query user' ) AND (account_name EQUALS 'network service')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'whoami' ) AND (account_name EQUALS 'network service')</t>
+  </si>
+  <si>
+    <t>Net User From Windows Local Network Service Account</t>
+  </si>
+  <si>
+    <t>Query User Command From Windows Local Network Service Account</t>
+  </si>
+  <si>
+    <t>Whoami Command From Windows Local Network Service Account</t>
+  </si>
+  <si>
+    <t>whoami-pid0001</t>
+  </si>
+  <si>
+    <t>["t1087"]</t>
+  </si>
+  <si>
+    <t>qusr-pid0001</t>
+  </si>
+  <si>
+    <t>curl-pid0001</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS [ 'curl' AND 'http'])</t>
+  </si>
+  <si>
+    <t>["t1105"]</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS [ 'curl' AND 'http']) AND (process_command_line CONTAINS ['-o' OR '-OutFile'])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curl Command To HTTP </t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'curl' ) AND (process_command_line CONTAINS ['-o' OR '-OutFile']) AND (process_command_line REGEX_MATCHES [ 'http://&lt;IPADDRESS&gt;' OR 'https://&lt;IPADDRESS&gt;'])</t>
+  </si>
+  <si>
+    <t>Curl Downloaded a File From HTTP Direct to IP Command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curl Downloaded a File From HTTP </t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS [ 'curl' AND 'http' AND '.msi']) AND (process_command_line CONTAINS ['-o' OR '-OutFile'])</t>
+  </si>
+  <si>
+    <t>curl-pid0002</t>
+  </si>
+  <si>
+    <t>curl-pid0003</t>
+  </si>
+  <si>
+    <t>curl-pid0004</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name ENDSWITH  '.msi') AND (initiating_process_name EQUALS  'curl.exe')</t>
+  </si>
+  <si>
+    <t>curl-pid0005</t>
+  </si>
+  <si>
+    <t>Curl Created a MSI File</t>
+  </si>
+  <si>
+    <t>Curl Downloaded a MSI File</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name EQUALS 'lsass.exe') AND (initiating_process_file_name EQUALS  'rundll32.exe') AND (initiating_process_command_line CONTAINS [ 'minidump' OR 'minidumpw' OR '#24' OR '-24'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name EQUALS  'rundll32.exe') AND (process_command_line CONTAINS [ 'minidumpw' OR '#24' OR '-24'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name EQUALS  'rundll32.exe') AND (process_command_line CONTAINS 'minidump')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name ENDSWITH  '.dmp') AND(initiating_process_file_name EQUALS  'rundll32.exe' )</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name EQUALS 'rundll32.exe') AND (process_command_line CONTAINS ['keymgr' AND 'KRShowKeyMgr'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name EQUALS ['net.exe'  OR 'net1.exe']) AND (process_command_line CONTAINS  ['user' AND '/add'])</t>
+  </si>
+  <si>
+    <t>Net User Add Local Account</t>
+  </si>
+  <si>
+    <t>netclt-pid0022</t>
+  </si>
+  <si>
+    <t>mshta-pid0005</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['mshta' ]) AND (process_command_line MATCHES_REGEX  ['https://&lt;IP&gt;' OR 'http://&lt;IP&gt;'])</t>
+  </si>
+  <si>
+    <t>MSHTA Remote File Run From HTTP</t>
+  </si>
+  <si>
+    <t>MSHTA Remote File Run From HTTP Direct To IP</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(initiating_process_name EQUALS 'mshta.exe) AND (file_name EQUALS 'powershell' OR process_command_line CONTAINS 'powershell')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSHTA Spawned Powershell </t>
+  </si>
+  <si>
+    <t>{case_insensitive}(initiating_process_name EQUALS 'mshta.exe) AND (process_command_line CONTAINS  'powershell' ) AND (process_command_line CONTAINS ['-e' OR '-EncodedCommande']) AND (process_command_line CONTAINS ['-w' OR '-WindowStyle'])</t>
+  </si>
+  <si>
+    <t>MSHTA Spawned Encoded Powershell Command in Hidden Windows</t>
+  </si>
+  <si>
+    <t>pshell-pid0002</t>
+  </si>
+  <si>
+    <t>Powershell DotNet System.Net.WebClient Class Called DownloadFile() Method  To DownLoad File From HTTP</t>
+  </si>
+  <si>
+    <t>Powershell DotNet System.Net.WebClient Class Called DownloadFile() Method  To DownLoad MSI File From HTTP</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'powershell' ) AND (process_command_line COTNAINS ['-c', '-Command']) AND (process_command_line CONTAINS ['DownloadFile' AND 'Net.WebCLient'] AND (process_command_line CONTAINS ['http://' OR 'https://'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'powershell' ) AND (process_command_line COTNAINS ['-c', '-Command']) AND (process_command_line CONTAINS ['DownloadFile' AND 'Net.WebCLient'] AND (process_command_line CONTAINS ['http://' OR 'https://']) AND (process_command_line CONTAINS '.msi')</t>
+  </si>
+  <si>
+    <t>pshell-pid0003</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['powershell' AND '::FromBase64String('])</t>
+  </si>
+  <si>
+    <t>Powershell Decode Base64 String From DotNet System.Convert Class</t>
+  </si>
+  <si>
+    <t>pshell-pid0004</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(initiating_process_name EQUALS 'mshta.exe) AND (file_name CONTAINS [ 'cscript' OR 'wscript'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(initiating_process_name EQUALS 'mshta.exe) AND (file_name EQUALS 'cmd.exe')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(initiating_process_name EQUALS 'mshta.exe) AND (file_name EQUALS 'regsvr32.exe')</t>
+  </si>
+  <si>
+    <t>MSHTA Spawned Regsvr32</t>
+  </si>
+  <si>
+    <t>MSHTA Spawned CSCRIPT or WSCRIPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSTHA Spawned CMD </t>
+  </si>
+  <si>
+    <t>mshta-pid0006</t>
+  </si>
+  <si>
+    <t>mshta-pid0007</t>
+  </si>
+  <si>
+    <t>mshta-pid0008</t>
+  </si>
+  <si>
+    <t>mshta-pid0009</t>
+  </si>
+  <si>
+    <t>mshta-pid0010</t>
+  </si>
+  <si>
+    <t>cmd-pid0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMD Used to Move A File To Remote C Share </t>
+  </si>
+  <si>
+    <t>CMD Used to Run EXE On Remote Host C$ Share And Keep Command Prompt Open</t>
+  </si>
+  <si>
+    <t>CMD Used to Run EXE On Remote Host C$ Share And Close Command Prompt</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['cmd'  AND '\c$\'  AND '-path' AND '.exe' AND '/c']) AND (process_command_line !CONTAINS ['\\127.0.0.1\c$'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['cmd'  AND '\c$\']) AND (process_command_line CONTAINS ['move' OR 'copy'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['cmd'  AND '\c$\' AND '-/k' AND '-path' AND '.exe']) AND (process_command_line !CONTAINS ['\\127.0.0.1\c$'])</t>
+  </si>
+  <si>
+    <t>cmd-pid0002</t>
+  </si>
+  <si>
+    <t>cmd-pid0003</t>
   </si>
 </sst>
 </file>
@@ -1710,10 +1908,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:I158" totalsRowShown="0" dataDxfId="9">
-  <autoFilter ref="A1:I158" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I141">
-    <sortCondition ref="A1:A141"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:I179" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="A1:I179" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I170">
+    <sortCondition ref="A1:A170"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7D4B3AB6-B672-1C40-9238-21F80D82D786}" name="delta_pid" dataDxfId="8"/>
@@ -2047,11 +2245,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D53A90-A29C-2641-AD43-11CCFA7849AF}">
-  <dimension ref="A1:I158"/>
+  <dimension ref="A1:I179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2072,13 +2270,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -2098,153 +2296,153 @@
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>444</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -2264,16 +2462,16 @@
     </row>
     <row r="8" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
@@ -2293,16 +2491,16 @@
     </row>
     <row r="9" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
@@ -2322,16 +2520,16 @@
     </row>
     <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>15</v>
@@ -2351,4153 +2549,4634 @@
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>492</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>70</v>
+        <v>490</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>5</v>
+        <v>287</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>6</v>
+        <v>479</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>71</v>
+        <v>491</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>72</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>153</v>
+        <v>494</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>85</v>
+        <v>493</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="1"/>
+        <v>287</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>479</v>
+      </c>
       <c r="H12" s="1" t="s">
-        <v>90</v>
+        <v>491</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>95</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>155</v>
+        <v>531</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>87</v>
+        <v>532</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>535</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>452</v>
+        <v>540</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>453</v>
+        <v>534</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>432</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>134</v>
+        <v>541</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>40</v>
+        <v>536</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>537</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>135</v>
+        <v>542</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>43</v>
+        <v>539</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>136</v>
+        <v>544</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>45</v>
+        <v>543</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>140</v>
+        <v>447</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>54</v>
+        <v>448</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>6</v>
+        <v>427</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>52</v>
+        <v>450</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>141</v>
+        <v>477</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>53</v>
+        <v>478</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>5</v>
+        <v>287</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>6</v>
+        <v>479</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>52</v>
+        <v>480</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>42</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>142</v>
+        <v>487</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>66</v>
+        <v>481</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>5</v>
+        <v>287</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>6</v>
+        <v>479</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>49</v>
+        <v>482</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>165</v>
+        <v>488</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>115</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>127</v>
+        <v>483</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>117</v>
+        <v>287</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>118</v>
+        <v>479</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>167</v>
+        <v>484</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>168</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>166</v>
+        <v>489</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>115</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>128</v>
+        <v>485</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>117</v>
+        <v>287</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>118</v>
+        <v>479</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>167</v>
+        <v>486</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>284</v>
+        <v>467</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>291</v>
+        <v>466</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G27" s="1"/>
+        <v>287</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="H27" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>294</v>
+        <v>129</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D28" s="1"/>
+        <v>387</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E28" s="1" t="s">
-        <v>366</v>
+        <v>36</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G28" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="H28" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="I28" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>458</v>
+        <v>130</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D29" s="1"/>
+        <v>387</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E29" s="1" t="s">
-        <v>459</v>
+        <v>39</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>292</v>
+        <v>5</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>460</v>
+        <v>6</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>462</v>
+        <v>40</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>441</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>464</v>
+        <v>131</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D30" s="1"/>
+        <v>387</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E30" s="1" t="s">
-        <v>467</v>
+        <v>41</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>292</v>
+        <v>5</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>460</v>
+        <v>6</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>468</v>
+        <v>42</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>441</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>465</v>
+        <v>132</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>387</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E31" s="1" t="s">
-        <v>466</v>
+        <v>44</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>292</v>
+        <v>5</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>460</v>
+        <v>6</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>463</v>
+        <v>43</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>441</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>471</v>
+        <v>133</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D32" s="1"/>
+        <v>387</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E32" s="1" t="s">
-        <v>469</v>
+        <v>46</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>292</v>
+        <v>5</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>460</v>
+        <v>6</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>470</v>
+        <v>45</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>441</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>297</v>
+        <v>134</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>296</v>
+        <v>51</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>298</v>
+        <v>5</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>311</v>
+        <v>47</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>300</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>302</v>
+        <v>135</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>301</v>
+        <v>50</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>298</v>
+        <v>5</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>310</v>
+        <v>48</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>300</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>304</v>
+        <v>136</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>303</v>
+        <v>49</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>298</v>
+        <v>5</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>309</v>
+        <v>48</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>312</v>
+        <v>137</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>305</v>
+        <v>62</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>306</v>
+        <v>5</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>307</v>
+        <v>6</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>308</v>
+        <v>45</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>315</v>
+        <v>475</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>313</v>
+        <v>469</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>306</v>
+        <v>472</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>307</v>
+        <v>470</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>314</v>
+        <v>471</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>300</v>
+        <v>436</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>318</v>
+        <v>476</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>316</v>
+        <v>473</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>299</v>
+        <v>470</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>317</v>
+        <v>474</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>300</v>
+        <v>436</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>325</v>
+        <v>160</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>298</v>
+        <v>112</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>320</v>
+        <v>113</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>322</v>
+        <v>162</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>324</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>326</v>
+        <v>161</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D40" s="1"/>
+        <v>387</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="E40" s="1" t="s">
-        <v>323</v>
+        <v>123</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>298</v>
+        <v>112</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>320</v>
+        <v>113</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>321</v>
+        <v>162</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>324</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>320</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>324</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>320</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>335</v>
+        <v>453</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>332</v>
+        <v>454</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>320</v>
+        <v>455</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>333</v>
+        <v>457</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>324</v>
+        <v>436</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>337</v>
+        <v>459</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>320</v>
+        <v>455</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>338</v>
+        <v>557</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>339</v>
+        <v>461</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>169</v>
+        <v>455</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>343</v>
+        <v>458</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>300</v>
+        <v>436</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>342</v>
+        <v>465</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>341</v>
+        <v>463</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>169</v>
+        <v>455</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>343</v>
+        <v>464</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>300</v>
+        <v>436</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>346</v>
+        <v>555</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>344</v>
+        <v>556</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>169</v>
+        <v>455</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>345</v>
+        <v>558</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>300</v>
+        <v>436</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>347</v>
+        <v>578</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>348</v>
+        <v>559</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>117</v>
+        <v>287</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>118</v>
+        <v>455</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>359</v>
+        <v>560</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>352</v>
+        <v>579</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>350</v>
+        <v>561</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>117</v>
+        <v>287</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>118</v>
+        <v>455</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>358</v>
+        <v>562</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>354</v>
+        <v>436</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>353</v>
+        <v>292</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D50" s="1"/>
+        <v>387</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="E50" s="1" t="s">
-        <v>351</v>
+        <v>291</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>117</v>
+        <v>293</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>118</v>
+        <v>294</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>357</v>
+        <v>306</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>354</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>356</v>
+        <v>297</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D51" s="1"/>
+        <v>387</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="E51" s="1" t="s">
-        <v>355</v>
+        <v>296</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>117</v>
+        <v>293</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>118</v>
+        <v>294</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>363</v>
+        <v>305</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>360</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D52" s="1"/>
+        <v>387</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="E52" s="1" t="s">
-        <v>361</v>
+        <v>298</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>117</v>
+        <v>293</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>118</v>
+        <v>294</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>362</v>
+        <v>304</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>143</v>
+        <v>307</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>56</v>
+        <v>300</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>30</v>
+        <v>301</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>169</v>
+        <v>302</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>28</v>
+        <v>303</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>57</v>
+        <v>308</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>27</v>
+        <v>301</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>169</v>
+        <v>302</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>31</v>
+        <v>309</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>145</v>
+        <v>313</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>58</v>
+        <v>311</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>27</v>
+        <v>293</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>169</v>
+        <v>294</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>32</v>
+        <v>312</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>146</v>
+        <v>320</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>59</v>
+        <v>314</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>30</v>
+        <v>293</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>169</v>
+        <v>315</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>33</v>
+        <v>317</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>147</v>
+        <v>321</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>60</v>
+        <v>318</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>30</v>
+        <v>293</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>169</v>
+        <v>315</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>34</v>
+        <v>316</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>148</v>
+        <v>323</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
-        <v>38</v>
+        <v>322</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>30</v>
+        <v>293</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>169</v>
+        <v>315</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>39</v>
+        <v>329</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>156</v>
+        <v>326</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
-        <v>97</v>
+        <v>324</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>5</v>
+        <v>293</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>98</v>
+        <v>325</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>101</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>157</v>
+        <v>330</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
-        <v>99</v>
+        <v>327</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>5</v>
+        <v>293</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>100</v>
+        <v>328</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>158</v>
+        <v>332</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
-        <v>102</v>
+        <v>331</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>5</v>
+        <v>293</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>98</v>
+        <v>333</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>101</v>
+        <v>319</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>159</v>
+        <v>335</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
-        <v>103</v>
+        <v>334</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>5</v>
+        <v>293</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>104</v>
+        <v>338</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>101</v>
+        <v>295</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>240</v>
+        <v>337</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>277</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>117</v>
+        <v>293</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>278</v>
+        <v>338</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>149</v>
+        <v>341</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
-        <v>75</v>
+        <v>339</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>5</v>
+        <v>293</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>6</v>
+        <v>164</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>76</v>
+        <v>340</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>77</v>
+        <v>295</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>150</v>
+        <v>342</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
-        <v>78</v>
+        <v>343</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>76</v>
+        <v>354</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>151</v>
+        <v>347</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>76</v>
+        <v>353</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>160</v>
+        <v>348</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D67" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="H67" s="1" t="s">
-        <v>110</v>
+        <v>352</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>161</v>
+        <v>351</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D68" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="H68" s="1" t="s">
-        <v>109</v>
+        <v>358</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>162</v>
+        <v>360</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D69" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="H69" s="1" t="s">
-        <v>108</v>
+        <v>357</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>163</v>
+        <v>520</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="D70" s="1"/>
       <c r="E70" s="1" t="s">
-        <v>111</v>
+        <v>521</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>112</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="G70" s="1"/>
       <c r="H70" s="1" t="s">
-        <v>108</v>
+        <v>525</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="H80" s="1" t="s">
-        <v>189</v>
+        <v>24</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>250</v>
+        <v>139</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>190</v>
+        <v>27</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>251</v>
+        <v>140</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>191</v>
+        <v>54</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>252</v>
+        <v>141</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>192</v>
+        <v>55</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>193</v>
+        <v>29</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>253</v>
+        <v>142</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>195</v>
+        <v>56</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>197</v>
+        <v>30</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>168</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>198</v>
+        <v>35</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>255</v>
+        <v>151</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>201</v>
+        <v>92</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>256</v>
+        <v>152</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>196</v>
+        <v>94</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>199</v>
+        <v>97</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>202</v>
+        <v>93</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>200</v>
+        <v>98</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>203</v>
+        <v>99</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>115</v>
+        <v>272</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>204</v>
+        <v>275</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>206</v>
+        <v>273</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>260</v>
+        <v>530</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>115</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
-        <v>205</v>
+        <v>523</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>118</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="G91" s="1"/>
       <c r="H91" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>261</v>
+        <v>144</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>207</v>
+        <v>71</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>213</v>
+        <v>72</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>262</v>
+        <v>145</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>212</v>
+        <v>72</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>263</v>
+        <v>146</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>211</v>
+        <v>72</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>264</v>
+        <v>155</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>215</v>
+        <v>105</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>265</v>
+        <v>156</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>227</v>
+        <v>101</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>266</v>
+        <v>157</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>226</v>
+        <v>102</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>217</v>
+        <v>103</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>267</v>
+        <v>158</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>225</v>
+        <v>106</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>218</v>
+        <v>103</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>268</v>
+        <v>159</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D99" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H99" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="I99" s="1" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>221</v>
+        <v>166</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>228</v>
+        <v>170</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>231</v>
+        <v>173</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>235</v>
+        <v>175</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>277</v>
+        <v>110</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>282</v>
+        <v>182</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>281</v>
+        <v>184</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>290</v>
+        <v>183</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G109" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="H109" s="1" t="s">
-        <v>68</v>
+        <v>185</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>22</v>
+        <v>189</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="F113" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F137" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="G137" s="1"/>
+      <c r="H137" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G138" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H113" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I113" s="1" t="s">
+      <c r="H138" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I138" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="I117" s="1"/>
-    </row>
-    <row r="118" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>436</v>
+        <v>280</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D139" s="1"/>
+        <v>387</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="E139" s="1" t="s">
-        <v>433</v>
+        <v>548</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>435</v>
+        <v>19</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>372</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D140" s="1"/>
+        <v>387</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="E140" s="1" t="s">
-        <v>434</v>
+        <v>550</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>435</v>
+        <v>21</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>454</v>
+        <v>283</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D141" s="1"/>
+        <v>387</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E141" s="1" t="s">
-        <v>456</v>
+        <v>547</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>432</v>
+        <v>6</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>457</v>
+        <v>22</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>473</v>
+        <v>284</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D142" s="1"/>
+        <v>387</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="E142" s="1" t="s">
-        <v>472</v>
+        <v>551</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>292</v>
+        <v>5</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>474</v>
+        <v>77</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>481</v>
+        <v>362</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D143" s="1"/>
+        <v>387</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>363</v>
+      </c>
       <c r="E143" s="1" t="s">
-        <v>475</v>
+        <v>364</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>478</v>
+        <v>112</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>476</v>
+        <v>113</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>477</v>
+        <v>365</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>441</v>
+        <v>367</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>482</v>
+        <v>372</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1" t="s">
-        <v>479</v>
+        <v>366</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>292</v>
+        <v>112</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>476</v>
+        <v>113</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>441</v>
+        <v>367</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>483</v>
+        <v>373</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D145" s="1"/>
+        <v>387</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="E145" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>485</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
       <c r="H145" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="I145" s="1" t="s">
-        <v>441</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="I145" s="1"/>
     </row>
     <row r="146" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>493</v>
+        <v>374</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D146" s="1"/>
+        <v>387</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="E146" s="1" t="s">
-        <v>487</v>
+        <v>368</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>292</v>
+        <v>112</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>485</v>
+        <v>113</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>488</v>
+        <v>400</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>494</v>
+        <v>375</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D147" s="1"/>
+        <v>387</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>378</v>
+      </c>
       <c r="E147" s="1" t="s">
-        <v>489</v>
+        <v>371</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>292</v>
+        <v>112</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>485</v>
+        <v>113</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>490</v>
+        <v>399</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>495</v>
+        <v>377</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D148" s="1"/>
+        <v>387</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>378</v>
+      </c>
       <c r="E148" s="1" t="s">
-        <v>491</v>
+        <v>376</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>292</v>
+        <v>112</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>485</v>
+        <v>113</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>492</v>
+        <v>399</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>498</v>
+        <v>379</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1" t="s">
-        <v>496</v>
+        <v>426</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>292</v>
+        <v>112</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>485</v>
+        <v>427</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>497</v>
+        <v>398</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>441</v>
+        <v>367</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1" t="s">
-        <v>499</v>
+        <v>425</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>292</v>
+        <v>112</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>485</v>
+        <v>427</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>497</v>
+        <v>398</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>501</v>
+        <v>383</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1" t="s">
-        <v>505</v>
+        <v>381</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>502</v>
+        <v>113</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>503</v>
+        <v>397</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>508</v>
+        <v>384</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1" t="s">
-        <v>506</v>
+        <v>382</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>502</v>
+        <v>113</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>507</v>
+        <v>397</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>504</v>
+        <v>367</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>510</v>
+        <v>385</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1" t="s">
-        <v>521</v>
+        <v>391</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>502</v>
+        <v>113</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>509</v>
+        <v>396</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>516</v>
+        <v>386</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1" t="s">
-        <v>522</v>
+        <v>390</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>502</v>
+        <v>113</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>511</v>
+        <v>396</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>504</v>
+        <v>367</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>517</v>
+        <v>413</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1" t="s">
-        <v>512</v>
+        <v>388</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>502</v>
+        <v>113</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>513</v>
+        <v>395</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>504</v>
+        <v>367</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>518</v>
+        <v>414</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1" t="s">
-        <v>514</v>
+        <v>389</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>502</v>
+        <v>113</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>515</v>
+        <v>395</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>504</v>
+        <v>367</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>524</v>
+        <v>415</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1" t="s">
-        <v>519</v>
+        <v>392</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>502</v>
+        <v>113</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>520</v>
+        <v>394</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>504</v>
+        <v>367</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>525</v>
+        <v>416</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1" t="s">
-        <v>523</v>
+        <v>393</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="I170" s="1"/>
+    </row>
+    <row r="171" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I171" s="1"/>
+    </row>
+    <row r="172" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="I172" s="1"/>
+    </row>
+    <row r="173" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="I173" s="1"/>
+    </row>
+    <row r="174" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="I174" s="1"/>
+    </row>
+    <row r="175" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="I175" s="1"/>
+    </row>
+    <row r="176" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="I176" s="1"/>
+    </row>
+    <row r="177" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="I177" s="1"/>
+    </row>
+    <row r="178" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="I178" s="1"/>
+    </row>
+    <row r="179" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="I179" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/delta2/lib_p/dpid_winlol.xlsx
+++ b/delta2/lib_p/dpid_winlol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FF3703-1F38-D041-BC89-54FAB8DB93CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7FD1BA-919C-444C-A21D-0FB4067C0217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
@@ -2248,8 +2248,8 @@
   <dimension ref="A1:I179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B181" sqref="B181"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E178" sqref="E178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/delta2/lib_p/dpid_winlol.xlsx
+++ b/delta2/lib_p/dpid_winlol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7FD1BA-919C-444C-A21D-0FB4067C0217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDED82B-7BE6-3046-835F-B61BBD5E0898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
   <sheets>
     <sheet name="winlol" sheetId="1" r:id="rId1"/>

--- a/delta2/lib_p/dpid_winlol.xlsx
+++ b/delta2/lib_p/dpid_winlol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3BF389-C13F-844B-8CC2-9E6B8ADE31C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7230C637-AE62-1747-9EC1-61367FBB8F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="793">
   <si>
     <t>delta_pattern</t>
   </si>
@@ -1686,9 +1686,6 @@
     <t>Regsvr32 Silent Exection vis SCROBJ.DLL</t>
   </si>
   <si>
-    <t>{case_insensitive}(process_command_line CONTAINS ['regsvr32'  AND 'scrobj.dll', '/s'])</t>
-  </si>
-  <si>
     <t>{case_insensitive}(process_command_line CONTAINS ['regsvr32'  AND 'scrobj.dll' AND '/s' AND '/i:']) AND (process_command_line contains ['http://' OR 'https://'])</t>
   </si>
   <si>
@@ -1785,9 +1782,6 @@
     <t>regsvr-pid0011</t>
   </si>
   <si>
-    <t>{case_insensitive}(intiating_process_name equals 'regsvr32.exe') AND (process_name EQUALS ['net.exe' OR 'nte1.exe'])</t>
-  </si>
-  <si>
     <t>regsvr-pid0012</t>
   </si>
   <si>
@@ -1968,12 +1962,6 @@
     <t>Net Add User to  Localgroup Group Not Specified</t>
   </si>
   <si>
-    <t xml:space="preserve">Net User  Disco  Display Domain  Accounts </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net User Disco Display Local Accounts </t>
-  </si>
-  <si>
     <t>Net Add Domain User</t>
   </si>
   <si>
@@ -1995,15 +1983,9 @@
     <t>Powershell Hidden Window Flag Set</t>
   </si>
   <si>
-    <t>{case_insensitive}(pshell-pid0002) AND (process_command_line CONTAINS ['-nop' OR '-NoProfile'])</t>
-  </si>
-  <si>
     <t>Powershell Invoke-Expression Used in Hidden Window With NoProfile Set</t>
   </si>
   <si>
-    <t>{case_insensitive}) AND (process_command_line COTAINS ['new-object' AND 'net.webclient']) AND (process_command_line CONTAINS ['http://' OR 'https://']) AND (pshell-pid0004)</t>
-  </si>
-  <si>
     <t>pshell-pid0008</t>
   </si>
   <si>
@@ -2013,45 +1995,15 @@
     <t>pshell-pid0010</t>
   </si>
   <si>
-    <t>{case_insensitive}(pshell-pid0002) AND (process_command_line CONTAINS '-c' OR '-command'])</t>
-  </si>
-  <si>
-    <t>{case_insensitive}(pshell-pid0003) AND (process_command_line CONTAINS ['IEX' AND 'Invoke-Expression'])</t>
-  </si>
-  <si>
-    <t>{case_insensitive}(pshell-pid0004) AND (process_command_line CONTAINS ['IEX' AND 'Invoke-Expression'])</t>
-  </si>
-  <si>
     <t>{case_insensitive}(file_name EQUALS ['net.exe'  OR 'net1.exe']) AND (process_command_line CONTAINS  ['user' AND '/add' AND '/active:yes'])</t>
   </si>
   <si>
-    <t>{case_insensitive}(netclt-pid0023) AND (process_command_line CONTAINS '/expires:never")</t>
-  </si>
-  <si>
-    <t>{case_insensitive}(netsh-pid0001) AND (process_command_line CONTAINS 'remote desktop')</t>
-  </si>
-  <si>
-    <t>{case_insensitive}(netsh-pid0001) AND (process_command_line CONTAINS 'file and printer sharing')</t>
-  </si>
-  <si>
-    <t>NETSHE Advanced Firewall Group RDP  Enabled</t>
-  </si>
-  <si>
-    <t>NETSHE Advanced Firewall Group SMB  Enabled</t>
-  </si>
-  <si>
     <t>{case_insensitive}(process_command_line CONTAINS ['netsh' AND 'advfirewall' AND 'firewall' AND 'set' AND 'rule'  AND 'group=' AND  'enable=yes'])</t>
   </si>
   <si>
-    <t>{case_insensitive}(netsh-pid0001) AND (process_command_line CONTAINS 'network discovery')</t>
-  </si>
-  <si>
     <t>NETSH Advanced Firewall Group Enabled</t>
   </si>
   <si>
-    <t>NETSHE Advanced Firewall Group Network Discovery  Enabled</t>
-  </si>
-  <si>
     <t>NETSH Legacy Disable Firewall (Pre Vista)</t>
   </si>
   <si>
@@ -2061,9 +2013,6 @@
     <t>NETSH Advanced Firewall Add  Rule</t>
   </si>
   <si>
-    <t>{case_insensitive}(netsh-pid0007) AND (process_command_line CONTAINS '3389' )</t>
-  </si>
-  <si>
     <t>{case_insensitive}(process_command_line CONTAINS ['netsh' AND 'advfirewall' AND 'firewall' AND 'state' AND 'off' AND 'set' AND 'currentrofile'])</t>
   </si>
   <si>
@@ -2130,21 +2079,6 @@
     <t>Net Stopped A Service</t>
   </si>
   <si>
-    <t>{case_insensitive}(netclt-pid0026) AND (process_command_line CONTAINS  [ 'sysmon')</t>
-  </si>
-  <si>
-    <t>{case_insensitive}(netclt-pid0026) AND (process_command_line CONTAINS 'Tanium Driver Support Service')</t>
-  </si>
-  <si>
-    <t>{case_insensitive}(netclt-pid0026) AND (process_command_line CONTAINS   'windefend')</t>
-  </si>
-  <si>
-    <t>{case_insensitive}(netclt-pid0026)  AND (process_command_line CONTAINS   'tanium client')</t>
-  </si>
-  <si>
-    <t>{case_insensitive}(netclt-pid0026) AND (process_command_line CONTAINS  '/y')</t>
-  </si>
-  <si>
     <t xml:space="preserve">Net Stopped A Service Non-Interactively </t>
   </si>
   <si>
@@ -2152,6 +2086,336 @@
   </si>
   <si>
     <t>netclt-pid0027</t>
+  </si>
+  <si>
+    <t>netsh-pid0013</t>
+  </si>
+  <si>
+    <t>NETSH Legacy Enable RDP (Pre Vista)</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['netsh' AND 'firewall' AND 'type=remotedesktop' AND 'mode=enable'])</t>
+  </si>
+  <si>
+    <t>pshell-pid0011</t>
+  </si>
+  <si>
+    <t>t1562.004</t>
+  </si>
+  <si>
+    <t>Powershell Create New Firewall Rule</t>
+  </si>
+  <si>
+    <t>pshell-pid0012</t>
+  </si>
+  <si>
+    <t>Powershell Create New Inbound Firewall Rule</t>
+  </si>
+  <si>
+    <t>pshell-pid0013</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['powershell' AND 'New-NetFireWallRule' AND '-Action' AND 'allow' AND 'Inbound'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['powershell', 'New-NetFireWallRule' AND '-Action' AND 'allow'])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS [ 'powershell' AND 'Get-NetSubnet') </t>
+  </si>
+  <si>
+    <t>Powershell Get List of Subnet Objects</t>
+  </si>
+  <si>
+    <t>t1046</t>
+  </si>
+  <si>
+    <t>netclt-pid0028</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name EQUALS ['net.exe'  OR 'net1.exe']) AND (process_command_line CONTAINS  ['view'  AND '/all'])</t>
+  </si>
+  <si>
+    <t>Net View All Shares or Computers on Device</t>
+  </si>
+  <si>
+    <t>/all includes hidden</t>
+  </si>
+  <si>
+    <t>Net User  Disco  Display Domain  Account Info</t>
+  </si>
+  <si>
+    <t>Net User Disco Display Local Accounts  Info</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name EQUALS ['net.exe'  OR 'net1.exe']) AND (process_command_line CONTAINS  ['start' AND 'Volume Shadow Copy'])</t>
+  </si>
+  <si>
+    <t>Net Start Volume Shadow Copy</t>
+  </si>
+  <si>
+    <t>netclt-pid0029</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS [ 'powershell' AND 'hidden') AND (process_command_line CONTAINS ['-w' OR '-WindowStyle']) AND (process_command_line CONTAINS [ '-c' OR '-command'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS [ 'powershell' AND 'hidden') AND (process_command_line CONTAINS ['-w' OR '-WindowStyle']) AND (process_command_line CONTAINS [ '-c' OR '-command'])AND (process_command_line CONTAINS ['-nop' OR '-NoProfile'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS [ 'powershell' AND 'hidden') AND (process_command_line CONTAINS ['-w' OR '-WindowStyle']) AND (process_command_line CONTAINS [ '-c' OR '-command'])AND (process_command_line CONTAINS ['IEX' AND 'Invoke-Expression'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS [ 'powershell' AND 'hidden') AND (process_command_line CONTAINS ['-w' OR '-WindowStyle']) AND (process_command_line CONTAINS [ '-c' OR '-command'])AND (process_command_line CONTAINS ['-nop' OR '-NoProfile']) AND (process_command_line CONTAINS ['IEX' AND 'Invoke-Expression'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}) AND (process_command_line CONTAINS ['new-object' AND 'net.webclient']) AND (process_command_line CONTAINS ['http://' OR 'https://']) AND process_command_line CONTAINS [ 'powershell' AND 'hidden') AND (process_command_line CONTAINS ['-w' OR '-WindowStyle']) AND (process_command_line CONTAINS [ '-c' OR '-command'])AND (process_command_line CONTAINS ['IEX' AND 'Invoke-Expression'])</t>
+  </si>
+  <si>
+    <t>NTDS Path On Commandline</t>
+  </si>
+  <si>
+    <t>NETSH Advanced Firewall Group RDP  Enabled</t>
+  </si>
+  <si>
+    <t>NETSH Advanced Firewall Group SMB  Enabled</t>
+  </si>
+  <si>
+    <t>NETSH Advanced Firewall Group Network Discovery  Enabled</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['netsh' AND 'advfirewall' AND 'firewall' AND 'set' AND 'rule'  AND 'group=' AND  'enable=yes']) AND (process_command_line CONTAINS 'remote desktop')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['netsh' AND 'advfirewall' AND 'firewall' AND 'set' AND 'rule'  AND 'group=' AND  'enable=yes']) AND (process_command_line CONTAINS 'file and printer sharing')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['netsh' AND 'advfirewall' AND 'firewall' AND 'set' AND 'rule'  AND 'group=' AND  'enable=yes']) AND (process_command_line CONTAINS 'network discovery')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['netsh' AND 'firewall' AND 'advfirewall' AND 'add' AND 'rule']) AND (process_command_line CONTAINS '3389' )</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name EQUALS ['net.exe'  OR 'net1.exe']) AND (process_command_line CONTAINS  'stop') AND (process_command_line CONTAINS   'windefend')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}((file_name EQUALS ['net.exe'  OR 'net1.exe']) AND (process_command_line CONTAINS  'stop')  AND (process_command_line CONTAINS   'tanium client')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name EQUALS ['net.exe'  OR 'net1.exe']) AND (process_command_line CONTAINS  'stop') AND (process_command_line CONTAINS 'Tanium Driver Support Service')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name EQUALS ['net.exe'  OR 'net1.exe']) AND (process_command_line CONTAINS  'stop') AND (process_command_line CONTAINS  [ 'sysmon')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name EQUALS ['net.exe'  OR 'net1.exe']) AND (process_command_line CONTAINS  ['user' AND '/add' AND '/active:yes']) AND (process_command_line CONTAINS '/expires:never")</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name EQUALS ['net.exe'  OR 'net1.exe']) AND (process_command_line CONTAINS  'stop') AND (process_command_line CONTAINS  '/y')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['cmd'  AND 'copy' ) AND (process_command_line CONTAINS ['GLOBALROOT' OR 'HardDiskVolumeShadowCopy'])</t>
+  </si>
+  <si>
+    <t>CMD Copied Volume Shadow Copy</t>
+  </si>
+  <si>
+    <t>cmd-pid0004</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['cmd'  AND 'copy' ) AND (process_command_line CONTAINS ['GLOBALROOT' OR 'HardDiskVolumeShadowCopy']) AND (process_command_line CONTAINS  ['Windows\NTDS' OR 'NTDS.dit'])</t>
+  </si>
+  <si>
+    <t>CMD Copied NTDS.dit From Volume Shadow Copy</t>
+  </si>
+  <si>
+    <t>cmd-pid0005</t>
+  </si>
+  <si>
+    <t>cmd-pid0006</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['cmd'  AND 'copy' ) AND (process_command_line CONTAINS ['GLOBALROOT' OR 'HardDiskVolumeShadowCopy']) AND (process_command_line CONTAINS  'Windows\System32\config\SYSTEM')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['cmd'  AND 'copy' ) AND (process_command_line CONTAINS ['GLOBALROOT' OR 'HardDiskVolumeShadowCopy']) AND (process_command_line CONTAINS  'Windows\System32\config\SECURITY')</t>
+  </si>
+  <si>
+    <t>CMD Copied HKLM\Security Hive</t>
+  </si>
+  <si>
+    <t>CMD Copied Windows HKLM\System Hive From Volume Shadow Copy</t>
+  </si>
+  <si>
+    <t>cmd-pid0007</t>
+  </si>
+  <si>
+    <t>vss-pid0001</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['vssadmin'  AND 'create' AND 'shadow' ])</t>
+  </si>
+  <si>
+    <t>Vssadmin Create Shadow Copy</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['vssadmin'  AND 'create' AND 'shadow' ]) AND (process_command_line CONTAINS '/for=C:'</t>
+  </si>
+  <si>
+    <t>Vssadmin Create Shadow Copy of C: Drive</t>
+  </si>
+  <si>
+    <t>vss-pid0002</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS [ 'Set-MpPreference') AND (process_command_line CONTAINS ['True' OR '1']) AND (process_command_line CONTAINS ['-dtrm' OR '-DisableRealtimeMonitoring'])</t>
+  </si>
+  <si>
+    <t>Powershell Set-MpPreference Disable Real Time Monitoring</t>
+  </si>
+  <si>
+    <t>pshell-pid0014</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS [ 'Set-MpPreference') AND (process_command_line CONTAINS ['True' OR '1']) AND (process_command_line CONTAINS ['-dbm' OR '-DisableBehaviorMonitoring'])</t>
+  </si>
+  <si>
+    <t>Powershell Set-MpPreference Disable Behavior Monitoring</t>
+  </si>
+  <si>
+    <t>pshell-pid0015</t>
+  </si>
+  <si>
+    <t>pshell-pid0016</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS [ 'Set-MpPreference') AND (process_command_line CONTAINS ['True' OR '1']) AND (process_command_line CONTAINS ['-dscrptsc' OR '-DisableScriptScanning'])</t>
+  </si>
+  <si>
+    <t>Powershell Set-MpPreference DisableScript Scanning</t>
+  </si>
+  <si>
+    <t>pshell-pid0017</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS [ 'Set-MpPreference') AND (process_command_line CONTAINS ['True' OR '1']) AND (process_command_line CONTAINS ['-dbaf' OR '-DisableBlockAtFirstSeen'])</t>
+  </si>
+  <si>
+    <t>Powershell Set-MpPreferenceDisable Block At First Seen</t>
+  </si>
+  <si>
+    <t>whoami-pid0002</t>
+  </si>
+  <si>
+    <t>whoami-pid0003</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'whoami' )</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  ['whoami'  AND '/groups'])</t>
+  </si>
+  <si>
+    <t>Whoami</t>
+  </si>
+  <si>
+    <t>Whoami List Groups for User</t>
+  </si>
+  <si>
+    <t>registry-pid0042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registry Value Added for SpecialAccounts\UserLIst </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS  ['reg' AND 'add']) AND (process_command_line CONTAINS ['Software\Microsoft\WindowsNT\CurrentVersion\Winlogon\SpecialAccounts\Userlist' AND '/v'] ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS  ['reg' AND 'add']) AND (process_command_line CONTAINS ['SYSTEM\CurrentControlSet\Control\Terminal Server' AND 'fDenyTSConnections' AND '/v' AND '0'] ) </t>
+  </si>
+  <si>
+    <t>Enable RDP Via fDenyTSConnections Registry Value</t>
+  </si>
+  <si>
+    <t>registry-pid0043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS  ['reg' AND 'add']) AND (process_command_line CONTAINS ['SYSTEM\CurrentControlSet\Control\Terminal Server' AND 'fAllowGetHelp' AND '/v' AND '1'] ) </t>
+  </si>
+  <si>
+    <t>Enable RDP Via fAllowGetHelp Registry Value</t>
+  </si>
+  <si>
+    <t>registry-pid0044</t>
+  </si>
+  <si>
+    <t>registry-pid0045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS 'Set-ItemProperty') AND (process_command_line CONTAINS ['CurrentControlSet\Control\TerminalServer\WinStations\RDP-Tcp' AND 'PortNumber' AND '-Value'] ) </t>
+  </si>
+  <si>
+    <t>Powershell Changed RDP Port Number Via Registry Key</t>
+  </si>
+  <si>
+    <t>ipconfig</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['ipconfig' AND '/all'])</t>
+  </si>
+  <si>
+    <t>Ipconfig All</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name EQUALS ['net.exe'  OR 'net1.exe']) AND (process_command_line CONTAINS  ['group' AND 'Domain Computers' AND '/d'])</t>
+  </si>
+  <si>
+    <t>netclt-pid0030</t>
+  </si>
+  <si>
+    <t>Net Group Domain Computers List All Computer Accounts On Domain</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name EQUALS ['net.exe'  OR 'net1.exe']) AND (process_command_line CONTAINS  ['config' AND 'workstation'])</t>
+  </si>
+  <si>
+    <t>Net View Workstation Configuration</t>
+  </si>
+  <si>
+    <t>netclt-pid0031</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['wmic'  AND /namespace'  AND 'SecurityCenter2' AND 'Path' AND 'AntiVirusProudct'])</t>
+  </si>
+  <si>
+    <t>WMI Retrieve Info On AV Product</t>
+  </si>
+  <si>
+    <t>wmic-pid0007</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(intiating_process_name equals 'regsvr32.exe') AND (process_name EQUALS ['net.exe' OR 'net1.exe'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['regsvr32'  AND 'scrobj.dll' AND '/s'])</t>
+  </si>
+  <si>
+    <t>regsvr-pid0013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regsvr32 Silent DllInstall Without DLLRegisterServer </t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['regsvr32'  AND '/n' AND '/i:' AND '/s'])</t>
+  </si>
+  <si>
+    <t>regsvr-pid0014</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['regsvr32'  AND 'appdata\local\temp' AND 'C:\Users\'])</t>
+  </si>
+  <si>
+    <t>Regsvr32 Executed Dll From User AppData\Local\temp Folder</t>
   </si>
 </sst>
 </file>
@@ -2215,7 +2479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2224,6 +2488,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2275,24 +2542,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:I211" totalsRowShown="0" dataDxfId="9">
-  <autoFilter ref="A1:I211" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="lsass-pid0001"/>
-        <filter val="lsass-pid0002"/>
-        <filter val="lsass-pid0003"/>
-        <filter val="lsass-pid0004"/>
-        <filter val="lsass-pid0005"/>
-        <filter val="lsass-pid0006"/>
-        <filter val="lsass-pid0007"/>
-        <filter val="lsass-pid0008"/>
-        <filter val="lsass-pid0009"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I211">
-    <sortCondition ref="A1:A211"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:I239" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="A1:I239" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I223">
+    <sortCondition ref="A1:A223"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7D4B3AB6-B672-1C40-9238-21F80D82D786}" name="delta_pid" dataDxfId="8"/>
@@ -2626,11 +2879,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D53A90-A29C-2641-AD43-11CCFA7849AF}">
-  <dimension ref="A1:I211"/>
+  <dimension ref="A1:I239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2675,7 +2928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>514</v>
       </c>
@@ -2696,7 +2949,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>521</v>
       </c>
@@ -2711,17 +2964,17 @@
         <v>520</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>516</v>
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>522</v>
       </c>
@@ -2736,19 +2989,19 @@
         <v>518</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>517</v>
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>727</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>104</v>
@@ -2756,28 +3009,20 @@
       <c r="C5" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>611</v>
-      </c>
+        <v>725</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>726</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>388</v>
+        <v>730</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>104</v>
@@ -2787,24 +3032,18 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>618</v>
-      </c>
+        <v>728</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>729</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>391</v>
+        <v>731</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>104</v>
@@ -2814,24 +3053,18 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>618</v>
-      </c>
+        <v>732</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>735</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>397</v>
+        <v>736</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>104</v>
@@ -2841,224 +3074,216 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="13" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="14" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="15" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="F15" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="16" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>343</v>
@@ -3067,47 +3292,53 @@
         <v>64</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>466</v>
+        <v>114</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E17" s="1" t="s">
-        <v>467</v>
+        <v>13</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="G17" s="1"/>
+        <v>595</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>596</v>
+      </c>
       <c r="H17" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>104</v>
@@ -3117,20 +3348,24 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="G18" s="1"/>
+        <v>603</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>615</v>
+      </c>
       <c r="H18" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>441</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>104</v>
@@ -3140,20 +3375,24 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="G19" s="1"/>
+        <v>603</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>615</v>
+      </c>
       <c r="H19" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>441</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>476</v>
+        <v>115</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>104</v>
@@ -3161,45 +3400,51 @@
       <c r="C20" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E20" s="1" t="s">
-        <v>473</v>
+        <v>61</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="G20" s="1"/>
+        <v>595</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>596</v>
+      </c>
       <c r="H20" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>343</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>135</v>
+        <v>474</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>104</v>
@@ -3207,26 +3452,22 @@
       <c r="C22" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>75</v>
+        <v>468</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>136</v>
+        <v>475</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>104</v>
@@ -3234,28 +3475,22 @@
       <c r="C23" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>76</v>
+        <v>470</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>608</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>137</v>
+        <v>476</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>104</v>
@@ -3263,55 +3498,45 @@
       <c r="C24" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>77</v>
+        <v>473</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>609</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>401</v>
+        <v>478</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>343</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>402</v>
+        <v>477</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>612</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>428</v>
+        <v>135</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>104</v>
@@ -3319,26 +3544,26 @@
       <c r="C26" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E26" s="1" t="s">
-        <v>429</v>
+        <v>75</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>617</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>430</v>
+        <v>78</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>437</v>
+        <v>136</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>104</v>
@@ -3346,26 +3571,28 @@
       <c r="C27" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E27" s="1" t="s">
-        <v>431</v>
+        <v>76</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>432</v>
+        <v>606</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>438</v>
+        <v>137</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>104</v>
@@ -3373,26 +3600,28 @@
       <c r="C28" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="E28" s="1" t="s">
-        <v>433</v>
+        <v>77</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>434</v>
+        <v>607</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>104</v>
@@ -3402,24 +3631,24 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>435</v>
+        <v>402</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>605</v>
+        <v>586</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>436</v>
+        <v>610</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>104</v>
@@ -3429,16 +3658,16 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>421</v>
+        <v>615</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>430</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>390</v>
@@ -3446,7 +3675,7 @@
     </row>
     <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>116</v>
+        <v>437</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>104</v>
@@ -3454,28 +3683,26 @@
       <c r="C31" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>32</v>
+        <v>431</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>33</v>
+        <v>432</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>34</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>117</v>
+        <v>438</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>104</v>
@@ -3483,86 +3710,80 @@
       <c r="C32" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>35</v>
+        <v>433</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>36</v>
+        <v>434</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>34</v>
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>118</v>
+        <v>439</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>37</v>
+        <v>435</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>38</v>
+        <v>436</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>34</v>
+        <v>390</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>119</v>
+        <v>420</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>40</v>
+        <v>419</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>598</v>
+        <v>151</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>39</v>
+        <v>421</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>104</v>
@@ -3574,27 +3795,27 @@
         <v>65</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>343</v>
@@ -3603,16 +3824,16 @@
         <v>65</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>34</v>
@@ -3620,7 +3841,7 @@
     </row>
     <row r="37" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>107</v>
@@ -3632,27 +3853,27 @@
         <v>65</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>343</v>
@@ -3661,27 +3882,27 @@
         <v>65</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>343</v>
@@ -3690,13 +3911,13 @@
         <v>65</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>41</v>
@@ -3705,121 +3926,125 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>104</v>
@@ -3829,20 +4054,24 @@
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>272</v>
+        <v>422</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G44" s="1"/>
+        <v>602</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>619</v>
+      </c>
       <c r="H44" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>274</v>
+        <v>427</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>104</v>
@@ -3852,20 +4081,24 @@
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>317</v>
+        <v>424</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G45" s="1"/>
+        <v>603</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>619</v>
+      </c>
       <c r="H45" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>407</v>
+        <v>147</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>104</v>
@@ -3873,26 +4106,28 @@
       <c r="C46" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E46" s="1" t="s">
-        <v>408</v>
+        <v>109</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>605</v>
+        <v>586</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>619</v>
+        <v>587</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>410</v>
+        <v>149</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>412</v>
+        <v>148</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>104</v>
@@ -3900,26 +4135,28 @@
       <c r="C47" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E47" s="1" t="s">
-        <v>415</v>
+        <v>110</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>605</v>
+        <v>586</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>619</v>
+        <v>587</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>491</v>
+        <v>149</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>413</v>
+        <v>265</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>104</v>
@@ -3929,24 +4166,20 @@
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>414</v>
+        <v>272</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>619</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>418</v>
+        <v>274</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>104</v>
@@ -3956,24 +4189,20 @@
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>416</v>
+        <v>317</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>619</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="G49" s="1"/>
       <c r="H49" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>489</v>
+        <v>407</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>104</v>
@@ -3983,24 +4212,24 @@
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>490</v>
+        <v>408</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>492</v>
+        <v>410</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>509</v>
+        <v>412</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>104</v>
@@ -4010,24 +4239,24 @@
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>493</v>
+        <v>415</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>510</v>
+        <v>413</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>104</v>
@@ -4037,24 +4266,24 @@
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>624</v>
+        <v>414</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>495</v>
+        <v>411</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>511</v>
+        <v>418</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>104</v>
@@ -4064,22 +4293,24 @@
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>503</v>
+        <v>416</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>512</v>
+        <v>489</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>104</v>
@@ -4089,22 +4320,24 @@
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>104</v>
@@ -4114,138 +4347,126 @@
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>603</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>104</v>
@@ -4257,24 +4478,24 @@
         <v>29</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>104</v>
@@ -4286,24 +4507,24 @@
         <v>29</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>286</v>
+        <v>628</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>104</v>
@@ -4311,26 +4532,28 @@
       <c r="C62" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E62" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>104</v>
@@ -4338,26 +4561,28 @@
       <c r="C63" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E63" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>601</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>104</v>
@@ -4365,9 +4590,11 @@
       <c r="C64" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E64" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>601</v>
@@ -4376,15 +4603,15 @@
         <v>614</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>104</v>
@@ -4392,26 +4619,28 @@
       <c r="C65" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E65" s="1" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>104</v>
@@ -4421,24 +4650,24 @@
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>104</v>
@@ -4448,24 +4677,24 @@
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>104</v>
@@ -4475,24 +4704,24 @@
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>104</v>
@@ -4502,24 +4731,24 @@
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>629</v>
+        <v>612</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>104</v>
@@ -4529,24 +4758,24 @@
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>626</v>
+        <v>599</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>104</v>
@@ -4556,24 +4785,24 @@
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
-        <v>699</v>
+        <v>299</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>692</v>
+        <v>599</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>693</v>
+        <v>612</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>104</v>
@@ -4583,24 +4812,24 @@
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
-        <v>700</v>
+        <v>301</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>692</v>
+        <v>600</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>693</v>
+        <v>626</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>647</v>
+        <v>702</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>104</v>
@@ -4610,24 +4839,24 @@
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
-        <v>698</v>
+        <v>303</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>692</v>
+        <v>600</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>693</v>
+        <v>627</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>104</v>
@@ -4637,24 +4866,24 @@
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
-        <v>697</v>
+        <v>305</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>692</v>
+        <v>624</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>693</v>
+        <v>625</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>690</v>
+        <v>641</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>104</v>
@@ -4664,24 +4893,24 @@
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
-        <v>314</v>
+        <v>719</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>691</v>
+        <v>642</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>456</v>
+        <v>309</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>104</v>
@@ -4691,22 +4920,24 @@
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="s">
-        <v>457</v>
+        <v>720</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="G76" s="1"/>
+        <v>675</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>676</v>
+      </c>
       <c r="H76" s="1" t="s">
-        <v>461</v>
+        <v>643</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>488</v>
+        <v>310</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>104</v>
@@ -4716,22 +4947,24 @@
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
-        <v>486</v>
+        <v>721</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>603</v>
+        <v>675</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>625</v>
+        <v>676</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>672</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>542</v>
+        <v>312</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>104</v>
@@ -4741,22 +4974,24 @@
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1" t="s">
-        <v>661</v>
+        <v>722</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>603</v>
+        <v>675</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>625</v>
+        <v>676</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>673</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>543</v>
+        <v>316</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>104</v>
@@ -4766,22 +5001,24 @@
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1" t="s">
-        <v>662</v>
+        <v>314</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>603</v>
+        <v>675</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>625</v>
+        <v>676</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>674</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>104</v>
@@ -4791,18 +5028,22 @@
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="F80" s="1"/>
+        <v>457</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>694</v>
+        <v>488</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>104</v>
@@ -4812,22 +5053,22 @@
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1" t="s">
-        <v>695</v>
+        <v>486</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>692</v>
+        <v>601</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>693</v>
+        <v>623</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>696</v>
+        <v>487</v>
       </c>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>704</v>
+        <v>542</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>104</v>
@@ -4837,22 +5078,22 @@
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1" t="s">
-        <v>701</v>
+        <v>652</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="G82" s="1"/>
+        <v>601</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>623</v>
+      </c>
       <c r="H82" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>445</v>
+        <v>543</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>104</v>
@@ -4862,22 +5103,22 @@
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="s">
-        <v>667</v>
+        <v>723</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>669</v>
+        <v>541</v>
       </c>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>447</v>
+        <v>545</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>104</v>
@@ -4887,24 +5128,20 @@
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>613</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
       <c r="H84" s="1" t="s">
-        <v>665</v>
+        <v>546</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>448</v>
+        <v>677</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>104</v>
@@ -4914,24 +5151,22 @@
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1" t="s">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>588</v>
+        <v>675</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>613</v>
+        <v>676</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>679</v>
+      </c>
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>450</v>
+        <v>682</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>104</v>
@@ -4941,22 +5176,22 @@
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1" t="s">
-        <v>668</v>
+        <v>724</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>613</v>
-      </c>
+        <v>675</v>
+      </c>
+      <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>680</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>451</v>
+        <v>697</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>104</v>
@@ -4966,24 +5201,20 @@
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>613</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
       <c r="H87" s="1" t="s">
-        <v>671</v>
+        <v>699</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>452</v>
+        <v>705</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>104</v>
@@ -4993,24 +5224,18 @@
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>613</v>
-      </c>
+        <v>703</v>
+      </c>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
       <c r="H88" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>704</v>
+      </c>
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>104</v>
@@ -5020,24 +5245,22 @@
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
-        <v>674</v>
+        <v>653</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>654</v>
+      </c>
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>104</v>
@@ -5047,24 +5270,24 @@
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1" t="s">
-        <v>675</v>
+        <v>715</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>676</v>
+        <v>712</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>679</v>
+        <v>448</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>104</v>
@@ -5074,24 +5297,24 @@
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
-        <v>677</v>
+        <v>716</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>678</v>
+        <v>713</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>681</v>
+        <v>450</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>104</v>
@@ -5101,20 +5324,22 @@
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1" t="s">
-        <v>680</v>
+        <v>717</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G92" s="1"/>
+        <v>586</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>611</v>
+      </c>
       <c r="H92" s="1" t="s">
-        <v>682</v>
+        <v>714</v>
       </c>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>685</v>
+        <v>451</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>104</v>
@@ -5124,20 +5349,24 @@
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1" t="s">
-        <v>683</v>
+        <v>656</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G93" s="1"/>
+        <v>586</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>611</v>
+      </c>
       <c r="H93" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>655</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>688</v>
+        <v>452</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>104</v>
@@ -5147,508 +5376,516 @@
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
+        <v>449</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>611</v>
+      </c>
       <c r="H94" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D95" s="1" t="s">
+      <c r="B102" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>597</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>609</v>
+        <v>151</v>
       </c>
       <c r="H102" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="H109" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="I109" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
+    <row r="110" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D103" s="1" t="s">
+      <c r="B110" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I103" s="1" t="s">
+      <c r="F110" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="I110" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
+    <row r="111" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D104" s="1" t="s">
+      <c r="B111" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="H104" s="1" t="s">
+      <c r="F111" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="H111" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I104" s="1" t="s">
+      <c r="I111" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
+    <row r="112" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D105" s="1" t="s">
+      <c r="B112" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E112" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="H105" s="1" t="s">
+      <c r="F112" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H112" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I105" s="1" t="s">
+      <c r="I112" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
+    <row r="113" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="I107" s="1"/>
-    </row>
-    <row r="108" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>656</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>104</v>
@@ -5658,22 +5895,22 @@
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1" t="s">
-        <v>590</v>
+        <v>646</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>497</v>
+        <v>647</v>
       </c>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="1:9" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>657</v>
+        <v>499</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>104</v>
@@ -5683,22 +5920,22 @@
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1" t="s">
-        <v>591</v>
+        <v>706</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>498</v>
+        <v>645</v>
       </c>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>465</v>
+        <v>502</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>104</v>
@@ -5708,513 +5945,467 @@
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="I115" s="1"/>
+    </row>
+    <row r="116" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="I116" s="1"/>
+    </row>
+    <row r="117" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="I117" s="1"/>
+    </row>
+    <row r="118" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="I118" s="1"/>
+    </row>
+    <row r="119" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="I119" s="1"/>
+    </row>
+    <row r="120" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="I121" s="1"/>
+    </row>
+    <row r="122" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="I122" s="1"/>
+    </row>
+    <row r="123" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="I123" s="1"/>
+    </row>
+    <row r="124" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="I124" s="1"/>
+    </row>
+    <row r="125" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1" t="s">
+      <c r="F125" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
+      <c r="I125" s="1"/>
+    </row>
+    <row r="126" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D116" s="1" t="s">
+      <c r="B126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="H116" s="1" t="s">
+      <c r="F126" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="H126" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I116" s="1" t="s">
+      <c r="I126" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
+    <row r="127" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D117" s="1" t="s">
+      <c r="B127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E127" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="H117" s="1" t="s">
+      <c r="F127" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="H127" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I117" s="1" t="s">
+      <c r="I127" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
+    <row r="128" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D118" s="1" t="s">
+      <c r="C128" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="H118" s="1" t="s">
+      <c r="F128" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="H128" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I118" s="1" t="s">
+      <c r="I128" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
+    <row r="129" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D119" s="1" t="s">
+      <c r="B129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="E129" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="G119" s="1" t="s">
+      <c r="F129" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G132" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="H119" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I119" s="1" t="s">
+      <c r="H132" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I132" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
+    <row r="133" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>226</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>227</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>228</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>229</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>230</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>231</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>232</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>104</v>
@@ -6226,24 +6417,24 @@
         <v>102</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>233</v>
+    <row r="134" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>104</v>
@@ -6255,24 +6446,24 @@
         <v>102</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="I134" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>234</v>
+    <row r="135" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>104</v>
@@ -6284,24 +6475,24 @@
         <v>102</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="I135" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>235</v>
+    <row r="136" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>104</v>
@@ -6313,24 +6504,24 @@
         <v>102</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="I136" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>104</v>
@@ -6342,24 +6533,24 @@
         <v>102</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>104</v>
@@ -6371,24 +6562,24 @@
         <v>102</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>104</v>
@@ -6400,24 +6591,24 @@
         <v>102</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="I139" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>104</v>
@@ -6429,24 +6620,24 @@
         <v>102</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="I140" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>104</v>
@@ -6458,24 +6649,24 @@
         <v>102</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="I141" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>104</v>
@@ -6487,24 +6678,24 @@
         <v>102</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="I142" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>104</v>
@@ -6516,24 +6707,24 @@
         <v>102</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="I143" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>104</v>
@@ -6545,24 +6736,24 @@
         <v>102</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="I144" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>104</v>
@@ -6574,24 +6765,24 @@
         <v>102</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>104</v>
@@ -6603,24 +6794,24 @@
         <v>102</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="I146" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>104</v>
@@ -6632,24 +6823,24 @@
         <v>102</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>104</v>
@@ -6661,24 +6852,24 @@
         <v>102</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="I148" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>104</v>
@@ -6690,24 +6881,24 @@
         <v>102</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="I149" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>249</v>
+    <row r="150" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>239</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>104</v>
@@ -6719,24 +6910,24 @@
         <v>102</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="I150" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
-        <v>250</v>
+    <row r="151" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>240</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>104</v>
@@ -6748,24 +6939,24 @@
         <v>102</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="I151" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
-        <v>251</v>
+    <row r="152" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>241</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>104</v>
@@ -6777,24 +6968,24 @@
         <v>102</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="I152" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
-        <v>252</v>
+    <row r="153" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>242</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>104</v>
@@ -6806,24 +6997,24 @@
         <v>102</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="I153" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
-        <v>253</v>
+    <row r="154" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>243</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>104</v>
@@ -6835,24 +7026,24 @@
         <v>102</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
-        <v>254</v>
+    <row r="155" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>244</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>104</v>
@@ -6864,24 +7055,24 @@
         <v>102</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="I155" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
-        <v>255</v>
+    <row r="156" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>245</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>104</v>
@@ -6893,24 +7084,24 @@
         <v>102</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="I156" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
-        <v>256</v>
+    <row r="157" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>246</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>104</v>
@@ -6922,24 +7113,24 @@
         <v>102</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="I157" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
-        <v>257</v>
+    <row r="158" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>247</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>104</v>
@@ -6951,303 +7142,343 @@
         <v>102</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="I158" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
+    <row r="159" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>248</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D159" s="1" t="s">
+      <c r="B169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E169" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F159" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="H159" s="1" t="s">
+      <c r="F169" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H169" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="I159" s="1" t="s">
+      <c r="I169" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
+    <row r="170" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="H160" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="I160" s="1"/>
-    </row>
-    <row r="161" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="H161" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="I161" s="1"/>
-    </row>
-    <row r="162" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="I162" s="1"/>
-    </row>
-    <row r="163" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="H163" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="I163" s="1"/>
-    </row>
-    <row r="164" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G164" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="H164" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="I164" s="1"/>
-    </row>
-    <row r="165" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="H165" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="I165" s="1"/>
-    </row>
-    <row r="166" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="H166" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="I166" s="1"/>
-    </row>
-    <row r="167" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G167" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="I167" s="1"/>
-    </row>
-    <row r="168" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="H168" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="I168" s="1"/>
-    </row>
-    <row r="169" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="H169" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="I169" s="1"/>
-    </row>
-    <row r="170" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
-        <v>581</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>104</v>
@@ -7257,22 +7488,22 @@
       </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1" t="s">
-        <v>573</v>
+        <v>786</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="H170" s="3" t="s">
-        <v>577</v>
+        <v>618</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>548</v>
       </c>
       <c r="I170" s="1"/>
     </row>
-    <row r="171" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>583</v>
+        <v>551</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>104</v>
@@ -7282,194 +7513,172 @@
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1" t="s">
-        <v>582</v>
+        <v>549</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="H171" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I171" s="1"/>
+    </row>
+    <row r="172" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="I172" s="1"/>
+    </row>
+    <row r="173" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I173" s="1"/>
+    </row>
+    <row r="174" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="I174" s="1"/>
+    </row>
+    <row r="175" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="I171" s="1"/>
-    </row>
-    <row r="172" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="G172" s="1"/>
-      <c r="H172" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I172" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I173" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="G174" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="H174" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I174" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>484</v>
-      </c>
       <c r="F175" s="1" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I175" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>565</v>
+      </c>
+      <c r="I175" s="1"/>
+    </row>
+    <row r="176" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>269</v>
+        <v>568</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D176" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="D176" s="1"/>
       <c r="E176" s="1" t="s">
-        <v>481</v>
+        <v>562</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I176" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>566</v>
+      </c>
+      <c r="I176" s="1"/>
+    </row>
+    <row r="177" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>270</v>
+        <v>577</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D177" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="D177" s="1"/>
       <c r="E177" s="1" t="s">
-        <v>485</v>
+        <v>569</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>151</v>
+        <v>618</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I177" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+      <c r="I177" s="1"/>
+    </row>
+    <row r="178" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>318</v>
+        <v>578</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>104</v>
@@ -7477,28 +7686,24 @@
       <c r="C178" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D178" s="1" t="s">
-        <v>319</v>
-      </c>
+      <c r="D178" s="1"/>
       <c r="E178" s="1" t="s">
-        <v>320</v>
+        <v>570</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="H178" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="I178" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>618</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="I178" s="1"/>
+    </row>
+    <row r="179" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>328</v>
+        <v>579</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>104</v>
@@ -7508,24 +7713,22 @@
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1" t="s">
-        <v>322</v>
+        <v>571</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="H179" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="I179" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>618</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="I179" s="1"/>
+    </row>
+    <row r="180" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>329</v>
+        <v>580</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>104</v>
@@ -7533,22 +7736,24 @@
       <c r="C180" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="D180" s="1"/>
       <c r="E180" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
-      <c r="H180" s="1" t="s">
-        <v>326</v>
+        <v>572</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>576</v>
       </c>
       <c r="I180" s="1"/>
     </row>
-    <row r="181" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>330</v>
+        <v>581</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>104</v>
@@ -7556,28 +7761,24 @@
       <c r="C181" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="D181" s="1"/>
       <c r="E181" s="1" t="s">
-        <v>324</v>
+        <v>785</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="H181" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="I181" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>618</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="I181" s="1"/>
+    </row>
+    <row r="182" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>331</v>
+        <v>134</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>104</v>
@@ -7586,27 +7787,25 @@
         <v>343</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>334</v>
+        <v>58</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>327</v>
+        <v>271</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>589</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="G182" s="1"/>
       <c r="H182" s="1" t="s">
-        <v>355</v>
+        <v>59</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>104</v>
@@ -7615,27 +7814,27 @@
         <v>343</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>334</v>
+        <v>64</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>332</v>
+        <v>483</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>355</v>
+        <v>18</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>335</v>
+        <v>266</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>104</v>
@@ -7643,107 +7842,115 @@
       <c r="C184" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D184" s="1"/>
+      <c r="D184" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E184" s="1" t="s">
-        <v>382</v>
+        <v>482</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>354</v>
+        <v>17</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D185" s="1"/>
+      <c r="D185" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E185" s="1" t="s">
-        <v>381</v>
+        <v>484</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>354</v>
+        <v>19</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D186" s="1"/>
+      <c r="D186" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E186" s="1" t="s">
-        <v>337</v>
+        <v>481</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>353</v>
+        <v>20</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D187" s="1"/>
+      <c r="D187" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="E187" s="1" t="s">
-        <v>338</v>
+        <v>485</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>589</v>
+        <v>151</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>353</v>
+        <v>72</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>104</v>
@@ -7751,26 +7958,28 @@
       <c r="C188" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D188" s="1"/>
+      <c r="D188" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="E188" s="1" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="I188" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>104</v>
@@ -7780,24 +7989,24 @@
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="I189" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>104</v>
@@ -7805,26 +8014,22 @@
       <c r="C190" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D190" s="1"/>
+      <c r="D190" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E190" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G190" s="1" t="s">
-        <v>589</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
       <c r="H190" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="I190" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+      <c r="I190" s="1"/>
+    </row>
+    <row r="191" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>104</v>
@@ -7832,26 +8037,28 @@
       <c r="C191" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D191" s="1"/>
+      <c r="D191" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E191" s="1" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="I191" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>104</v>
@@ -7859,26 +8066,28 @@
       <c r="C192" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D192" s="1"/>
+      <c r="D192" s="1" t="s">
+        <v>334</v>
+      </c>
       <c r="E192" s="1" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="I192" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>104</v>
@@ -7886,26 +8095,28 @@
       <c r="C193" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D193" s="1"/>
+      <c r="D193" s="1" t="s">
+        <v>334</v>
+      </c>
       <c r="E193" s="1" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="I193" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>104</v>
@@ -7915,24 +8126,24 @@
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>589</v>
+        <v>610</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="I194" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>104</v>
@@ -7942,24 +8153,24 @@
       </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>589</v>
+        <v>610</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="I195" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>104</v>
@@ -7969,24 +8180,24 @@
       </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="I196" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>104</v>
@@ -7996,24 +8207,24 @@
       </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="I197" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>104</v>
@@ -8023,24 +8234,24 @@
       </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="I198" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>104</v>
@@ -8050,24 +8261,24 @@
       </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="H199" s="1" t="s">
-        <v>365</v>
+        <v>587</v>
+      </c>
+      <c r="H199" s="4" t="s">
+        <v>352</v>
       </c>
       <c r="I199" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>104</v>
@@ -8077,24 +8288,24 @@
       </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="H200" s="1" t="s">
-        <v>368</v>
+        <v>587</v>
+      </c>
+      <c r="H200" s="4" t="s">
+        <v>351</v>
       </c>
       <c r="I200" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>104</v>
@@ -8104,24 +8315,24 @@
       </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="H201" s="1" t="s">
-        <v>368</v>
+        <v>587</v>
+      </c>
+      <c r="H201" s="4" t="s">
+        <v>351</v>
       </c>
       <c r="I201" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>104</v>
@@ -8131,24 +8342,24 @@
       </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="H202" s="1" t="s">
-        <v>385</v>
+        <v>587</v>
+      </c>
+      <c r="H202" s="4" t="s">
+        <v>350</v>
       </c>
       <c r="I202" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>104</v>
@@ -8158,24 +8369,24 @@
       </c>
       <c r="D203" s="1"/>
       <c r="E203" s="1" t="s">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="I203" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>104</v>
@@ -8185,24 +8396,24 @@
       </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>612</v>
+        <v>587</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>464</v>
+        <v>374</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>104</v>
@@ -8212,20 +8423,24 @@
       </c>
       <c r="D205" s="1"/>
       <c r="E205" s="1" t="s">
-        <v>460</v>
+        <v>358</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="G205" s="1"/>
-      <c r="H205" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="I205" s="1"/>
-    </row>
-    <row r="206" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H205" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>523</v>
+        <v>375</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>104</v>
@@ -8235,20 +8450,24 @@
       </c>
       <c r="D206" s="1"/>
       <c r="E206" s="1" t="s">
-        <v>525</v>
+        <v>359</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="G206" s="1"/>
-      <c r="H206" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I206" s="1"/>
-    </row>
-    <row r="207" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H206" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>526</v>
+        <v>376</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>104</v>
@@ -8258,20 +8477,24 @@
       </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1" t="s">
-        <v>553</v>
+        <v>360</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="G207" s="1"/>
-      <c r="H207" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="I207" s="1"/>
-    </row>
-    <row r="208" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H207" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>532</v>
+        <v>377</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>104</v>
@@ -8281,20 +8504,24 @@
       </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1" t="s">
-        <v>529</v>
+        <v>363</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="G208" s="1"/>
-      <c r="H208" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="I208" s="1"/>
-    </row>
-    <row r="209" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H208" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>533</v>
+        <v>378</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>104</v>
@@ -8304,20 +8531,24 @@
       </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1" t="s">
-        <v>530</v>
+        <v>364</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="G209" s="1"/>
+        <v>586</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>587</v>
+      </c>
       <c r="H209" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="I209" s="1"/>
-    </row>
-    <row r="210" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>536</v>
+        <v>379</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>104</v>
@@ -8327,20 +8558,24 @@
       </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1" t="s">
-        <v>534</v>
+        <v>366</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="G210" s="1"/>
+        <v>586</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>587</v>
+      </c>
       <c r="H210" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="I210" s="1"/>
-    </row>
-    <row r="211" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>539</v>
+        <v>380</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>104</v>
@@ -8350,16 +8585,656 @@
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="I214" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="I215" s="1"/>
+    </row>
+    <row r="216" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="I216" s="1"/>
+    </row>
+    <row r="217" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="I217" s="1"/>
+    </row>
+    <row r="218" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I218" s="1"/>
+    </row>
+    <row r="219" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="I219" s="1"/>
+    </row>
+    <row r="220" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="I220" s="1"/>
+    </row>
+    <row r="221" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="I221" s="1"/>
+    </row>
+    <row r="222" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="I222" s="1"/>
+    </row>
+    <row r="223" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="F211" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="G211" s="1"/>
-      <c r="H211" s="1" t="s">
+      <c r="F223" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="I211" s="1"/>
+      <c r="I223" s="1"/>
+    </row>
+    <row r="224" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="I224" s="1"/>
+    </row>
+    <row r="225" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="I225" s="1"/>
+    </row>
+    <row r="226" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="I226" s="1"/>
+    </row>
+    <row r="227" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="I227" s="1"/>
+    </row>
+    <row r="228" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+      <c r="H228" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="I228" s="1"/>
+    </row>
+    <row r="229" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="I229" s="1"/>
+    </row>
+    <row r="230" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="I230" s="1"/>
+    </row>
+    <row r="231" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
+      <c r="H231" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I231" s="1"/>
+    </row>
+    <row r="232" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="I232" s="1"/>
+    </row>
+    <row r="233" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="I233" s="1"/>
+    </row>
+    <row r="234" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="I234" s="1"/>
+    </row>
+    <row r="235" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="I235" s="1"/>
+    </row>
+    <row r="236" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="F236" s="1"/>
+      <c r="G236" s="1"/>
+      <c r="H236" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="I236" s="1"/>
+    </row>
+    <row r="237" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="I237" s="1"/>
+    </row>
+    <row r="238" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="F238" s="1"/>
+      <c r="G238" s="1"/>
+      <c r="H238" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="I238" s="1"/>
+    </row>
+    <row r="239" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+      <c r="H239" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="I239" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/delta2/lib_p/dpid_winlol.xlsx
+++ b/delta2/lib_p/dpid_winlol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7230C637-AE62-1747-9EC1-61367FBB8F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB9AE31-B03E-3847-B706-1EEB1C15367C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="796">
   <si>
     <t>delta_pattern</t>
   </si>
@@ -1530,9 +1530,6 @@
     <t>pshell-pid0002</t>
   </si>
   <si>
-    <t>Powershell DotNet System.Net.WebClient Class Called DownloadFile() Method  To DownLoad File From HTTP</t>
-  </si>
-  <si>
     <t>Powershell DotNet System.Net.WebClient Class Called DownloadFile() Method  To DownLoad MSI File From HTTP</t>
   </si>
   <si>
@@ -1803,9 +1800,6 @@
     <t>t1062.001</t>
   </si>
   <si>
-    <t>{case_insensitive}(process_command_line CONTAINS  'powershell' ) AND (process_command_line COTNAINS ['-c' OR '-Command']) AND (process_command_line CONTAINS ['DownloadFile' AND 'Net.WebCLient'] AND (process_command_line CONTAINS ['http://' OR 'https://'])</t>
-  </si>
-  <si>
     <t>{case_insensitive}(process_command_line CONTAINS  'powershell' ) AND (process_command_line COTNAINS ['-c' OR  '-Command']) AND (process_command_line CONTAINS ['DownloadFile' AND 'Net.WebClient'] AND (process_command_line CONTAINS ['http://' OR 'https://']) AND (process_command_line CONTAINS '.msi')</t>
   </si>
   <si>
@@ -2416,6 +2410,21 @@
   </si>
   <si>
     <t>Regsvr32 Executed Dll From User AppData\Local\temp Folder</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'powershell' ) AND (process_command_line CONTAINS ['DownloadString' AND 'Net.WebCLient'] AND (process_command_line CONTAINS ['http://' OR 'https://'])</t>
+  </si>
+  <si>
+    <t>PowerEhll DotNet WebClient Class Called Downloadstring Method From HTTP</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'powershell' ) AND (process_command_line CONTAINS ['DownloadFile' AND 'Net.WebCLient'] AND (process_command_line CONTAINS ['http://' OR 'https://'])</t>
+  </si>
+  <si>
+    <t>Powershell DotNet WebClient Class Called DownloadFile Method   From HTTP</t>
+  </si>
+  <si>
+    <t>pshell-pid0018</t>
   </si>
 </sst>
 </file>
@@ -2542,10 +2551,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:I239" totalsRowShown="0" dataDxfId="9">
-  <autoFilter ref="A1:I239" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I223">
-    <sortCondition ref="A1:A223"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:I240" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="A1:I240" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I239">
+    <sortCondition ref="A1:A239"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7D4B3AB6-B672-1C40-9238-21F80D82D786}" name="delta_pid" dataDxfId="8"/>
@@ -2879,11 +2888,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D53A90-A29C-2641-AD43-11CCFA7849AF}">
-  <dimension ref="A1:I239"/>
+  <dimension ref="A1:I240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E109" sqref="E109"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2930,7 +2939,7 @@
     </row>
     <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>104</v>
@@ -2940,18 +2949,18 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>104</v>
@@ -2961,22 +2970,22 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>104</v>
@@ -2986,22 +2995,22 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>104</v>
@@ -3011,18 +3020,18 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>104</v>
@@ -3032,18 +3041,18 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>104</v>
@@ -3053,18 +3062,18 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>104</v>
@@ -3074,12 +3083,12 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -3100,10 +3109,10 @@
         <v>56</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>53</v>
@@ -3127,10 +3136,10 @@
         <v>394</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>389</v>
@@ -3154,10 +3163,10 @@
         <v>395</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>392</v>
@@ -3181,10 +3190,10 @@
         <v>396</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>393</v>
@@ -3208,10 +3217,10 @@
         <v>398</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>399</v>
@@ -3237,10 +3246,10 @@
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>11</v>
@@ -3266,10 +3275,10 @@
         <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>10</v>
@@ -3295,10 +3304,10 @@
         <v>9</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>14</v>
@@ -3324,10 +3333,10 @@
         <v>13</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>15</v>
@@ -3351,10 +3360,10 @@
         <v>440</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>441</v>
@@ -3378,10 +3387,10 @@
         <v>443</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>441</v>
@@ -3407,10 +3416,10 @@
         <v>61</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>62</v>
@@ -3434,7 +3443,7 @@
         <v>467</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
@@ -3457,7 +3466,7 @@
         <v>468</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
@@ -3480,7 +3489,7 @@
         <v>470</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
@@ -3503,7 +3512,7 @@
         <v>473</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
@@ -3526,7 +3535,7 @@
         <v>477</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
@@ -3551,7 +3560,7 @@
         <v>75</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
@@ -3578,12 +3587,12 @@
         <v>76</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="H27" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>79</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -3607,12 +3616,12 @@
         <v>77</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="H28" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>80</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -3634,12 +3643,12 @@
         <v>402</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="H29" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>404</v>
       </c>
       <c r="I29" s="1" t="s">
@@ -3661,12 +3670,12 @@
         <v>429</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="H30" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>430</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -3688,10 +3697,10 @@
         <v>431</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>432</v>
@@ -3715,10 +3724,10 @@
         <v>433</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>434</v>
@@ -3742,10 +3751,10 @@
         <v>435</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>436</v>
@@ -3769,7 +3778,7 @@
         <v>419</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>151</v>
@@ -3783,7 +3792,7 @@
     </row>
     <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>116</v>
+        <v>771</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>104</v>
@@ -3791,28 +3800,20 @@
       <c r="C35" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>596</v>
-      </c>
+        <v>772</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>104</v>
@@ -3824,27 +3825,27 @@
         <v>65</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>343</v>
@@ -3853,27 +3854,27 @@
         <v>65</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>343</v>
@@ -3882,27 +3883,27 @@
         <v>65</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>343</v>
@@ -3911,16 +3912,16 @@
         <v>65</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>34</v>
@@ -3928,10 +3929,10 @@
     </row>
     <row r="40" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>343</v>
@@ -3940,16 +3941,16 @@
         <v>65</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>34</v>
@@ -3957,7 +3958,7 @@
     </row>
     <row r="41" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>107</v>
@@ -3969,16 +3970,16 @@
         <v>65</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>34</v>
@@ -3986,7 +3987,7 @@
     </row>
     <row r="42" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>107</v>
@@ -3998,13 +3999,13 @@
         <v>65</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>44</v>
@@ -4013,12 +4014,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>343</v>
@@ -4027,16 +4028,16 @@
         <v>65</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>34</v>
@@ -4044,34 +4045,36 @@
     </row>
     <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>427</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>104</v>
@@ -4081,16 +4084,16 @@
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>390</v>
@@ -4098,7 +4101,7 @@
     </row>
     <row r="46" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>147</v>
+        <v>427</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>104</v>
@@ -4106,28 +4109,26 @@
       <c r="C46" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>109</v>
+        <v>424</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>587</v>
+        <v>617</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>149</v>
+        <v>425</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>150</v>
+        <v>390</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>104</v>
@@ -4139,13 +4140,13 @@
         <v>102</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>587</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>149</v>
@@ -4156,7 +4157,7 @@
     </row>
     <row r="48" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>265</v>
+        <v>148</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>104</v>
@@ -4164,22 +4165,28 @@
       <c r="C48" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E48" s="1" t="s">
-        <v>272</v>
+        <v>110</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="G48" s="1"/>
+        <v>585</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>586</v>
+      </c>
       <c r="H48" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I48" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="49" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>104</v>
@@ -4189,20 +4196,20 @@
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>407</v>
+        <v>274</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>104</v>
@@ -4212,24 +4219,20 @@
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>408</v>
+        <v>317</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>617</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>104</v>
@@ -4239,24 +4242,24 @@
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>491</v>
+        <v>410</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>104</v>
@@ -4266,24 +4269,24 @@
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>411</v>
+        <v>491</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>104</v>
@@ -4293,16 +4296,16 @@
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>390</v>
@@ -4310,7 +4313,7 @@
     </row>
     <row r="54" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>489</v>
+        <v>418</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>104</v>
@@ -4320,16 +4323,16 @@
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>490</v>
+        <v>416</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>492</v>
+        <v>417</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>390</v>
@@ -4337,7 +4340,7 @@
     </row>
     <row r="55" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>104</v>
@@ -4347,24 +4350,24 @@
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>104</v>
@@ -4374,24 +4377,24 @@
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>622</v>
+        <v>493</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>104</v>
@@ -4401,22 +4404,24 @@
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>503</v>
+        <v>620</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>104</v>
@@ -4426,22 +4431,22 @@
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>104</v>
@@ -4451,22 +4456,22 @@
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>277</v>
+        <v>512</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>104</v>
@@ -4474,28 +4479,24 @@
       <c r="C60" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
-        <v>276</v>
+        <v>504</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>278</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>104</v>
@@ -4507,16 +4508,16 @@
         <v>29</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>628</v>
+        <v>276</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>278</v>
@@ -4524,7 +4525,7 @@
     </row>
     <row r="62" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>104</v>
@@ -4536,16 +4537,16 @@
         <v>29</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>280</v>
+        <v>626</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>278</v>
@@ -4553,7 +4554,7 @@
     </row>
     <row r="63" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>104</v>
@@ -4565,16 +4566,16 @@
         <v>29</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>278</v>
@@ -4582,7 +4583,7 @@
     </row>
     <row r="64" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>104</v>
@@ -4594,16 +4595,16 @@
         <v>29</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>278</v>
@@ -4611,7 +4612,7 @@
     </row>
     <row r="65" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>104</v>
@@ -4623,16 +4624,16 @@
         <v>29</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>599</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>278</v>
@@ -4640,7 +4641,7 @@
     </row>
     <row r="66" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>104</v>
@@ -4648,26 +4649,28 @@
       <c r="C66" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E66" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>104</v>
@@ -4677,16 +4680,16 @@
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>290</v>
@@ -4694,7 +4697,7 @@
     </row>
     <row r="68" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>104</v>
@@ -4704,16 +4707,16 @@
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>290</v>
@@ -4721,7 +4724,7 @@
     </row>
     <row r="69" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>104</v>
@@ -4731,16 +4734,16 @@
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>290</v>
@@ -4748,7 +4751,7 @@
     </row>
     <row r="70" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>104</v>
@@ -4758,16 +4761,16 @@
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>290</v>
@@ -4775,7 +4778,7 @@
     </row>
     <row r="71" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>104</v>
@@ -4785,16 +4788,16 @@
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>290</v>
@@ -4802,7 +4805,7 @@
     </row>
     <row r="72" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>104</v>
@@ -4812,24 +4815,24 @@
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>702</v>
+        <v>638</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>104</v>
@@ -4839,16 +4842,16 @@
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>278</v>
@@ -4856,7 +4859,7 @@
     </row>
     <row r="74" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>104</v>
@@ -4866,16 +4869,16 @@
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>624</v>
+        <v>598</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>625</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>641</v>
+        <v>699</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>278</v>
@@ -4883,7 +4886,7 @@
     </row>
     <row r="75" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>104</v>
@@ -4893,24 +4896,24 @@
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
-        <v>719</v>
+        <v>305</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>675</v>
+        <v>622</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>676</v>
+        <v>623</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>104</v>
@@ -4920,24 +4923,24 @@
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>104</v>
@@ -4947,16 +4950,16 @@
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>672</v>
+        <v>641</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>311</v>
@@ -4964,7 +4967,7 @@
     </row>
     <row r="78" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>104</v>
@@ -4974,24 +4977,24 @@
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>104</v>
@@ -5001,24 +5004,24 @@
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1" t="s">
-        <v>314</v>
+        <v>720</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>456</v>
+        <v>316</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>104</v>
@@ -5028,22 +5031,24 @@
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1" t="s">
-        <v>457</v>
+        <v>314</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="G80" s="1"/>
+        <v>673</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>674</v>
+      </c>
       <c r="H80" s="1" t="s">
-        <v>461</v>
+        <v>672</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>458</v>
+        <v>315</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>488</v>
+        <v>456</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>104</v>
@@ -5053,22 +5058,22 @@
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1" t="s">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>623</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="I81" s="1"/>
+        <v>461</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="82" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>542</v>
+        <v>488</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>104</v>
@@ -5078,22 +5083,22 @@
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1" t="s">
-        <v>652</v>
+        <v>486</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>540</v>
+        <v>487</v>
       </c>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>104</v>
@@ -5103,22 +5108,22 @@
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="s">
-        <v>723</v>
+        <v>650</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>104</v>
@@ -5128,20 +5133,22 @@
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
+        <v>721</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>621</v>
+      </c>
       <c r="H84" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>700</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="I84" s="1"/>
     </row>
     <row r="85" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>677</v>
+        <v>544</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>104</v>
@@ -5151,22 +5158,20 @@
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>676</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
       <c r="H85" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="I85" s="1"/>
+        <v>545</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="86" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>104</v>
@@ -5176,22 +5181,22 @@
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1" t="s">
-        <v>724</v>
+        <v>676</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="G86" s="1"/>
+        <v>673</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>674</v>
+      </c>
       <c r="H86" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>681</v>
-      </c>
+        <v>677</v>
+      </c>
+      <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>104</v>
@@ -5201,20 +5206,22 @@
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="F87" s="1"/>
+        <v>722</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>673</v>
+      </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1" t="s">
-        <v>699</v>
+        <v>678</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>104</v>
@@ -5224,18 +5231,20 @@
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="I88" s="1"/>
+        <v>697</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="89" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>445</v>
+        <v>703</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>104</v>
@@ -5245,22 +5254,18 @@
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>611</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
-        <v>654</v>
+        <v>702</v>
       </c>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>447</v>
+        <v>775</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>104</v>
@@ -5270,24 +5275,18 @@
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>611</v>
-      </c>
+        <v>774</v>
+      </c>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
       <c r="H90" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>776</v>
+      </c>
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>448</v>
+        <v>779</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>104</v>
@@ -5297,24 +5296,18 @@
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>611</v>
-      </c>
+        <v>777</v>
+      </c>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
       <c r="H91" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>778</v>
+      </c>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>104</v>
@@ -5324,22 +5317,22 @@
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1" t="s">
-        <v>717</v>
+        <v>651</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>714</v>
+        <v>652</v>
       </c>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>104</v>
@@ -5349,24 +5342,24 @@
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1" t="s">
-        <v>656</v>
+        <v>713</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>655</v>
+        <v>710</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>104</v>
@@ -5376,24 +5369,24 @@
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1" t="s">
-        <v>449</v>
+        <v>714</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>657</v>
+        <v>711</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>104</v>
@@ -5403,24 +5396,22 @@
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>446</v>
-      </c>
+        <v>712</v>
+      </c>
+      <c r="I95" s="1"/>
     </row>
     <row r="96" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>104</v>
@@ -5430,16 +5421,16 @@
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>446</v>
@@ -5447,7 +5438,7 @@
     </row>
     <row r="97" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>662</v>
+        <v>452</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>104</v>
@@ -5457,16 +5448,16 @@
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1" t="s">
-        <v>660</v>
+        <v>449</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>446</v>
@@ -5474,7 +5465,7 @@
     </row>
     <row r="98" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>664</v>
+        <v>454</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>104</v>
@@ -5484,20 +5475,24 @@
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1" t="s">
-        <v>663</v>
+        <v>716</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="G98" s="1"/>
+        <v>585</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>609</v>
+      </c>
       <c r="H98" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="I98" s="1"/>
+        <v>453</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="99" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>668</v>
+        <v>455</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>104</v>
@@ -5507,20 +5502,24 @@
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="G99" s="1"/>
+        <v>585</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>609</v>
+      </c>
       <c r="H99" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="I99" s="1"/>
+        <v>657</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="100" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>104</v>
@@ -5530,18 +5529,24 @@
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
+        <v>658</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>609</v>
+      </c>
       <c r="H100" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="I100" s="1"/>
+        <v>659</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="101" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>683</v>
+        <v>662</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>104</v>
@@ -5551,22 +5556,20 @@
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1" t="s">
-        <v>685</v>
+        <v>661</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>611</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="G101" s="1"/>
       <c r="H101" s="1" t="s">
-        <v>684</v>
+        <v>663</v>
       </c>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>125</v>
+        <v>666</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>104</v>
@@ -5574,28 +5577,22 @@
       <c r="C102" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="D102" s="1"/>
       <c r="E102" s="1" t="s">
-        <v>48</v>
+        <v>664</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="G102" s="1"/>
       <c r="H102" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>126</v>
+        <v>669</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>104</v>
@@ -5603,28 +5600,20 @@
       <c r="C103" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="D103" s="1"/>
       <c r="E103" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>667</v>
+      </c>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
       <c r="H103" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>668</v>
+      </c>
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>127</v>
+        <v>681</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>104</v>
@@ -5632,28 +5621,24 @@
       <c r="C104" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="D104" s="1"/>
       <c r="E104" s="1" t="s">
-        <v>50</v>
+        <v>683</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>604</v>
+        <v>585</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>151</v>
+        <v>609</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>682</v>
+      </c>
+      <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>104</v>
@@ -5665,16 +5650,16 @@
         <v>28</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>151</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>22</v>
@@ -5682,7 +5667,7 @@
     </row>
     <row r="106" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>104</v>
@@ -5691,27 +5676,27 @@
         <v>343</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>151</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>104</v>
@@ -5720,19 +5705,19 @@
         <v>343</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>151</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>22</v>
@@ -5740,7 +5725,7 @@
     </row>
     <row r="108" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>104</v>
@@ -5749,56 +5734,56 @@
         <v>343</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>595</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>607</v>
+        <v>151</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>343</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>595</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>607</v>
+        <v>151</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>104</v>
@@ -5807,27 +5792,27 @@
         <v>343</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>595</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>607</v>
+        <v>151</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>711</v>
+        <v>31</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>104</v>
@@ -5839,16 +5824,16 @@
         <v>84</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>89</v>
@@ -5856,111 +5841,123 @@
     </row>
     <row r="112" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D112" s="1" t="s">
+      <c r="B115" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="F115" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G112" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="H112" s="1" t="s">
+      <c r="H115" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I112" s="1" t="s">
+      <c r="I115" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
+    <row r="116" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>582</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>104</v>
@@ -5970,22 +5967,22 @@
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1" t="s">
-        <v>708</v>
+        <v>644</v>
       </c>
       <c r="F116" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="G116" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="G116" s="1" t="s">
-        <v>584</v>
-      </c>
       <c r="H116" s="1" t="s">
-        <v>593</v>
+        <v>645</v>
       </c>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>590</v>
+        <v>498</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>104</v>
@@ -5995,22 +5992,22 @@
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="F117" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="G117" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="G117" s="1" t="s">
-        <v>584</v>
-      </c>
       <c r="H117" s="1" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>104</v>
@@ -6020,18 +6017,22 @@
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
+        <v>705</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="H118" s="1" t="s">
-        <v>501</v>
+        <v>642</v>
       </c>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>649</v>
+        <v>581</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>104</v>
@@ -6041,22 +6042,22 @@
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>650</v>
+        <v>588</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>104</v>
@@ -6066,22 +6067,22 @@
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1" t="s">
-        <v>588</v>
+        <v>707</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>497</v>
+        <v>646</v>
       </c>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>651</v>
+        <v>589</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>104</v>
@@ -6091,22 +6092,18 @@
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>584</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
       <c r="H121" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>686</v>
+        <v>647</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>104</v>
@@ -6116,22 +6113,22 @@
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1" t="s">
-        <v>693</v>
+        <v>708</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>675</v>
+        <v>590</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>687</v>
+        <v>583</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>688</v>
+        <v>592</v>
       </c>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>689</v>
+        <v>648</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>104</v>
@@ -6141,22 +6138,22 @@
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
-        <v>692</v>
+        <v>793</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>675</v>
+        <v>590</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>687</v>
+        <v>583</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>690</v>
+        <v>794</v>
       </c>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>691</v>
+        <v>649</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>104</v>
@@ -6166,20 +6163,22 @@
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1" t="s">
-        <v>694</v>
+        <v>587</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="G124" s="1"/>
+        <v>590</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="H124" s="1" t="s">
-        <v>695</v>
+        <v>497</v>
       </c>
       <c r="I124" s="1"/>
     </row>
     <row r="125" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>465</v>
+        <v>684</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>104</v>
@@ -6189,20 +6188,22 @@
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1" t="s">
-        <v>459</v>
+        <v>691</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="G125" s="1"/>
+        <v>673</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>685</v>
+      </c>
       <c r="H125" s="1" t="s">
-        <v>462</v>
+        <v>686</v>
       </c>
       <c r="I125" s="1"/>
     </row>
     <row r="126" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>131</v>
+        <v>687</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>104</v>
@@ -6210,28 +6211,24 @@
       <c r="C126" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="D126" s="1"/>
       <c r="E126" s="1" t="s">
-        <v>66</v>
+        <v>690</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>595</v>
+        <v>673</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>596</v>
+        <v>685</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>688</v>
+      </c>
+      <c r="I126" s="1"/>
+    </row>
+    <row r="127" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>132</v>
+        <v>689</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>104</v>
@@ -6239,57 +6236,47 @@
       <c r="C127" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="D127" s="1"/>
       <c r="E127" s="1" t="s">
-        <v>69</v>
+        <v>692</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>596</v>
-      </c>
+        <v>694</v>
+      </c>
+      <c r="G127" s="1"/>
       <c r="H127" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>693</v>
+      </c>
+      <c r="I127" s="1"/>
+    </row>
+    <row r="128" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>133</v>
+        <v>743</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="D128" s="1"/>
       <c r="E128" s="1" t="s">
-        <v>70</v>
+        <v>741</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>595</v>
+        <v>673</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>596</v>
+        <v>674</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="I128" s="1"/>
     </row>
     <row r="129" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>142</v>
+        <v>746</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>104</v>
@@ -6297,28 +6284,24 @@
       <c r="C129" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="D129" s="1"/>
       <c r="E129" s="1" t="s">
-        <v>93</v>
+        <v>744</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>595</v>
+        <v>673</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>606</v>
+        <v>674</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>101</v>
-      </c>
+        <v>745</v>
+      </c>
+      <c r="I129" s="1"/>
     </row>
     <row r="130" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>143</v>
+        <v>747</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>104</v>
@@ -6326,28 +6309,24 @@
       <c r="C130" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="D130" s="1"/>
       <c r="E130" s="1" t="s">
-        <v>94</v>
+        <v>748</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>595</v>
+        <v>673</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>606</v>
+        <v>674</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>101</v>
-      </c>
+        <v>749</v>
+      </c>
+      <c r="I130" s="1"/>
     </row>
     <row r="131" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>144</v>
+        <v>750</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>104</v>
@@ -6355,28 +6334,24 @@
       <c r="C131" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="D131" s="1"/>
       <c r="E131" s="1" t="s">
-        <v>95</v>
+        <v>751</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>595</v>
+        <v>673</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>606</v>
+        <v>674</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>752</v>
+      </c>
+      <c r="I131" s="1"/>
+    </row>
+    <row r="132" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>145</v>
+        <v>465</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>104</v>
@@ -6384,28 +6359,22 @@
       <c r="C132" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="D132" s="1"/>
       <c r="E132" s="1" t="s">
-        <v>99</v>
+        <v>459</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>608</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="G132" s="1"/>
       <c r="H132" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>101</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="I132" s="1"/>
     </row>
     <row r="133" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>104</v>
@@ -6414,27 +6383,27 @@
         <v>343</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>154</v>
+        <v>67</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>223</v>
+        <v>132</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>104</v>
@@ -6443,56 +6412,56 @@
         <v>343</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>343</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>225</v>
+        <v>142</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>104</v>
@@ -6501,27 +6470,27 @@
         <v>343</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>226</v>
+      <c r="A137" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>104</v>
@@ -6530,27 +6499,27 @@
         <v>343</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>227</v>
+      <c r="A138" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>104</v>
@@ -6559,27 +6528,27 @@
         <v>343</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>228</v>
+      <c r="A139" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>104</v>
@@ -6588,27 +6557,27 @@
         <v>343</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>229</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>104</v>
@@ -6620,24 +6589,24 @@
         <v>102</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F140" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G140" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G140" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H140" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="I140" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>230</v>
+      <c r="A141" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>104</v>
@@ -6649,24 +6618,24 @@
         <v>102</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="F141" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G141" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G141" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H141" s="1" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="I141" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>231</v>
+    <row r="142" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>104</v>
@@ -6678,24 +6647,24 @@
         <v>102</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="F142" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G142" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G142" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H142" s="1" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="I142" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>232</v>
+      <c r="A143" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>104</v>
@@ -6707,16 +6676,16 @@
         <v>102</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="F143" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G143" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G143" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H143" s="1" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="I143" s="1" t="s">
         <v>150</v>
@@ -6724,7 +6693,7 @@
     </row>
     <row r="144" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>104</v>
@@ -6736,16 +6705,16 @@
         <v>102</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F144" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G144" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G144" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H144" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="I144" s="1" t="s">
         <v>150</v>
@@ -6753,7 +6722,7 @@
     </row>
     <row r="145" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>104</v>
@@ -6765,16 +6734,16 @@
         <v>102</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="F145" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G145" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G145" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H145" s="1" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>150</v>
@@ -6782,7 +6751,7 @@
     </row>
     <row r="146" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>104</v>
@@ -6794,16 +6763,16 @@
         <v>102</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="F146" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G146" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G146" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H146" s="1" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="I146" s="1" t="s">
         <v>150</v>
@@ -6811,7 +6780,7 @@
     </row>
     <row r="147" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>104</v>
@@ -6823,16 +6792,16 @@
         <v>102</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="F147" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G147" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G147" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H147" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>150</v>
@@ -6840,7 +6809,7 @@
     </row>
     <row r="148" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>104</v>
@@ -6852,16 +6821,16 @@
         <v>102</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F148" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G148" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G148" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H148" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I148" s="1" t="s">
         <v>150</v>
@@ -6869,7 +6838,7 @@
     </row>
     <row r="149" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>104</v>
@@ -6881,16 +6850,16 @@
         <v>102</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F149" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G149" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G149" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H149" s="1" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="I149" s="1" t="s">
         <v>150</v>
@@ -6898,7 +6867,7 @@
     </row>
     <row r="150" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>104</v>
@@ -6910,16 +6879,16 @@
         <v>102</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F150" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G150" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G150" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H150" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I150" s="1" t="s">
         <v>150</v>
@@ -6927,7 +6896,7 @@
     </row>
     <row r="151" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>104</v>
@@ -6939,16 +6908,16 @@
         <v>102</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F151" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G151" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G151" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H151" s="1" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="I151" s="1" t="s">
         <v>150</v>
@@ -6956,7 +6925,7 @@
     </row>
     <row r="152" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>104</v>
@@ -6968,16 +6937,16 @@
         <v>102</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F152" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G152" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G152" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H152" s="1" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="I152" s="1" t="s">
         <v>150</v>
@@ -6985,7 +6954,7 @@
     </row>
     <row r="153" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>104</v>
@@ -6997,16 +6966,16 @@
         <v>102</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F153" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G153" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G153" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H153" s="1" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="I153" s="1" t="s">
         <v>150</v>
@@ -7014,7 +6983,7 @@
     </row>
     <row r="154" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>104</v>
@@ -7026,16 +6995,16 @@
         <v>102</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F154" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G154" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G154" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H154" s="1" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>150</v>
@@ -7043,7 +7012,7 @@
     </row>
     <row r="155" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>104</v>
@@ -7055,16 +7024,16 @@
         <v>102</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F155" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G155" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G155" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H155" s="1" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="I155" s="1" t="s">
         <v>150</v>
@@ -7072,7 +7041,7 @@
     </row>
     <row r="156" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>104</v>
@@ -7084,16 +7053,16 @@
         <v>102</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="F156" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G156" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G156" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H156" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="I156" s="1" t="s">
         <v>150</v>
@@ -7101,7 +7070,7 @@
     </row>
     <row r="157" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>104</v>
@@ -7113,16 +7082,16 @@
         <v>102</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="F157" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G157" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G157" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H157" s="1" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="I157" s="1" t="s">
         <v>150</v>
@@ -7130,7 +7099,7 @@
     </row>
     <row r="158" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>104</v>
@@ -7142,24 +7111,24 @@
         <v>102</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="F158" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G158" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G158" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H158" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="I158" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>104</v>
@@ -7171,24 +7140,24 @@
         <v>102</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="F159" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G159" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G159" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H159" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I159" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
-        <v>249</v>
+      <c r="A160" t="s">
+        <v>242</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>104</v>
@@ -7200,24 +7169,24 @@
         <v>102</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="F160" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G160" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G160" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H160" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="I160" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
-        <v>250</v>
+      <c r="A161" t="s">
+        <v>243</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>104</v>
@@ -7229,24 +7198,24 @@
         <v>102</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="F161" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G161" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G161" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H161" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="I161" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
-        <v>251</v>
+      <c r="A162" t="s">
+        <v>244</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>104</v>
@@ -7258,24 +7227,24 @@
         <v>102</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="F162" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G162" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G162" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H162" s="1" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="I162" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>252</v>
+    <row r="163" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>245</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>104</v>
@@ -7287,24 +7256,24 @@
         <v>102</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="F163" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G163" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G163" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H163" s="1" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="I163" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
-        <v>253</v>
+      <c r="A164" t="s">
+        <v>246</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>104</v>
@@ -7316,24 +7285,24 @@
         <v>102</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F164" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G164" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G164" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H164" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="I164" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
-        <v>254</v>
+    <row r="165" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>247</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>104</v>
@@ -7345,24 +7314,24 @@
         <v>102</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F165" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G165" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G165" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H165" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="I165" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>255</v>
+    <row r="166" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>248</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>104</v>
@@ -7374,24 +7343,24 @@
         <v>102</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F166" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G166" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G166" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H166" s="1" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="I166" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>104</v>
@@ -7403,16 +7372,16 @@
         <v>102</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="F167" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G167" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G167" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H167" s="1" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="I167" s="1" t="s">
         <v>150</v>
@@ -7420,7 +7389,7 @@
     </row>
     <row r="168" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>104</v>
@@ -7432,16 +7401,16 @@
         <v>102</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="F168" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G168" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G168" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H168" s="1" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="I168" s="1" t="s">
         <v>150</v>
@@ -7449,7 +7418,7 @@
     </row>
     <row r="169" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>104</v>
@@ -7458,27 +7427,27 @@
         <v>343</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>259</v>
+        <v>102</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="F169" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G169" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G169" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H169" s="1" t="s">
-        <v>262</v>
+        <v>205</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>547</v>
+        <v>252</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>104</v>
@@ -7486,24 +7455,28 @@
       <c r="C170" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D170" s="1"/>
+      <c r="D170" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E170" s="1" t="s">
-        <v>786</v>
+        <v>210</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>618</v>
+        <v>586</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="I170" s="1"/>
-    </row>
-    <row r="171" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>551</v>
+        <v>253</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>104</v>
@@ -7511,24 +7484,28 @@
       <c r="C171" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D171" s="1"/>
+      <c r="D171" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E171" s="1" t="s">
-        <v>549</v>
+        <v>211</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>618</v>
+        <v>586</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="I171" s="1"/>
+        <v>213</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="172" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>553</v>
+        <v>254</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>104</v>
@@ -7536,24 +7513,28 @@
       <c r="C172" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D172" s="1"/>
+      <c r="D172" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E172" s="1" t="s">
-        <v>554</v>
+        <v>216</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>618</v>
+        <v>586</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="I172" s="1"/>
-    </row>
-    <row r="173" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>557</v>
+        <v>255</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>104</v>
@@ -7561,24 +7542,28 @@
       <c r="C173" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D173" s="1"/>
+      <c r="D173" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E173" s="1" t="s">
-        <v>555</v>
+        <v>217</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>618</v>
+        <v>586</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="I173" s="1"/>
+        <v>215</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="174" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>558</v>
+        <v>256</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>104</v>
@@ -7586,24 +7571,28 @@
       <c r="C174" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D174" s="1"/>
+      <c r="D174" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E174" s="1" t="s">
-        <v>556</v>
+        <v>218</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>618</v>
+        <v>586</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="I174" s="1"/>
-    </row>
-    <row r="175" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>567</v>
+        <v>257</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>104</v>
@@ -7611,24 +7600,28 @@
       <c r="C175" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D175" s="1"/>
+      <c r="D175" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E175" s="1" t="s">
-        <v>564</v>
+        <v>219</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>618</v>
+        <v>586</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="I175" s="1"/>
-    </row>
-    <row r="176" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>568</v>
+        <v>258</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>104</v>
@@ -7636,24 +7629,28 @@
       <c r="C176" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D176" s="1"/>
+      <c r="D176" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="E176" s="1" t="s">
-        <v>562</v>
+        <v>263</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>618</v>
+        <v>586</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="I176" s="1"/>
-    </row>
-    <row r="177" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>577</v>
+        <v>759</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>104</v>
@@ -7663,22 +7660,18 @@
       </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>618</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
       <c r="H177" s="1" t="s">
-        <v>573</v>
+        <v>760</v>
       </c>
       <c r="I177" s="1"/>
     </row>
-    <row r="178" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>578</v>
+        <v>764</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>104</v>
@@ -7688,22 +7681,18 @@
       </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="H178" s="3" t="s">
-        <v>574</v>
+        <v>762</v>
+      </c>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1" t="s">
+        <v>763</v>
       </c>
       <c r="I178" s="1"/>
     </row>
-    <row r="179" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>579</v>
+        <v>767</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>104</v>
@@ -7713,22 +7702,18 @@
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="H179" s="3" t="s">
-        <v>575</v>
+        <v>765</v>
+      </c>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1" t="s">
+        <v>766</v>
       </c>
       <c r="I179" s="1"/>
     </row>
-    <row r="180" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>580</v>
+        <v>768</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>104</v>
@@ -7738,22 +7723,18 @@
       </c>
       <c r="D180" s="1"/>
       <c r="E180" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="H180" s="3" t="s">
-        <v>576</v>
+        <v>769</v>
+      </c>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1" t="s">
+        <v>770</v>
       </c>
       <c r="I180" s="1"/>
     </row>
-    <row r="181" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>581</v>
+        <v>546</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>104</v>
@@ -7763,22 +7744,22 @@
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="H181" s="3" t="s">
-        <v>563</v>
+        <v>616</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>547</v>
       </c>
       <c r="I181" s="1"/>
     </row>
-    <row r="182" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>134</v>
+        <v>550</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>104</v>
@@ -7786,26 +7767,24 @@
       <c r="C182" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="D182" s="1"/>
       <c r="E182" s="1" t="s">
-        <v>271</v>
+        <v>548</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="G182" s="1"/>
+        <v>601</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>616</v>
+      </c>
       <c r="H182" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I182" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="I182" s="1"/>
     </row>
     <row r="183" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>267</v>
+        <v>552</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>104</v>
@@ -7813,28 +7792,24 @@
       <c r="C183" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="D183" s="1"/>
       <c r="E183" s="1" t="s">
-        <v>483</v>
+        <v>553</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I183" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="I183" s="1"/>
     </row>
     <row r="184" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>266</v>
+        <v>556</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>104</v>
@@ -7842,115 +7817,99 @@
       <c r="C184" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="D184" s="1"/>
       <c r="E184" s="1" t="s">
-        <v>482</v>
+        <v>554</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I184" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="I184" s="1"/>
     </row>
     <row r="185" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>268</v>
+        <v>557</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="D185" s="1"/>
       <c r="E185" s="1" t="s">
-        <v>484</v>
+        <v>555</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I185" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>560</v>
+      </c>
+      <c r="I185" s="1"/>
+    </row>
+    <row r="186" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>269</v>
+        <v>566</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="D186" s="1"/>
       <c r="E186" s="1" t="s">
-        <v>481</v>
+        <v>563</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I186" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="I186" s="1"/>
     </row>
     <row r="187" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>270</v>
+        <v>567</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D187" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="D187" s="1"/>
       <c r="E187" s="1" t="s">
-        <v>485</v>
+        <v>561</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>151</v>
+        <v>616</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I187" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>565</v>
+      </c>
+      <c r="I187" s="1"/>
+    </row>
+    <row r="188" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>318</v>
+        <v>576</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>104</v>
@@ -7958,28 +7917,24 @@
       <c r="C188" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>319</v>
-      </c>
+      <c r="D188" s="1"/>
       <c r="E188" s="1" t="s">
-        <v>320</v>
+        <v>568</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>587</v>
+        <v>616</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="I188" s="1" t="s">
-        <v>323</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="I188" s="1"/>
     </row>
     <row r="189" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>328</v>
+        <v>577</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>104</v>
@@ -7989,24 +7944,22 @@
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1" t="s">
-        <v>322</v>
+        <v>569</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="H189" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="I189" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="I189" s="1"/>
+    </row>
+    <row r="190" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>329</v>
+        <v>578</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>104</v>
@@ -8014,22 +7967,24 @@
       <c r="C190" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D190" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="D190" s="1"/>
       <c r="E190" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F190" s="1"/>
-      <c r="G190" s="1"/>
-      <c r="H190" s="1" t="s">
-        <v>326</v>
+        <v>570</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>574</v>
       </c>
       <c r="I190" s="1"/>
     </row>
-    <row r="191" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>330</v>
+        <v>579</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>104</v>
@@ -8037,28 +7992,24 @@
       <c r="C191" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D191" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="D191" s="1"/>
       <c r="E191" s="1" t="s">
-        <v>324</v>
+        <v>571</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="H191" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="I191" s="1" t="s">
-        <v>323</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="I191" s="1"/>
     </row>
     <row r="192" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>331</v>
+        <v>580</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>104</v>
@@ -8066,28 +8017,24 @@
       <c r="C192" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D192" s="1" t="s">
-        <v>334</v>
-      </c>
+      <c r="D192" s="1"/>
       <c r="E192" s="1" t="s">
-        <v>327</v>
+        <v>783</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="H192" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I192" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="I192" s="1"/>
+    </row>
+    <row r="193" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>333</v>
+        <v>785</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>104</v>
@@ -8095,28 +8042,20 @@
       <c r="C193" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D193" s="1" t="s">
-        <v>334</v>
-      </c>
+      <c r="D193" s="1"/>
       <c r="E193" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="G193" s="1" t="s">
-        <v>587</v>
-      </c>
+        <v>789</v>
+      </c>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
       <c r="H193" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I193" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>790</v>
+      </c>
+      <c r="I193" s="1"/>
+    </row>
+    <row r="194" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>335</v>
+        <v>788</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>104</v>
@@ -8126,24 +8065,18 @@
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="G194" s="1" t="s">
-        <v>610</v>
-      </c>
+        <v>787</v>
+      </c>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
       <c r="H194" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="I194" s="1" t="s">
-        <v>323</v>
-      </c>
+        <v>786</v>
+      </c>
+      <c r="I194" s="1"/>
     </row>
     <row r="195" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>336</v>
+        <v>134</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>104</v>
@@ -8151,26 +8084,26 @@
       <c r="C195" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D195" s="1"/>
+      <c r="D195" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E195" s="1" t="s">
-        <v>381</v>
+        <v>271</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>610</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="G195" s="1"/>
       <c r="H195" s="2" t="s">
-        <v>354</v>
+        <v>59</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>323</v>
+        <v>60</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>339</v>
+        <v>267</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>104</v>
@@ -8178,26 +8111,28 @@
       <c r="C196" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D196" s="1"/>
+      <c r="D196" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E196" s="1" t="s">
-        <v>337</v>
+        <v>483</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>353</v>
+        <v>18</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>340</v>
+        <v>266</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>104</v>
@@ -8205,126 +8140,136 @@
       <c r="C197" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D197" s="1"/>
+      <c r="D197" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E197" s="1" t="s">
-        <v>338</v>
+        <v>482</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>353</v>
+        <v>17</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>323</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>341</v>
+        <v>268</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D198" s="1"/>
+      <c r="D198" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E198" s="1" t="s">
-        <v>347</v>
+        <v>484</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>352</v>
+        <v>19</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>342</v>
+        <v>269</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D199" s="1"/>
+      <c r="D199" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E199" s="1" t="s">
-        <v>346</v>
+        <v>481</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="H199" s="4" t="s">
-        <v>352</v>
+        <v>594</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>323</v>
+        <v>16</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>369</v>
+        <v>270</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D200" s="1"/>
+      <c r="D200" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="E200" s="1" t="s">
-        <v>344</v>
+        <v>485</v>
       </c>
       <c r="F200" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G201" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G200" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="H200" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="I200" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A201" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D201" s="1"/>
-      <c r="E201" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="G201" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="H201" s="4" t="s">
-        <v>351</v>
+      <c r="H201" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="I201" s="1" t="s">
         <v>323</v>
@@ -8332,7 +8277,7 @@
     </row>
     <row r="202" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>104</v>
@@ -8342,24 +8287,24 @@
       </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="F202" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G202" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G202" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="H202" s="4" t="s">
-        <v>350</v>
+      <c r="H202" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="I202" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>104</v>
@@ -8367,53 +8312,51 @@
       <c r="C203" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D203" s="1"/>
+      <c r="D203" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E203" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F203" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I203" s="1"/>
+    </row>
+    <row r="204" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G204" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G203" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="H203" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="I203" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A204" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D204" s="1"/>
-      <c r="E204" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="G204" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H204" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="I204" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>104</v>
@@ -8421,26 +8364,28 @@
       <c r="C205" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D205" s="1"/>
+      <c r="D205" s="1" t="s">
+        <v>334</v>
+      </c>
       <c r="E205" s="1" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="F205" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G205" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G205" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="H205" s="4" t="s">
-        <v>361</v>
+      <c r="H205" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="I205" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>375</v>
+        <v>333</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>104</v>
@@ -8448,26 +8393,28 @@
       <c r="C206" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D206" s="1"/>
+      <c r="D206" s="1" t="s">
+        <v>334</v>
+      </c>
       <c r="E206" s="1" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="F206" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G206" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G206" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="H206" s="4" t="s">
-        <v>362</v>
+      <c r="H206" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="I206" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>104</v>
@@ -8477,24 +8424,24 @@
       </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="H207" s="4" t="s">
-        <v>362</v>
+        <v>608</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="I207" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>377</v>
+        <v>336</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>104</v>
@@ -8504,24 +8451,24 @@
       </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="I208" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>104</v>
@@ -8531,24 +8478,24 @@
       </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="F209" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G209" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G209" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="H209" s="1" t="s">
-        <v>365</v>
+      <c r="H209" s="4" t="s">
+        <v>353</v>
       </c>
       <c r="I209" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>104</v>
@@ -8558,24 +8505,24 @@
       </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="F210" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G210" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G210" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="H210" s="1" t="s">
-        <v>368</v>
+      <c r="H210" s="4" t="s">
+        <v>353</v>
       </c>
       <c r="I210" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>104</v>
@@ -8585,24 +8532,24 @@
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="F211" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G211" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G211" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="H211" s="1" t="s">
-        <v>368</v>
+      <c r="H211" s="4" t="s">
+        <v>352</v>
       </c>
       <c r="I211" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>104</v>
@@ -8612,16 +8559,16 @@
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1" t="s">
-        <v>383</v>
+        <v>346</v>
       </c>
       <c r="F212" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G212" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G212" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H212" s="1" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="I212" s="1" t="s">
         <v>323</v>
@@ -8629,7 +8576,7 @@
     </row>
     <row r="213" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>104</v>
@@ -8639,24 +8586,24 @@
       </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="F213" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G213" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G213" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H213" s="1" t="s">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="I213" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>104</v>
@@ -8666,24 +8613,24 @@
       </c>
       <c r="D214" s="1"/>
       <c r="E214" s="1" t="s">
-        <v>405</v>
+        <v>345</v>
       </c>
       <c r="F214" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G214" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G214" s="1" t="s">
-        <v>610</v>
-      </c>
       <c r="H214" s="1" t="s">
-        <v>406</v>
+        <v>351</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>737</v>
+        <v>371</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>104</v>
@@ -8693,18 +8640,24 @@
       </c>
       <c r="D215" s="1"/>
       <c r="E215" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="F215" s="1"/>
-      <c r="G215" s="1"/>
+        <v>348</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>586</v>
+      </c>
       <c r="H215" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="I215" s="1"/>
+        <v>350</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="216" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>742</v>
+        <v>372</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>104</v>
@@ -8714,18 +8667,24 @@
       </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="F216" s="1"/>
-      <c r="G216" s="1"/>
+        <v>349</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>586</v>
+      </c>
       <c r="H216" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="I216" s="1"/>
+        <v>350</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="217" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>464</v>
+        <v>373</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>104</v>
@@ -8735,20 +8694,24 @@
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1" t="s">
-        <v>460</v>
+        <v>357</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="G217" s="1"/>
+        <v>585</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>586</v>
+      </c>
       <c r="H217" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="I217" s="1"/>
+        <v>361</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="218" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>523</v>
+        <v>374</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>104</v>
@@ -8758,20 +8721,24 @@
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1" t="s">
-        <v>525</v>
+        <v>358</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G218" s="1"/>
+        <v>585</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>586</v>
+      </c>
       <c r="H218" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I218" s="1"/>
-    </row>
-    <row r="219" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>526</v>
+        <v>375</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>104</v>
@@ -8781,20 +8748,24 @@
       </c>
       <c r="D219" s="1"/>
       <c r="E219" s="1" t="s">
-        <v>552</v>
+        <v>359</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="G219" s="1"/>
+        <v>585</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>586</v>
+      </c>
       <c r="H219" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="I219" s="1"/>
+        <v>362</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="220" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>532</v>
+        <v>376</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>104</v>
@@ -8804,20 +8775,24 @@
       </c>
       <c r="D220" s="1"/>
       <c r="E220" s="1" t="s">
-        <v>529</v>
+        <v>360</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="G220" s="1"/>
+        <v>585</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>586</v>
+      </c>
       <c r="H220" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="I220" s="1"/>
+        <v>362</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="221" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>533</v>
+        <v>377</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>104</v>
@@ -8827,20 +8802,24 @@
       </c>
       <c r="D221" s="1"/>
       <c r="E221" s="1" t="s">
-        <v>530</v>
+        <v>363</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="G221" s="1"/>
+        <v>585</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>586</v>
+      </c>
       <c r="H221" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="I221" s="1"/>
-    </row>
-    <row r="222" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>536</v>
+        <v>378</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>104</v>
@@ -8850,20 +8829,24 @@
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1" t="s">
-        <v>534</v>
+        <v>364</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="G222" s="1"/>
+        <v>585</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>586</v>
+      </c>
       <c r="H222" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="I222" s="1"/>
+        <v>365</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="223" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>539</v>
+        <v>379</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>104</v>
@@ -8873,20 +8856,24 @@
       </c>
       <c r="D223" s="1"/>
       <c r="E223" s="1" t="s">
-        <v>537</v>
+        <v>366</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="G223" s="1"/>
+        <v>585</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>586</v>
+      </c>
       <c r="H223" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="I223" s="1"/>
-    </row>
-    <row r="224" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>745</v>
+        <v>380</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>104</v>
@@ -8896,22 +8883,24 @@
       </c>
       <c r="D224" s="1"/>
       <c r="E224" s="1" t="s">
-        <v>743</v>
+        <v>367</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>675</v>
+        <v>585</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>676</v>
+        <v>586</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="I224" s="1"/>
-    </row>
-    <row r="225" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>748</v>
+        <v>386</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>104</v>
@@ -8921,22 +8910,24 @@
       </c>
       <c r="D225" s="1"/>
       <c r="E225" s="1" t="s">
-        <v>746</v>
+        <v>383</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>675</v>
+        <v>585</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>676</v>
+        <v>586</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="I225" s="1"/>
-    </row>
-    <row r="226" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>749</v>
+        <v>387</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>104</v>
@@ -8946,22 +8937,24 @@
       </c>
       <c r="D226" s="1"/>
       <c r="E226" s="1" t="s">
-        <v>750</v>
+        <v>384</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>675</v>
+        <v>585</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>676</v>
+        <v>586</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="I226" s="1"/>
-    </row>
-    <row r="227" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>752</v>
+        <v>403</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>104</v>
@@ -8971,22 +8964,24 @@
       </c>
       <c r="D227" s="1"/>
       <c r="E227" s="1" t="s">
-        <v>753</v>
+        <v>405</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>675</v>
+        <v>585</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>676</v>
+        <v>608</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="I227" s="1"/>
+        <v>406</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="228" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>755</v>
+        <v>735</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>104</v>
@@ -8996,18 +8991,18 @@
       </c>
       <c r="D228" s="1"/>
       <c r="E228" s="1" t="s">
-        <v>758</v>
+        <v>736</v>
       </c>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
       <c r="H228" s="1" t="s">
-        <v>760</v>
+        <v>737</v>
       </c>
       <c r="I228" s="1"/>
     </row>
-    <row r="229" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>104</v>
@@ -9017,18 +9012,18 @@
       </c>
       <c r="D229" s="1"/>
       <c r="E229" s="1" t="s">
-        <v>757</v>
+        <v>738</v>
       </c>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
       <c r="H229" s="1" t="s">
-        <v>759</v>
+        <v>739</v>
       </c>
       <c r="I229" s="1"/>
     </row>
-    <row r="230" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>761</v>
+        <v>464</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>104</v>
@@ -9038,18 +9033,20 @@
       </c>
       <c r="D230" s="1"/>
       <c r="E230" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="F230" s="1"/>
+        <v>460</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>598</v>
+      </c>
       <c r="G230" s="1"/>
       <c r="H230" s="1" t="s">
-        <v>762</v>
+        <v>463</v>
       </c>
       <c r="I230" s="1"/>
     </row>
-    <row r="231" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>104</v>
@@ -9059,18 +9056,18 @@
       </c>
       <c r="D231" s="1"/>
       <c r="E231" s="1" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="I231" s="1"/>
     </row>
-    <row r="232" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>104</v>
@@ -9080,18 +9077,18 @@
       </c>
       <c r="D232" s="1"/>
       <c r="E232" s="1" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
       <c r="H232" s="1" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="I232" s="1"/>
     </row>
-    <row r="233" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>770</v>
+        <v>522</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>104</v>
@@ -9101,18 +9098,20 @@
       </c>
       <c r="D233" s="1"/>
       <c r="E233" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="F233" s="1"/>
+        <v>524</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>603</v>
+      </c>
       <c r="G233" s="1"/>
       <c r="H233" s="1" t="s">
-        <v>772</v>
+        <v>523</v>
       </c>
       <c r="I233" s="1"/>
     </row>
     <row r="234" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>773</v>
+        <v>525</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>104</v>
@@ -9122,18 +9121,20 @@
       </c>
       <c r="D234" s="1"/>
       <c r="E234" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="F234" s="1"/>
+        <v>551</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>596</v>
+      </c>
       <c r="G234" s="1"/>
       <c r="H234" s="1" t="s">
-        <v>775</v>
+        <v>526</v>
       </c>
       <c r="I234" s="1"/>
     </row>
-    <row r="235" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>777</v>
+        <v>531</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>104</v>
@@ -9143,18 +9144,20 @@
       </c>
       <c r="D235" s="1"/>
       <c r="E235" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="F235" s="1"/>
+        <v>528</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>596</v>
+      </c>
       <c r="G235" s="1"/>
       <c r="H235" s="1" t="s">
-        <v>778</v>
+        <v>527</v>
       </c>
       <c r="I235" s="1"/>
     </row>
     <row r="236" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>781</v>
+        <v>532</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>104</v>
@@ -9164,18 +9167,20 @@
       </c>
       <c r="D236" s="1"/>
       <c r="E236" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="F236" s="1"/>
+        <v>529</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>596</v>
+      </c>
       <c r="G236" s="1"/>
       <c r="H236" s="1" t="s">
-        <v>780</v>
+        <v>530</v>
       </c>
       <c r="I236" s="1"/>
     </row>
     <row r="237" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>784</v>
+        <v>535</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>104</v>
@@ -9185,18 +9190,20 @@
       </c>
       <c r="D237" s="1"/>
       <c r="E237" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="F237" s="1"/>
+        <v>533</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>596</v>
+      </c>
       <c r="G237" s="1"/>
       <c r="H237" s="1" t="s">
-        <v>783</v>
+        <v>534</v>
       </c>
       <c r="I237" s="1"/>
     </row>
     <row r="238" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>787</v>
+        <v>538</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>104</v>
@@ -9206,18 +9213,20 @@
       </c>
       <c r="D238" s="1"/>
       <c r="E238" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="F238" s="1"/>
+        <v>536</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>596</v>
+      </c>
       <c r="G238" s="1"/>
       <c r="H238" s="1" t="s">
-        <v>792</v>
+        <v>537</v>
       </c>
       <c r="I238" s="1"/>
     </row>
-    <row r="239" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>104</v>
@@ -9227,14 +9236,35 @@
       </c>
       <c r="D239" s="1"/>
       <c r="E239" s="1" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
       <c r="H239" s="1" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="I239" s="1"/>
+    </row>
+    <row r="240" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
+      <c r="H240" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="I240" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/delta2/lib_p/dpid_winlol.xlsx
+++ b/delta2/lib_p/dpid_winlol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB9AE31-B03E-3847-B706-1EEB1C15367C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA464360-1BBD-514F-A9CC-52F8FEBD7B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
@@ -2488,7 +2488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2497,9 +2497,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8459,7 +8456,7 @@
       <c r="G208" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="H208" s="4" t="s">
+      <c r="H208" s="1" t="s">
         <v>354</v>
       </c>
       <c r="I208" s="1" t="s">
@@ -8486,7 +8483,7 @@
       <c r="G209" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="H209" s="4" t="s">
+      <c r="H209" s="1" t="s">
         <v>353</v>
       </c>
       <c r="I209" s="1" t="s">
@@ -8513,7 +8510,7 @@
       <c r="G210" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="H210" s="4" t="s">
+      <c r="H210" s="1" t="s">
         <v>353</v>
       </c>
       <c r="I210" s="1" t="s">
@@ -8540,7 +8537,7 @@
       <c r="G211" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="H211" s="4" t="s">
+      <c r="H211" s="1" t="s">
         <v>352</v>
       </c>
       <c r="I211" s="1" t="s">

--- a/delta2/lib_p/dpid_winlol.xlsx
+++ b/delta2/lib_p/dpid_winlol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04468A6D-DBA9-7F46-AFF1-FAB8573E307F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC440D02-0C54-AB4F-B236-1B8E3B59F957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="780">
   <si>
     <t>delta_pattern</t>
   </si>
@@ -2371,6 +2371,12 @@
   </si>
   <si>
     <t>pshell-pid0018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS ['reg' AND 'delete') AND (process_command_line CONTAINS ['Software\Policies\Microsoft\Windows Defender' ) </t>
+  </si>
+  <si>
+    <t>Reg Delete Defender Registry Key</t>
   </si>
 </sst>
 </file>
@@ -2434,7 +2440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2443,6 +2449,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2491,10 +2500,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:H240" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:H240" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H239">
-    <sortCondition ref="A1:A239"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:H241" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:H241" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H241">
+    <sortCondition ref="A1:A241"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7D4B3AB6-B672-1C40-9238-21F80D82D786}" name="delta_pid" dataDxfId="7"/>
@@ -2827,11 +2836,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D53A90-A29C-2641-AD43-11CCFA7849AF}">
-  <dimension ref="A1:H240"/>
+  <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="G247" sqref="G247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4306,7 +4315,7 @@
       </c>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>494</v>
       </c>
@@ -4922,7 +4931,7 @@
       </c>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>524</v>
       </c>
@@ -5122,7 +5131,7 @@
       </c>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>429</v>
       </c>
@@ -5774,7 +5783,7 @@
       </c>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>563</v>
       </c>
@@ -6080,9 +6089,9 @@
       </c>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>447</v>
+        <v>777</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>90</v>
@@ -6091,20 +6100,18 @@
         <v>325</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>580</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1" t="s">
-        <v>444</v>
+        <v>774</v>
       </c>
       <c r="H132" s="1"/>
     </row>
     <row r="133" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>117</v>
+        <v>447</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>90</v>
@@ -6113,24 +6120,20 @@
         <v>325</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>59</v>
+        <v>441</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>576</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="F133" s="1"/>
       <c r="G133" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="H133" s="1"/>
     </row>
     <row r="134" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>90</v>
@@ -6139,7 +6142,7 @@
         <v>325</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>575</v>
@@ -6156,16 +6159,16 @@
     </row>
     <row r="135" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>325</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>575</v>
@@ -6180,35 +6183,35 @@
         <v>61</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>325</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>575</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>90</v>
@@ -6217,7 +6220,7 @@
         <v>325</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>575</v>
@@ -6226,7 +6229,7 @@
         <v>586</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>88</v>
@@ -6234,7 +6237,7 @@
     </row>
     <row r="138" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>90</v>
@@ -6243,7 +6246,7 @@
         <v>325</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>575</v>
@@ -6252,7 +6255,7 @@
         <v>586</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>88</v>
@@ -6260,7 +6263,7 @@
     </row>
     <row r="139" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>90</v>
@@ -6269,13 +6272,13 @@
         <v>325</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>575</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>84</v>
@@ -6284,44 +6287,44 @@
         <v>88</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D140" s="1" t="s">
+      <c r="B141" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>567</v>
@@ -6330,7 +6333,7 @@
         <v>568</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>136</v>
@@ -6338,7 +6341,7 @@
     </row>
     <row r="142" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>90</v>
@@ -6347,7 +6350,7 @@
         <v>325</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>567</v>
@@ -6356,15 +6359,15 @@
         <v>568</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>90</v>
@@ -6373,7 +6376,7 @@
         <v>325</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>567</v>
@@ -6382,15 +6385,15 @@
         <v>568</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>211</v>
+    <row r="144" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>90</v>
@@ -6399,7 +6402,7 @@
         <v>325</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>567</v>
@@ -6408,7 +6411,7 @@
         <v>568</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>136</v>
@@ -6416,7 +6419,7 @@
     </row>
     <row r="145" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>90</v>
@@ -6425,7 +6428,7 @@
         <v>325</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>567</v>
@@ -6434,7 +6437,7 @@
         <v>568</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>136</v>
@@ -6442,7 +6445,7 @@
     </row>
     <row r="146" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>90</v>
@@ -6451,7 +6454,7 @@
         <v>325</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>567</v>
@@ -6460,7 +6463,7 @@
         <v>568</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>136</v>
@@ -6468,7 +6471,7 @@
     </row>
     <row r="147" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>90</v>
@@ -6477,7 +6480,7 @@
         <v>325</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>567</v>
@@ -6486,7 +6489,7 @@
         <v>568</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>136</v>
@@ -6494,7 +6497,7 @@
     </row>
     <row r="148" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>90</v>
@@ -6503,7 +6506,7 @@
         <v>325</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>567</v>
@@ -6512,7 +6515,7 @@
         <v>568</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>136</v>
@@ -6520,7 +6523,7 @@
     </row>
     <row r="149" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>90</v>
@@ -6529,7 +6532,7 @@
         <v>325</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>567</v>
@@ -6538,7 +6541,7 @@
         <v>568</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>136</v>
@@ -6546,7 +6549,7 @@
     </row>
     <row r="150" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>90</v>
@@ -6555,7 +6558,7 @@
         <v>325</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>567</v>
@@ -6564,7 +6567,7 @@
         <v>568</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>136</v>
@@ -6572,7 +6575,7 @@
     </row>
     <row r="151" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>90</v>
@@ -6581,7 +6584,7 @@
         <v>325</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>567</v>
@@ -6590,7 +6593,7 @@
         <v>568</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>136</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="152" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>90</v>
@@ -6607,7 +6610,7 @@
         <v>325</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>567</v>
@@ -6616,7 +6619,7 @@
         <v>568</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>136</v>
@@ -6624,7 +6627,7 @@
     </row>
     <row r="153" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>90</v>
@@ -6633,7 +6636,7 @@
         <v>325</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>567</v>
@@ -6642,7 +6645,7 @@
         <v>568</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>136</v>
@@ -6650,7 +6653,7 @@
     </row>
     <row r="154" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>90</v>
@@ -6659,7 +6662,7 @@
         <v>325</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>567</v>
@@ -6668,7 +6671,7 @@
         <v>568</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>136</v>
@@ -6676,7 +6679,7 @@
     </row>
     <row r="155" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>90</v>
@@ -6685,7 +6688,7 @@
         <v>325</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>567</v>
@@ -6694,7 +6697,7 @@
         <v>568</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>136</v>
@@ -6702,7 +6705,7 @@
     </row>
     <row r="156" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>90</v>
@@ -6711,7 +6714,7 @@
         <v>325</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>567</v>
@@ -6720,7 +6723,7 @@
         <v>568</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>136</v>
@@ -6728,7 +6731,7 @@
     </row>
     <row r="157" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>90</v>
@@ -6737,7 +6740,7 @@
         <v>325</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>567</v>
@@ -6746,7 +6749,7 @@
         <v>568</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>136</v>
@@ -6754,7 +6757,7 @@
     </row>
     <row r="158" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>90</v>
@@ -6763,7 +6766,7 @@
         <v>325</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>567</v>
@@ -6772,7 +6775,7 @@
         <v>568</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>136</v>
@@ -6780,7 +6783,7 @@
     </row>
     <row r="159" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>90</v>
@@ -6789,7 +6792,7 @@
         <v>325</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>567</v>
@@ -6798,7 +6801,7 @@
         <v>568</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>136</v>
@@ -6806,7 +6809,7 @@
     </row>
     <row r="160" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>90</v>
@@ -6815,7 +6818,7 @@
         <v>325</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>567</v>
@@ -6824,7 +6827,7 @@
         <v>568</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>136</v>
@@ -6832,7 +6835,7 @@
     </row>
     <row r="161" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>90</v>
@@ -6841,7 +6844,7 @@
         <v>325</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>567</v>
@@ -6850,7 +6853,7 @@
         <v>568</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>136</v>
@@ -6858,7 +6861,7 @@
     </row>
     <row r="162" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>90</v>
@@ -6867,7 +6870,7 @@
         <v>325</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>567</v>
@@ -6876,7 +6879,7 @@
         <v>568</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>136</v>
@@ -6884,7 +6887,7 @@
     </row>
     <row r="163" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>90</v>
@@ -6893,7 +6896,7 @@
         <v>325</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>567</v>
@@ -6902,7 +6905,7 @@
         <v>568</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>136</v>
@@ -6910,7 +6913,7 @@
     </row>
     <row r="164" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>90</v>
@@ -6919,7 +6922,7 @@
         <v>325</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>567</v>
@@ -6928,15 +6931,15 @@
         <v>568</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>90</v>
@@ -6945,7 +6948,7 @@
         <v>325</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>567</v>
@@ -6954,7 +6957,7 @@
         <v>568</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>136</v>
@@ -6962,7 +6965,7 @@
     </row>
     <row r="166" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>90</v>
@@ -6971,7 +6974,7 @@
         <v>325</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>567</v>
@@ -6980,15 +6983,15 @@
         <v>568</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
-        <v>234</v>
+    <row r="167" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>233</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>90</v>
@@ -6997,7 +7000,7 @@
         <v>325</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>567</v>
@@ -7006,15 +7009,15 @@
         <v>568</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>90</v>
@@ -7023,7 +7026,7 @@
         <v>325</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>567</v>
@@ -7032,7 +7035,7 @@
         <v>568</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>136</v>
@@ -7040,7 +7043,7 @@
     </row>
     <row r="169" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>90</v>
@@ -7049,7 +7052,7 @@
         <v>325</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>567</v>
@@ -7058,15 +7061,15 @@
         <v>568</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>90</v>
@@ -7075,7 +7078,7 @@
         <v>325</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>567</v>
@@ -7084,15 +7087,15 @@
         <v>568</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>90</v>
@@ -7101,7 +7104,7 @@
         <v>325</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>567</v>
@@ -7110,7 +7113,7 @@
         <v>568</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>136</v>
@@ -7118,7 +7121,7 @@
     </row>
     <row r="172" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>90</v>
@@ -7127,7 +7130,7 @@
         <v>325</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>567</v>
@@ -7136,15 +7139,15 @@
         <v>568</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>90</v>
@@ -7153,7 +7156,7 @@
         <v>325</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>567</v>
@@ -7162,7 +7165,7 @@
         <v>568</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>136</v>
@@ -7170,7 +7173,7 @@
     </row>
     <row r="174" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>90</v>
@@ -7179,7 +7182,7 @@
         <v>325</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>567</v>
@@ -7188,15 +7191,15 @@
         <v>568</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>90</v>
@@ -7205,7 +7208,7 @@
         <v>325</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>567</v>
@@ -7214,15 +7217,15 @@
         <v>568</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>90</v>
@@ -7231,7 +7234,7 @@
         <v>325</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>567</v>
@@ -7240,15 +7243,15 @@
         <v>568</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>248</v>
+        <v>136</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>741</v>
+        <v>243</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>90</v>
@@ -7257,18 +7260,24 @@
         <v>325</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
+        <v>247</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>568</v>
+      </c>
       <c r="G177" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="H177" s="1"/>
+        <v>246</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="178" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>90</v>
@@ -7277,18 +7286,18 @@
         <v>325</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="H178" s="1"/>
     </row>
     <row r="179" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>90</v>
@@ -7297,18 +7306,18 @@
         <v>325</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>90</v>
@@ -7317,42 +7326,38 @@
         <v>325</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="H180" s="1"/>
+    </row>
+    <row r="181" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="H180" s="1"/>
-    </row>
-    <row r="181" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="G181" s="1" t="s">
-        <v>529</v>
       </c>
       <c r="H181" s="1"/>
     </row>
     <row r="182" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>532</v>
+        <v>750</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>90</v>
@@ -7361,22 +7366,18 @@
         <v>325</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>598</v>
-      </c>
+        <v>778</v>
+      </c>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
       <c r="G182" s="1" t="s">
-        <v>531</v>
+        <v>779</v>
       </c>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>90</v>
@@ -7385,7 +7386,7 @@
         <v>325</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>535</v>
+        <v>766</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>583</v>
@@ -7394,13 +7395,13 @@
         <v>598</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="H183" s="1"/>
     </row>
     <row r="184" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>90</v>
@@ -7409,7 +7410,7 @@
         <v>325</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>583</v>
@@ -7418,13 +7419,13 @@
         <v>598</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="H184" s="1"/>
     </row>
     <row r="185" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>90</v>
@@ -7433,7 +7434,7 @@
         <v>325</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>583</v>
@@ -7442,13 +7443,13 @@
         <v>598</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H185" s="1"/>
     </row>
     <row r="186" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>90</v>
@@ -7457,7 +7458,7 @@
         <v>325</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>583</v>
@@ -7466,13 +7467,13 @@
         <v>598</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="H186" s="1"/>
     </row>
     <row r="187" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>90</v>
@@ -7481,7 +7482,7 @@
         <v>325</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>583</v>
@@ -7490,13 +7491,13 @@
         <v>598</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="H187" s="1"/>
     </row>
     <row r="188" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>90</v>
@@ -7505,7 +7506,7 @@
         <v>325</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>583</v>
@@ -7514,13 +7515,13 @@
         <v>598</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="H188" s="1"/>
     </row>
     <row r="189" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>90</v>
@@ -7529,7 +7530,7 @@
         <v>325</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>583</v>
@@ -7537,14 +7538,14 @@
       <c r="F189" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G189" s="3" t="s">
-        <v>555</v>
+      <c r="G189" s="1" t="s">
+        <v>547</v>
       </c>
       <c r="H189" s="1"/>
     </row>
     <row r="190" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>90</v>
@@ -7553,7 +7554,7 @@
         <v>325</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>583</v>
@@ -7561,14 +7562,14 @@
       <c r="F190" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G190" s="3" t="s">
-        <v>556</v>
+      <c r="G190" s="1" t="s">
+        <v>554</v>
       </c>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>90</v>
@@ -7577,7 +7578,7 @@
         <v>325</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>583</v>
@@ -7586,13 +7587,13 @@
         <v>598</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H191" s="1"/>
     </row>
     <row r="192" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>90</v>
@@ -7601,7 +7602,7 @@
         <v>325</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>765</v>
+        <v>552</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>583</v>
@@ -7610,77 +7611,81 @@
         <v>598</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="H192" s="1"/>
     </row>
     <row r="193" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="H193" s="1"/>
+    </row>
+    <row r="194" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="H194" s="1"/>
+    </row>
+    <row r="195" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D193" s="1" t="s">
+      <c r="B195" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D195" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="E193" s="1"/>
-      <c r="F193" s="1"/>
-      <c r="G193" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="H193" s="1"/>
-    </row>
-    <row r="194" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A194" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
-      <c r="G194" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="H194" s="1"/>
-    </row>
-    <row r="195" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A195" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>575</v>
-      </c>
+      <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H195" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>772</v>
+      </c>
+      <c r="H195" s="1"/>
+    </row>
+    <row r="196" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>251</v>
+        <v>770</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>90</v>
@@ -7689,24 +7694,18 @@
         <v>325</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>576</v>
-      </c>
+        <v>769</v>
+      </c>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
       <c r="G196" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H196" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>768</v>
+      </c>
+      <c r="H196" s="1"/>
+    </row>
+    <row r="197" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>90</v>
@@ -7715,33 +7714,31 @@
         <v>325</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>464</v>
+        <v>255</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="F197" s="1" t="s">
-        <v>576</v>
-      </c>
+      <c r="F197" s="1"/>
       <c r="G197" s="2" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>325</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>575</v>
@@ -7750,24 +7747,24 @@
         <v>576</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>325</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>575</v>
@@ -7775,8 +7772,8 @@
       <c r="F199" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="G199" s="1" t="s">
-        <v>20</v>
+      <c r="G199" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>16</v>
@@ -7784,7 +7781,7 @@
     </row>
     <row r="200" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>92</v>
@@ -7793,76 +7790,76 @@
         <v>325</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>575</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G200" s="1" t="s">
-        <v>64</v>
+        <v>576</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>325</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>303</v>
+        <v>463</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>304</v>
+        <v>20</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>306</v>
+        <v>16</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>311</v>
+        <v>254</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>325</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>305</v>
+        <v>467</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>568</v>
+        <v>137</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>338</v>
+        <v>64</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>306</v>
+        <v>65</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>90</v>
@@ -7871,18 +7868,24 @@
         <v>325</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E203" s="1"/>
-      <c r="F203" s="1"/>
+        <v>303</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>568</v>
+      </c>
       <c r="G203" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="H203" s="1"/>
-    </row>
-    <row r="204" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>90</v>
@@ -7891,7 +7894,7 @@
         <v>325</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>567</v>
@@ -7906,9 +7909,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>90</v>
@@ -7917,24 +7920,18 @@
         <v>325</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>568</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
       <c r="G205" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="H205" s="1" t="s">
-        <v>306</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="H205" s="1"/>
     </row>
     <row r="206" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>90</v>
@@ -7943,7 +7940,7 @@
         <v>325</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>567</v>
@@ -7952,7 +7949,7 @@
         <v>568</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>306</v>
@@ -7960,7 +7957,7 @@
     </row>
     <row r="207" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>90</v>
@@ -7969,16 +7966,16 @@
         <v>325</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>567</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>306</v>
@@ -7986,7 +7983,7 @@
     </row>
     <row r="208" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>90</v>
@@ -7995,16 +7992,16 @@
         <v>325</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>567</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>306</v>
@@ -8012,7 +8009,7 @@
     </row>
     <row r="209" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>90</v>
@@ -8021,16 +8018,16 @@
         <v>325</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>567</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>306</v>
@@ -8038,7 +8035,7 @@
     </row>
     <row r="210" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>90</v>
@@ -8047,16 +8044,16 @@
         <v>325</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>567</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>306</v>
@@ -8064,7 +8061,7 @@
     </row>
     <row r="211" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>90</v>
@@ -8073,7 +8070,7 @@
         <v>325</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>567</v>
@@ -8082,7 +8079,7 @@
         <v>568</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>306</v>
@@ -8090,7 +8087,7 @@
     </row>
     <row r="212" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>90</v>
@@ -8099,7 +8096,7 @@
         <v>325</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>567</v>
@@ -8108,7 +8105,7 @@
         <v>568</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H212" s="1" t="s">
         <v>306</v>
@@ -8116,7 +8113,7 @@
     </row>
     <row r="213" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>90</v>
@@ -8125,7 +8122,7 @@
         <v>325</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>567</v>
@@ -8134,15 +8131,15 @@
         <v>568</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H213" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>90</v>
@@ -8151,7 +8148,7 @@
         <v>325</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>567</v>
@@ -8160,7 +8157,7 @@
         <v>568</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>306</v>
@@ -8168,7 +8165,7 @@
     </row>
     <row r="215" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>90</v>
@@ -8177,7 +8174,7 @@
         <v>325</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>567</v>
@@ -8186,7 +8183,7 @@
         <v>568</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>306</v>
@@ -8194,7 +8191,7 @@
     </row>
     <row r="216" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>90</v>
@@ -8203,7 +8200,7 @@
         <v>325</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>567</v>
@@ -8212,7 +8209,7 @@
         <v>568</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>306</v>
@@ -8220,7 +8217,7 @@
     </row>
     <row r="217" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>90</v>
@@ -8229,7 +8226,7 @@
         <v>325</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>567</v>
@@ -8238,15 +8235,15 @@
         <v>568</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>90</v>
@@ -8255,7 +8252,7 @@
         <v>325</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>567</v>
@@ -8264,7 +8261,7 @@
         <v>568</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>306</v>
@@ -8272,7 +8269,7 @@
     </row>
     <row r="219" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>90</v>
@@ -8281,7 +8278,7 @@
         <v>325</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>567</v>
@@ -8290,7 +8287,7 @@
         <v>568</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>306</v>
@@ -8298,7 +8295,7 @@
     </row>
     <row r="220" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>90</v>
@@ -8307,7 +8304,7 @@
         <v>325</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>567</v>
@@ -8316,7 +8313,7 @@
         <v>568</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H220" s="1" t="s">
         <v>306</v>
@@ -8324,7 +8321,7 @@
     </row>
     <row r="221" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>90</v>
@@ -8333,7 +8330,7 @@
         <v>325</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>567</v>
@@ -8342,7 +8339,7 @@
         <v>568</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H221" s="1" t="s">
         <v>306</v>
@@ -8350,7 +8347,7 @@
     </row>
     <row r="222" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>90</v>
@@ -8359,7 +8356,7 @@
         <v>325</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>567</v>
@@ -8368,7 +8365,7 @@
         <v>568</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>306</v>
@@ -8376,7 +8373,7 @@
     </row>
     <row r="223" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>90</v>
@@ -8385,7 +8382,7 @@
         <v>325</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>567</v>
@@ -8394,7 +8391,7 @@
         <v>568</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>306</v>
@@ -8402,7 +8399,7 @@
     </row>
     <row r="224" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>90</v>
@@ -8411,7 +8408,7 @@
         <v>325</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>567</v>
@@ -8420,7 +8417,7 @@
         <v>568</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>306</v>
@@ -8428,7 +8425,7 @@
     </row>
     <row r="225" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>90</v>
@@ -8437,7 +8434,7 @@
         <v>325</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>567</v>
@@ -8446,15 +8443,15 @@
         <v>568</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="H225" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>90</v>
@@ -8463,7 +8460,7 @@
         <v>325</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>567</v>
@@ -8472,15 +8469,15 @@
         <v>568</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="H226" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>90</v>
@@ -8489,86 +8486,96 @@
         <v>325</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>567</v>
       </c>
       <c r="F227" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F229" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="G227" s="1" t="s">
+      <c r="G229" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="H227" s="1" t="s">
+      <c r="H229" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A228" s="1" t="s">
+    <row r="230" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="B228" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D228" s="1" t="s">
+      <c r="B230" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D230" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="E228" s="1"/>
-      <c r="F228" s="1"/>
-      <c r="G228" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="H228" s="1"/>
-    </row>
-    <row r="229" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A229" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="E229" s="1"/>
-      <c r="F229" s="1"/>
-      <c r="G229" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="H229" s="1"/>
-    </row>
-    <row r="230" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A230" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>580</v>
-      </c>
+      <c r="E230" s="1"/>
       <c r="F230" s="1"/>
       <c r="G230" s="1" t="s">
-        <v>445</v>
+        <v>719</v>
       </c>
       <c r="H230" s="1"/>
     </row>
-    <row r="231" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>90</v>
@@ -8577,18 +8584,18 @@
         <v>325</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>738</v>
+        <v>720</v>
       </c>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
       <c r="G231" s="1" t="s">
-        <v>740</v>
+        <v>721</v>
       </c>
       <c r="H231" s="1"/>
     </row>
-    <row r="232" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>736</v>
+        <v>446</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>90</v>
@@ -8597,18 +8604,20 @@
         <v>325</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="E232" s="1"/>
+        <v>442</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>580</v>
+      </c>
       <c r="F232" s="1"/>
       <c r="G232" s="1" t="s">
-        <v>739</v>
+        <v>445</v>
       </c>
       <c r="H232" s="1"/>
     </row>
     <row r="233" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>504</v>
+        <v>735</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>90</v>
@@ -8617,20 +8626,18 @@
         <v>325</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>585</v>
-      </c>
+        <v>738</v>
+      </c>
+      <c r="E233" s="1"/>
       <c r="F233" s="1"/>
       <c r="G233" s="1" t="s">
-        <v>505</v>
+        <v>740</v>
       </c>
       <c r="H233" s="1"/>
     </row>
     <row r="234" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>507</v>
+        <v>736</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>90</v>
@@ -8639,20 +8646,18 @@
         <v>325</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>578</v>
-      </c>
+        <v>737</v>
+      </c>
+      <c r="E234" s="1"/>
       <c r="F234" s="1"/>
       <c r="G234" s="1" t="s">
-        <v>508</v>
+        <v>739</v>
       </c>
       <c r="H234" s="1"/>
     </row>
     <row r="235" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>90</v>
@@ -8661,20 +8666,20 @@
         <v>325</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="F235" s="1"/>
       <c r="G235" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="H235" s="1"/>
     </row>
-    <row r="236" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>90</v>
@@ -8683,20 +8688,20 @@
         <v>325</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>578</v>
       </c>
       <c r="F236" s="1"/>
       <c r="G236" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H236" s="1"/>
     </row>
-    <row r="237" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>90</v>
@@ -8705,20 +8710,20 @@
         <v>325</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>578</v>
       </c>
       <c r="F237" s="1"/>
       <c r="G237" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="H237" s="1"/>
     </row>
-    <row r="238" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>90</v>
@@ -8727,20 +8732,20 @@
         <v>325</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>578</v>
       </c>
       <c r="F238" s="1"/>
       <c r="G238" s="1" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="H238" s="1"/>
     </row>
     <row r="239" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>764</v>
+        <v>517</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>90</v>
@@ -8749,18 +8754,20 @@
         <v>325</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="E239" s="1"/>
+        <v>515</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>578</v>
+      </c>
       <c r="F239" s="1"/>
       <c r="G239" s="1" t="s">
-        <v>763</v>
+        <v>516</v>
       </c>
       <c r="H239" s="1"/>
     </row>
-    <row r="240" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>777</v>
+        <v>520</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>90</v>
@@ -8769,14 +8776,36 @@
         <v>325</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="E240" s="1"/>
+        <v>518</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>578</v>
+      </c>
       <c r="F240" s="1"/>
       <c r="G240" s="1" t="s">
-        <v>774</v>
+        <v>519</v>
       </c>
       <c r="H240" s="1"/>
+    </row>
+    <row r="241" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1"/>
+      <c r="G241" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="H241" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/delta2/lib_p/dpid_winlol.xlsx
+++ b/delta2/lib_p/dpid_winlol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC440D02-0C54-AB4F-B236-1B8E3B59F957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB2D9BF-1163-BD4A-9F7C-D5A9D5EB1D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="783">
   <si>
     <t>delta_pattern</t>
   </si>
@@ -2361,9 +2361,6 @@
     <t>{case_insensitive}(process_command_line CONTAINS  'powershell' ) AND (process_command_line CONTAINS ['DownloadString' AND 'Net.WebCLient'] AND (process_command_line CONTAINS ['http://' OR 'https://'])</t>
   </si>
   <si>
-    <t>PowerEhll DotNet WebClient Class Called Downloadstring Method From HTTP</t>
-  </si>
-  <si>
     <t>{case_insensitive}(process_command_line CONTAINS  'powershell' ) AND (process_command_line CONTAINS ['DownloadFile' AND 'Net.WebCLient'] AND (process_command_line CONTAINS ['http://' OR 'https://'])</t>
   </si>
   <si>
@@ -2377,6 +2374,18 @@
   </si>
   <si>
     <t>Reg Delete Defender Registry Key</t>
+  </si>
+  <si>
+    <t>Powershell DotNet WebClient Class Called Downloadstring Method From HTTP</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['wmic'  AND 'process' AND 'call'  AND 'create'])</t>
+  </si>
+  <si>
+    <t>WMIC Create Process</t>
+  </si>
+  <si>
+    <t>wmic-pid0008</t>
   </si>
 </sst>
 </file>
@@ -2440,7 +2449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2449,9 +2458,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2500,8 +2506,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:H241" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:H241" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:H242" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:H242" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H241">
     <sortCondition ref="A1:A241"/>
   </sortState>
@@ -2836,11 +2842,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D53A90-A29C-2641-AD43-11CCFA7849AF}">
-  <dimension ref="A1:H241"/>
+  <dimension ref="A1:H242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G247" sqref="G247"/>
+      <selection pane="bottomLeft" activeCell="B222" sqref="B222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5886,7 +5892,7 @@
         <v>325</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>572</v>
@@ -5895,7 +5901,7 @@
         <v>565</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H123" s="1"/>
     </row>
@@ -6091,7 +6097,7 @@
     </row>
     <row r="132" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>90</v>
@@ -6105,7 +6111,7 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="H132" s="1"/>
     </row>
@@ -7366,12 +7372,12 @@
         <v>325</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H182" s="1"/>
     </row>
@@ -7772,7 +7778,7 @@
       <c r="F199" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="G199" s="4" t="s">
+      <c r="G199" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H199" s="1" t="s">
@@ -7798,7 +7804,7 @@
       <c r="F200" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="G200" s="4" t="s">
+      <c r="G200" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H200" s="1" t="s">
@@ -8800,12 +8806,36 @@
       <c r="D241" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="E241" s="1"/>
+      <c r="E241" s="1" t="s">
+        <v>578</v>
+      </c>
       <c r="F241" s="1"/>
       <c r="G241" s="1" t="s">
         <v>763</v>
       </c>
       <c r="H241" s="1"/>
+    </row>
+    <row r="242" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F242" s="1"/>
+      <c r="G242" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="H242" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/delta2/lib_p/dpid_winlol.xlsx
+++ b/delta2/lib_p/dpid_winlol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB2D9BF-1163-BD4A-9F7C-D5A9D5EB1D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A442225-85A9-AD45-81B8-8506048BCE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="793">
   <si>
     <t>delta_pattern</t>
   </si>
@@ -2386,6 +2386,36 @@
   </si>
   <si>
     <t>wmic-pid0008</t>
+  </si>
+  <si>
+    <t>registry-pid0046</t>
+  </si>
+  <si>
+    <t>registry-pid0047</t>
+  </si>
+  <si>
+    <t>Reg Disable Restricted A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS ['reg' AND 'add') AND (process_command_line CONTAINS ['currentcontrolset\control\lsa'  AND '0' AND '/d' AND 'disablerestrictedadmin') </t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['vssadmin'  AND 'delete' AND 'shadow' ])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['vssadmin'  AND 'delete' AND 'shadow' AND '/quiiet' AND '/all'])</t>
+  </si>
+  <si>
+    <t>Vssadmin Delete Shadow Copy</t>
+  </si>
+  <si>
+    <t>Vssadmin Delete All Shadow Copies With Quiet Flag</t>
+  </si>
+  <si>
+    <t>vss-pid0003</t>
+  </si>
+  <si>
+    <t>vss-pid0004</t>
   </si>
 </sst>
 </file>
@@ -2449,7 +2479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2460,11 +2490,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2506,20 +2552,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:H242" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:H242" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H241">
-    <sortCondition ref="A1:A241"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:H245" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="A1:H245" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H243">
+    <sortCondition ref="A1:A243"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{7D4B3AB6-B672-1C40-9238-21F80D82D786}" name="delta_pid" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{6CA1A07C-C0CA-D343-B5D9-30F139D14E9A}" name="delta_did" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{8B35991C-1CFD-C74E-99DA-EDE3F791E9D6}" name="delta_category" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{433ECAB0-EBD0-8F46-9A69-22D02B31F424}" name="delta_pattern" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{B77FB323-DC1E-394E-A29C-AD0CE8A05098}" name="mitre_technique" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{6E4A396E-9FCB-864D-A803-490AE03E573D}" name="mitre_sub_technique" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{679473FD-2DAD-8E45-AC30-54CF949ECBDB}" name="name" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{EFF84C11-AEFB-9742-BFA7-A0134DAADCBC}" name="description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7D4B3AB6-B672-1C40-9238-21F80D82D786}" name="delta_pid" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{6CA1A07C-C0CA-D343-B5D9-30F139D14E9A}" name="delta_did" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{8B35991C-1CFD-C74E-99DA-EDE3F791E9D6}" name="delta_category" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{433ECAB0-EBD0-8F46-9A69-22D02B31F424}" name="delta_pattern" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{B77FB323-DC1E-394E-A29C-AD0CE8A05098}" name="mitre_technique" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{6E4A396E-9FCB-864D-A803-490AE03E573D}" name="mitre_sub_technique" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{679473FD-2DAD-8E45-AC30-54CF949ECBDB}" name="name" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{EFF84C11-AEFB-9742-BFA7-A0134DAADCBC}" name="description" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2842,11 +2888,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D53A90-A29C-2641-AD43-11CCFA7849AF}">
-  <dimension ref="A1:H242"/>
+  <dimension ref="A1:H245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B222" sqref="B222"/>
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7363,7 +7409,7 @@
     </row>
     <row r="182" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>750</v>
+        <v>783</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>90</v>
@@ -7381,42 +7427,38 @@
       </c>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H183" s="1"/>
+    </row>
+    <row r="184" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D183" s="1" t="s">
+      <c r="B184" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D184" s="1" t="s">
         <v>766</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="G183" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="H183" s="1"/>
-    </row>
-    <row r="184" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>530</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>583</v>
@@ -7425,13 +7467,13 @@
         <v>598</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H184" s="1"/>
     </row>
     <row r="185" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>90</v>
@@ -7440,7 +7482,7 @@
         <v>325</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>583</v>
@@ -7449,13 +7491,13 @@
         <v>598</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="H185" s="1"/>
     </row>
     <row r="186" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>90</v>
@@ -7464,7 +7506,7 @@
         <v>325</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>583</v>
@@ -7473,13 +7515,13 @@
         <v>598</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H186" s="1"/>
     </row>
     <row r="187" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>90</v>
@@ -7488,7 +7530,7 @@
         <v>325</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>583</v>
@@ -7497,13 +7539,13 @@
         <v>598</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H187" s="1"/>
     </row>
     <row r="188" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>90</v>
@@ -7512,7 +7554,7 @@
         <v>325</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>583</v>
@@ -7521,13 +7563,13 @@
         <v>598</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="H188" s="1"/>
     </row>
     <row r="189" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>90</v>
@@ -7536,7 +7578,7 @@
         <v>325</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>583</v>
@@ -7545,13 +7587,13 @@
         <v>598</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H189" s="1"/>
     </row>
     <row r="190" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>90</v>
@@ -7560,7 +7602,7 @@
         <v>325</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>583</v>
@@ -7569,13 +7611,13 @@
         <v>598</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>90</v>
@@ -7584,7 +7626,7 @@
         <v>325</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>583</v>
@@ -7592,14 +7634,14 @@
       <c r="F191" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G191" s="3" t="s">
-        <v>555</v>
+      <c r="G191" s="1" t="s">
+        <v>554</v>
       </c>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>90</v>
@@ -7608,7 +7650,7 @@
         <v>325</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>583</v>
@@ -7617,13 +7659,13 @@
         <v>598</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H192" s="1"/>
     </row>
     <row r="193" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>90</v>
@@ -7632,7 +7674,7 @@
         <v>325</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>583</v>
@@ -7641,13 +7683,13 @@
         <v>598</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H193" s="1"/>
     </row>
     <row r="194" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>90</v>
@@ -7656,7 +7698,7 @@
         <v>325</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>765</v>
+        <v>553</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>583</v>
@@ -7665,53 +7707,57 @@
         <v>598</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="H194" s="1"/>
     </row>
     <row r="195" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="G195" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="H195" s="1"/>
+    </row>
+    <row r="196" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D195" s="1" t="s">
+      <c r="B196" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>771</v>
-      </c>
-      <c r="E195" s="1"/>
-      <c r="F195" s="1"/>
-      <c r="G195" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="H195" s="1"/>
-    </row>
-    <row r="196" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A196" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>769</v>
       </c>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="G196" s="2" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="H196" s="1"/>
     </row>
     <row r="197" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>120</v>
+        <v>770</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>90</v>
@@ -7720,22 +7766,18 @@
         <v>325</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>575</v>
-      </c>
+        <v>769</v>
+      </c>
+      <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H197" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>768</v>
+      </c>
+      <c r="H197" s="1"/>
+    </row>
+    <row r="198" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>251</v>
+        <v>120</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>90</v>
@@ -7744,24 +7786,22 @@
         <v>325</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>465</v>
+        <v>255</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="F198" s="1" t="s">
-        <v>576</v>
-      </c>
+      <c r="F198" s="1"/>
       <c r="G198" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>90</v>
@@ -7770,7 +7810,7 @@
         <v>325</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>575</v>
@@ -7778,8 +7818,8 @@
       <c r="F199" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="G199" s="1" t="s">
-        <v>17</v>
+      <c r="G199" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>16</v>
@@ -7787,16 +7827,16 @@
     </row>
     <row r="200" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>325</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>575</v>
@@ -7805,24 +7845,24 @@
         <v>576</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>325</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>575</v>
@@ -7831,76 +7871,76 @@
         <v>576</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H201" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>325</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>575</v>
       </c>
       <c r="F202" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F203" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G202" s="1" t="s">
+      <c r="G203" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H202" s="1" t="s">
+      <c r="H203" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A203" s="1" t="s">
+    <row r="204" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B203" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D203" s="1" t="s">
+      <c r="B204" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D204" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="F203" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G203" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H203" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A204" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>567</v>
@@ -7909,15 +7949,15 @@
         <v>568</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>90</v>
@@ -7926,53 +7966,53 @@
         <v>325</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E205" s="1"/>
-      <c r="F205" s="1"/>
+        <v>305</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>568</v>
+      </c>
       <c r="G205" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="H205" s="1"/>
+        <v>338</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="206" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H206" s="1"/>
+    </row>
+    <row r="207" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D206" s="1" t="s">
+      <c r="B207" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D207" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G206" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="H206" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A207" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>567</v>
@@ -7981,15 +8021,15 @@
         <v>568</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>90</v>
@@ -7998,7 +8038,7 @@
         <v>325</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>567</v>
@@ -8013,9 +8053,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>90</v>
@@ -8024,24 +8064,24 @@
         <v>325</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>364</v>
+        <v>315</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>567</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>90</v>
@@ -8050,7 +8090,7 @@
         <v>325</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>567</v>
@@ -8065,9 +8105,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>90</v>
@@ -8076,24 +8116,24 @@
         <v>325</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>567</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>90</v>
@@ -8102,7 +8142,7 @@
         <v>325</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>567</v>
@@ -8117,9 +8157,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>90</v>
@@ -8128,7 +8168,7 @@
         <v>325</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>567</v>
@@ -8137,15 +8177,15 @@
         <v>568</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H213" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>90</v>
@@ -8154,7 +8194,7 @@
         <v>325</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>567</v>
@@ -8169,9 +8209,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>90</v>
@@ -8180,7 +8220,7 @@
         <v>325</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>567</v>
@@ -8189,7 +8229,7 @@
         <v>568</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>306</v>
@@ -8197,7 +8237,7 @@
     </row>
     <row r="216" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>90</v>
@@ -8206,7 +8246,7 @@
         <v>325</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>567</v>
@@ -8223,7 +8263,7 @@
     </row>
     <row r="217" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>90</v>
@@ -8232,7 +8272,7 @@
         <v>325</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>567</v>
@@ -8241,7 +8281,7 @@
         <v>568</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>306</v>
@@ -8249,7 +8289,7 @@
     </row>
     <row r="218" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>90</v>
@@ -8258,7 +8298,7 @@
         <v>325</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>567</v>
@@ -8275,7 +8315,7 @@
     </row>
     <row r="219" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>90</v>
@@ -8284,7 +8324,7 @@
         <v>325</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>567</v>
@@ -8293,15 +8333,15 @@
         <v>568</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>90</v>
@@ -8310,7 +8350,7 @@
         <v>325</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>567</v>
@@ -8325,9 +8365,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>90</v>
@@ -8336,7 +8376,7 @@
         <v>325</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>567</v>
@@ -8345,15 +8385,15 @@
         <v>568</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H221" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>90</v>
@@ -8362,7 +8402,7 @@
         <v>325</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>567</v>
@@ -8377,9 +8417,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>90</v>
@@ -8388,7 +8428,7 @@
         <v>325</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>567</v>
@@ -8397,15 +8437,15 @@
         <v>568</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>90</v>
@@ -8414,7 +8454,7 @@
         <v>325</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>567</v>
@@ -8429,9 +8469,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>90</v>
@@ -8440,7 +8480,7 @@
         <v>325</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>567</v>
@@ -8449,15 +8489,15 @@
         <v>568</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H225" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>90</v>
@@ -8466,7 +8506,7 @@
         <v>325</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>567</v>
@@ -8481,9 +8521,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>90</v>
@@ -8492,7 +8532,7 @@
         <v>325</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>567</v>
@@ -8501,7 +8541,7 @@
         <v>568</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="H227" s="1" t="s">
         <v>306</v>
@@ -8509,7 +8549,7 @@
     </row>
     <row r="228" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>90</v>
@@ -8518,7 +8558,7 @@
         <v>325</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>567</v>
@@ -8533,9 +8573,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>90</v>
@@ -8544,64 +8584,70 @@
         <v>325</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>567</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>391</v>
+        <v>306</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="B230" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D230" s="1" t="s">
+      <c r="B231" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D231" s="1" t="s">
         <v>718</v>
-      </c>
-      <c r="E230" s="1"/>
-      <c r="F230" s="1"/>
-      <c r="G230" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="H230" s="1"/>
-    </row>
-    <row r="231" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A231" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>720</v>
       </c>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
       <c r="G231" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="H231" s="1"/>
     </row>
     <row r="232" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>446</v>
+        <v>722</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>90</v>
@@ -8610,20 +8656,18 @@
         <v>325</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>580</v>
-      </c>
+        <v>720</v>
+      </c>
+      <c r="E232" s="1"/>
       <c r="F232" s="1"/>
       <c r="G232" s="1" t="s">
-        <v>445</v>
+        <v>721</v>
       </c>
       <c r="H232" s="1"/>
     </row>
-    <row r="233" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>735</v>
+        <v>446</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>90</v>
@@ -8632,18 +8676,20 @@
         <v>325</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="E233" s="1"/>
+        <v>442</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>580</v>
+      </c>
       <c r="F233" s="1"/>
       <c r="G233" s="1" t="s">
-        <v>740</v>
+        <v>445</v>
       </c>
       <c r="H233" s="1"/>
     </row>
     <row r="234" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>90</v>
@@ -8652,18 +8698,18 @@
         <v>325</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
       <c r="G234" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H234" s="1"/>
     </row>
     <row r="235" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>504</v>
+        <v>736</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>90</v>
@@ -8672,20 +8718,18 @@
         <v>325</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>585</v>
-      </c>
+        <v>737</v>
+      </c>
+      <c r="E235" s="1"/>
       <c r="F235" s="1"/>
       <c r="G235" s="1" t="s">
-        <v>505</v>
+        <v>739</v>
       </c>
       <c r="H235" s="1"/>
     </row>
     <row r="236" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>90</v>
@@ -8694,20 +8738,20 @@
         <v>325</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>533</v>
+        <v>506</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="F236" s="1"/>
       <c r="G236" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H236" s="1"/>
     </row>
     <row r="237" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>90</v>
@@ -8716,20 +8760,20 @@
         <v>325</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>578</v>
       </c>
       <c r="F237" s="1"/>
       <c r="G237" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H237" s="1"/>
     </row>
     <row r="238" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>90</v>
@@ -8738,20 +8782,20 @@
         <v>325</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>578</v>
       </c>
       <c r="F238" s="1"/>
       <c r="G238" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="H238" s="1"/>
     </row>
-    <row r="239" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>90</v>
@@ -8760,20 +8804,20 @@
         <v>325</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>578</v>
       </c>
       <c r="F239" s="1"/>
       <c r="G239" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="H239" s="1"/>
     </row>
     <row r="240" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>90</v>
@@ -8782,20 +8826,20 @@
         <v>325</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>578</v>
       </c>
       <c r="F240" s="1"/>
       <c r="G240" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H240" s="1"/>
     </row>
     <row r="241" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>764</v>
+        <v>520</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>90</v>
@@ -8804,20 +8848,20 @@
         <v>325</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>762</v>
+        <v>518</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>578</v>
       </c>
       <c r="F241" s="1"/>
       <c r="G241" s="1" t="s">
-        <v>763</v>
+        <v>519</v>
       </c>
       <c r="H241" s="1"/>
     </row>
-    <row r="242" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>782</v>
+        <v>764</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>90</v>
@@ -8826,19 +8870,84 @@
         <v>325</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>780</v>
+        <v>762</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>578</v>
       </c>
       <c r="F242" s="1"/>
       <c r="G242" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="H242" s="1"/>
+    </row>
+    <row r="243" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F243" s="1"/>
+      <c r="G243" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="H242" s="1"/>
+      <c r="H243" s="1"/>
+    </row>
+    <row r="244" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E244" s="1"/>
+      <c r="F244" s="1"/>
+      <c r="G244" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="H244" s="1"/>
+    </row>
+    <row r="245" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="H245" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A2:A245">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/delta2/lib_p/dpid_winlol.xlsx
+++ b/delta2/lib_p/dpid_winlol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A442225-85A9-AD45-81B8-8506048BCE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A99EAF-4B4D-8243-B686-5C37E7786FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
@@ -2479,7 +2479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2488,9 +2488,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2891,8 +2888,8 @@
   <dimension ref="A1:H245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7730,7 +7727,7 @@
       <c r="F195" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G195" s="5" t="s">
+      <c r="G195" s="4" t="s">
         <v>544</v>
       </c>
       <c r="H195" s="1"/>
@@ -7818,7 +7815,7 @@
       <c r="F199" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="G199" s="4" t="s">
+      <c r="G199" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H199" s="1" t="s">

--- a/delta2/lib_p/dpid_winlol.xlsx
+++ b/delta2/lib_p/dpid_winlol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A99EAF-4B4D-8243-B686-5C37E7786FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09350121-E738-BA4C-862F-309F94FDE670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="795">
   <si>
     <t>delta_pattern</t>
   </si>
@@ -2416,6 +2416,12 @@
   </si>
   <si>
     <t>vss-pid0004</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -2497,7 +2503,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2507,6 +2513,9 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2549,20 +2558,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:H245" totalsRowShown="0" dataDxfId="9">
-  <autoFilter ref="A1:H245" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:I245" totalsRowShown="0" dataDxfId="10">
+  <autoFilter ref="A1:I245" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}">
+    <filterColumn colId="8">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H243">
     <sortCondition ref="A1:A243"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{7D4B3AB6-B672-1C40-9238-21F80D82D786}" name="delta_pid" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{6CA1A07C-C0CA-D343-B5D9-30F139D14E9A}" name="delta_did" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{8B35991C-1CFD-C74E-99DA-EDE3F791E9D6}" name="delta_category" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{433ECAB0-EBD0-8F46-9A69-22D02B31F424}" name="delta_pattern" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{B77FB323-DC1E-394E-A29C-AD0CE8A05098}" name="mitre_technique" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{6E4A396E-9FCB-864D-A803-490AE03E573D}" name="mitre_sub_technique" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{679473FD-2DAD-8E45-AC30-54CF949ECBDB}" name="name" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{EFF84C11-AEFB-9742-BFA7-A0134DAADCBC}" name="description" dataDxfId="1"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{7D4B3AB6-B672-1C40-9238-21F80D82D786}" name="delta_pid" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{6CA1A07C-C0CA-D343-B5D9-30F139D14E9A}" name="delta_did" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{8B35991C-1CFD-C74E-99DA-EDE3F791E9D6}" name="delta_category" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{433ECAB0-EBD0-8F46-9A69-22D02B31F424}" name="delta_pattern" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{B77FB323-DC1E-394E-A29C-AD0CE8A05098}" name="mitre_technique" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{6E4A396E-9FCB-864D-A803-490AE03E573D}" name="mitre_sub_technique" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{679473FD-2DAD-8E45-AC30-54CF949ECBDB}" name="name" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{EFF84C11-AEFB-9742-BFA7-A0134DAADCBC}" name="description" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{FF1A41B4-7CB1-8E49-8A89-D7B92B39DC5E}" name="status" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2885,11 +2899,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D53A90-A29C-2641-AD43-11CCFA7849AF}">
-  <dimension ref="A1:H245"/>
+  <dimension ref="A1:I245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C218" sqref="C218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2904,7 +2918,7 @@
     <col min="8" max="8" width="47.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2929,8 +2943,11 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>495</v>
       </c>
@@ -2949,8 +2966,9 @@
         <v>496</v>
       </c>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>502</v>
       </c>
@@ -2973,8 +2991,9 @@
         <v>497</v>
       </c>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>503</v>
       </c>
@@ -2997,8 +3016,9 @@
         <v>498</v>
       </c>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>707</v>
       </c>
@@ -3017,8 +3037,9 @@
         <v>706</v>
       </c>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>710</v>
       </c>
@@ -3037,8 +3058,9 @@
         <v>709</v>
       </c>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>711</v>
       </c>
@@ -3057,8 +3079,9 @@
         <v>715</v>
       </c>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>716</v>
       </c>
@@ -3077,8 +3100,9 @@
         <v>714</v>
       </c>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>91</v>
       </c>
@@ -3103,8 +3127,9 @@
       <c r="H9" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>370</v>
       </c>
@@ -3129,8 +3154,9 @@
       <c r="H10" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>373</v>
       </c>
@@ -3155,8 +3181,9 @@
       <c r="H11" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>379</v>
       </c>
@@ -3181,8 +3208,9 @@
       <c r="H12" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>382</v>
       </c>
@@ -3207,8 +3235,9 @@
       <c r="H13" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>97</v>
       </c>
@@ -3233,8 +3262,9 @@
       <c r="H14" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>98</v>
       </c>
@@ -3259,8 +3289,9 @@
       <c r="H15" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>99</v>
       </c>
@@ -3285,8 +3316,9 @@
       <c r="H16" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>100</v>
       </c>
@@ -3311,8 +3343,9 @@
       <c r="H17" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>424</v>
       </c>
@@ -3337,8 +3370,9 @@
       <c r="H18" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>426</v>
       </c>
@@ -3363,8 +3397,9 @@
       <c r="H19" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>101</v>
       </c>
@@ -3389,8 +3424,9 @@
       <c r="H20" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>448</v>
       </c>
@@ -3411,8 +3447,9 @@
         <v>451</v>
       </c>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>456</v>
       </c>
@@ -3433,8 +3470,9 @@
         <v>454</v>
       </c>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>457</v>
       </c>
@@ -3455,8 +3493,9 @@
         <v>453</v>
       </c>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>458</v>
       </c>
@@ -3477,8 +3516,9 @@
         <v>462</v>
       </c>
       <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>460</v>
       </c>
@@ -3499,8 +3539,9 @@
         <v>461</v>
       </c>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>121</v>
       </c>
@@ -3523,8 +3564,9 @@
       <c r="H26" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>122</v>
       </c>
@@ -3549,8 +3591,9 @@
       <c r="H27" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>123</v>
       </c>
@@ -3575,8 +3618,9 @@
       <c r="H28" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>383</v>
       </c>
@@ -3601,8 +3645,9 @@
       <c r="H29" s="1" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>410</v>
       </c>
@@ -3627,8 +3672,9 @@
       <c r="H30" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>419</v>
       </c>
@@ -3653,8 +3699,9 @@
       <c r="H31" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>420</v>
       </c>
@@ -3679,8 +3726,9 @@
       <c r="H32" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>421</v>
       </c>
@@ -3705,8 +3753,9 @@
       <c r="H33" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>402</v>
       </c>
@@ -3731,8 +3780,9 @@
       <c r="H34" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>753</v>
       </c>
@@ -3751,8 +3801,9 @@
         <v>755</v>
       </c>
       <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>102</v>
       </c>
@@ -3777,8 +3828,9 @@
       <c r="H36" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>103</v>
       </c>
@@ -3803,8 +3855,9 @@
       <c r="H37" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>104</v>
       </c>
@@ -3829,8 +3882,9 @@
       <c r="H38" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>105</v>
       </c>
@@ -3855,8 +3909,9 @@
       <c r="H39" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>106</v>
       </c>
@@ -3881,8 +3936,9 @@
       <c r="H40" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>107</v>
       </c>
@@ -3907,8 +3963,9 @@
       <c r="H41" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>108</v>
       </c>
@@ -3933,8 +3990,9 @@
       <c r="H42" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>109</v>
       </c>
@@ -3959,8 +4017,9 @@
       <c r="H43" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>110</v>
       </c>
@@ -3985,8 +4044,9 @@
       <c r="H44" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>408</v>
       </c>
@@ -4011,8 +4071,9 @@
       <c r="H45" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>409</v>
       </c>
@@ -4037,8 +4098,9 @@
       <c r="H46" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>133</v>
       </c>
@@ -4063,8 +4125,9 @@
       <c r="H47" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>134</v>
       </c>
@@ -4089,8 +4152,9 @@
       <c r="H48" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>249</v>
       </c>
@@ -4111,8 +4175,9 @@
         <v>257</v>
       </c>
       <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>258</v>
       </c>
@@ -4133,8 +4198,9 @@
         <v>259</v>
       </c>
       <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>389</v>
       </c>
@@ -4159,8 +4225,9 @@
       <c r="H51" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>394</v>
       </c>
@@ -4185,8 +4252,9 @@
       <c r="H52" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>395</v>
       </c>
@@ -4211,8 +4279,9 @@
       <c r="H53" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>400</v>
       </c>
@@ -4237,8 +4306,9 @@
       <c r="H54" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>471</v>
       </c>
@@ -4263,8 +4333,9 @@
       <c r="H55" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>490</v>
       </c>
@@ -4289,8 +4360,9 @@
       <c r="H56" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>491</v>
       </c>
@@ -4315,8 +4387,9 @@
       <c r="H57" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>492</v>
       </c>
@@ -4339,8 +4412,9 @@
         <v>488</v>
       </c>
       <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>493</v>
       </c>
@@ -4363,8 +4437,9 @@
         <v>489</v>
       </c>
       <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>494</v>
       </c>
@@ -4387,8 +4462,9 @@
         <v>487</v>
       </c>
       <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>261</v>
       </c>
@@ -4413,8 +4489,11 @@
       <c r="H61" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I61" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>263</v>
       </c>
@@ -4439,8 +4518,11 @@
       <c r="H62" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I62" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>265</v>
       </c>
@@ -4465,8 +4547,11 @@
       <c r="H63" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I63" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>267</v>
       </c>
@@ -4491,8 +4576,11 @@
       <c r="H64" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I64" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>269</v>
       </c>
@@ -4517,8 +4605,11 @@
       <c r="H65" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I65" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>271</v>
       </c>
@@ -4543,8 +4634,11 @@
       <c r="H66" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I66" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>275</v>
       </c>
@@ -4569,8 +4663,11 @@
       <c r="H67" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I67" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>276</v>
       </c>
@@ -4595,8 +4692,11 @@
       <c r="H68" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I68" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>278</v>
       </c>
@@ -4621,8 +4721,11 @@
       <c r="H69" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I69" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>280</v>
       </c>
@@ -4647,8 +4750,11 @@
       <c r="H70" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I70" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>282</v>
       </c>
@@ -4673,8 +4779,11 @@
       <c r="H71" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I71" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>284</v>
       </c>
@@ -4699,8 +4808,11 @@
       <c r="H72" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I72" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>286</v>
       </c>
@@ -4725,8 +4837,11 @@
       <c r="H73" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I73" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>288</v>
       </c>
@@ -4751,8 +4866,11 @@
       <c r="H74" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I74" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>290</v>
       </c>
@@ -4777,8 +4895,11 @@
       <c r="H75" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I75" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>291</v>
       </c>
@@ -4803,8 +4924,11 @@
       <c r="H76" s="1" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I76" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>293</v>
       </c>
@@ -4829,8 +4953,11 @@
       <c r="H77" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I77" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>294</v>
       </c>
@@ -4855,8 +4982,11 @@
       <c r="H78" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I78" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>296</v>
       </c>
@@ -4881,8 +5011,11 @@
       <c r="H79" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I79" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>300</v>
       </c>
@@ -4907,8 +5040,11 @@
       <c r="H80" s="1" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I80" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>438</v>
       </c>
@@ -4931,8 +5067,11 @@
       <c r="H81" s="1" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I81" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>470</v>
       </c>
@@ -4955,8 +5094,11 @@
         <v>469</v>
       </c>
       <c r="H82" s="1"/>
-    </row>
-    <row r="83" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I82" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>523</v>
       </c>
@@ -4979,8 +5121,11 @@
         <v>521</v>
       </c>
       <c r="H83" s="1"/>
-    </row>
-    <row r="84" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I83" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>524</v>
       </c>
@@ -5003,8 +5148,11 @@
         <v>522</v>
       </c>
       <c r="H84" s="1"/>
-    </row>
-    <row r="85" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I84" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>526</v>
       </c>
@@ -5025,8 +5173,11 @@
       <c r="H85" s="1" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I85" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>657</v>
       </c>
@@ -5049,8 +5200,11 @@
         <v>659</v>
       </c>
       <c r="H86" s="1"/>
-    </row>
-    <row r="87" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I86" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>662</v>
       </c>
@@ -5073,8 +5227,11 @@
       <c r="H87" s="1" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I87" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>677</v>
       </c>
@@ -5095,8 +5252,11 @@
       <c r="H88" s="1" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I88" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>685</v>
       </c>
@@ -5115,8 +5275,11 @@
         <v>684</v>
       </c>
       <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I89" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>757</v>
       </c>
@@ -5135,8 +5298,11 @@
         <v>758</v>
       </c>
       <c r="H90" s="1"/>
-    </row>
-    <row r="91" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I90" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>761</v>
       </c>
@@ -5155,8 +5321,11 @@
         <v>760</v>
       </c>
       <c r="H91" s="1"/>
-    </row>
-    <row r="92" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I91" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>427</v>
       </c>
@@ -5179,8 +5348,9 @@
         <v>634</v>
       </c>
       <c r="H92" s="1"/>
-    </row>
-    <row r="93" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>429</v>
       </c>
@@ -5205,8 +5375,9 @@
       <c r="H93" s="1" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>430</v>
       </c>
@@ -5231,8 +5402,9 @@
       <c r="H94" s="1" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>432</v>
       </c>
@@ -5255,8 +5427,9 @@
         <v>694</v>
       </c>
       <c r="H95" s="1"/>
-    </row>
-    <row r="96" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>433</v>
       </c>
@@ -5281,8 +5454,9 @@
       <c r="H96" s="1" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>434</v>
       </c>
@@ -5307,8 +5481,9 @@
       <c r="H97" s="1" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>436</v>
       </c>
@@ -5333,8 +5508,9 @@
       <c r="H98" s="1" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>437</v>
       </c>
@@ -5359,8 +5535,9 @@
       <c r="H99" s="1" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>642</v>
       </c>
@@ -5385,8 +5562,9 @@
       <c r="H100" s="1" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>644</v>
       </c>
@@ -5407,8 +5585,9 @@
         <v>645</v>
       </c>
       <c r="H101" s="1"/>
-    </row>
-    <row r="102" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>648</v>
       </c>
@@ -5429,8 +5608,9 @@
         <v>647</v>
       </c>
       <c r="H102" s="1"/>
-    </row>
-    <row r="103" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>651</v>
       </c>
@@ -5449,8 +5629,9 @@
         <v>650</v>
       </c>
       <c r="H103" s="1"/>
-    </row>
-    <row r="104" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>663</v>
       </c>
@@ -5473,8 +5654,9 @@
         <v>664</v>
       </c>
       <c r="H104" s="1"/>
-    </row>
-    <row r="105" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>111</v>
       </c>
@@ -5499,8 +5681,9 @@
       <c r="H105" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>112</v>
       </c>
@@ -5525,8 +5708,9 @@
       <c r="H106" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>113</v>
       </c>
@@ -5551,8 +5735,9 @@
       <c r="H107" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>114</v>
       </c>
@@ -5577,8 +5762,9 @@
       <c r="H108" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>115</v>
       </c>
@@ -5603,8 +5789,9 @@
       <c r="H109" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>116</v>
       </c>
@@ -5629,8 +5816,9 @@
       <c r="H110" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>124</v>
       </c>
@@ -5655,8 +5843,9 @@
       <c r="H111" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>125</v>
       </c>
@@ -5681,8 +5870,9 @@
       <c r="H112" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I112" s="1"/>
+    </row>
+    <row r="113" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>126</v>
       </c>
@@ -5707,8 +5897,9 @@
       <c r="H113" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I113" s="1"/>
+    </row>
+    <row r="114" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>127</v>
       </c>
@@ -5733,8 +5924,9 @@
       <c r="H114" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I114" s="1"/>
+    </row>
+    <row r="115" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>207</v>
       </c>
@@ -5759,8 +5951,11 @@
       <c r="H115" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I115" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>478</v>
       </c>
@@ -5783,8 +5978,11 @@
         <v>627</v>
       </c>
       <c r="H116" s="1"/>
-    </row>
-    <row r="117" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I116" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>480</v>
       </c>
@@ -5807,8 +6005,11 @@
         <v>625</v>
       </c>
       <c r="H117" s="1"/>
-    </row>
-    <row r="118" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I117" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>483</v>
       </c>
@@ -5831,8 +6032,11 @@
         <v>624</v>
       </c>
       <c r="H118" s="1"/>
-    </row>
-    <row r="119" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I118" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>563</v>
       </c>
@@ -5855,8 +6059,11 @@
         <v>573</v>
       </c>
       <c r="H119" s="1"/>
-    </row>
-    <row r="120" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="I119" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>570</v>
       </c>
@@ -5879,8 +6086,11 @@
         <v>628</v>
       </c>
       <c r="H120" s="1"/>
-    </row>
-    <row r="121" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I120" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>571</v>
       </c>
@@ -5899,8 +6109,11 @@
         <v>482</v>
       </c>
       <c r="H121" s="1"/>
-    </row>
-    <row r="122" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="I121" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>629</v>
       </c>
@@ -5923,8 +6136,11 @@
         <v>574</v>
       </c>
       <c r="H122" s="1"/>
-    </row>
-    <row r="123" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I122" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>630</v>
       </c>
@@ -5947,8 +6163,11 @@
         <v>775</v>
       </c>
       <c r="H123" s="1"/>
-    </row>
-    <row r="124" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="I123" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>631</v>
       </c>
@@ -5971,8 +6190,11 @@
         <v>479</v>
       </c>
       <c r="H124" s="1"/>
-    </row>
-    <row r="125" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I124" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>666</v>
       </c>
@@ -5995,8 +6217,11 @@
         <v>668</v>
       </c>
       <c r="H125" s="1"/>
-    </row>
-    <row r="126" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I125" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>669</v>
       </c>
@@ -6019,8 +6244,11 @@
         <v>670</v>
       </c>
       <c r="H126" s="1"/>
-    </row>
-    <row r="127" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I126" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>671</v>
       </c>
@@ -6041,8 +6269,11 @@
         <v>675</v>
       </c>
       <c r="H127" s="1"/>
-    </row>
-    <row r="128" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I127" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>725</v>
       </c>
@@ -6065,8 +6296,11 @@
         <v>724</v>
       </c>
       <c r="H128" s="1"/>
-    </row>
-    <row r="129" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I128" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>728</v>
       </c>
@@ -6089,8 +6323,11 @@
         <v>727</v>
       </c>
       <c r="H129" s="1"/>
-    </row>
-    <row r="130" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I129" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>729</v>
       </c>
@@ -6113,8 +6350,11 @@
         <v>731</v>
       </c>
       <c r="H130" s="1"/>
-    </row>
-    <row r="131" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I130" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>732</v>
       </c>
@@ -6137,8 +6377,11 @@
         <v>734</v>
       </c>
       <c r="H131" s="1"/>
-    </row>
-    <row r="132" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I131" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>776</v>
       </c>
@@ -6157,8 +6400,11 @@
         <v>779</v>
       </c>
       <c r="H132" s="1"/>
-    </row>
-    <row r="133" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I132" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>447</v>
       </c>
@@ -6179,8 +6425,9 @@
         <v>444</v>
       </c>
       <c r="H133" s="1"/>
-    </row>
-    <row r="134" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I133" s="1"/>
+    </row>
+    <row r="134" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>117</v>
       </c>
@@ -6205,8 +6452,9 @@
       <c r="H134" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I134" s="1"/>
+    </row>
+    <row r="135" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>118</v>
       </c>
@@ -6231,8 +6479,9 @@
       <c r="H135" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I135" s="1"/>
+    </row>
+    <row r="136" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>119</v>
       </c>
@@ -6257,8 +6506,9 @@
       <c r="H136" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I136" s="1"/>
+    </row>
+    <row r="137" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>128</v>
       </c>
@@ -6283,8 +6533,11 @@
       <c r="H137" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I137" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>129</v>
       </c>
@@ -6309,8 +6562,11 @@
       <c r="H138" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I138" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>130</v>
       </c>
@@ -6335,8 +6591,11 @@
       <c r="H139" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I139" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>131</v>
       </c>
@@ -6361,8 +6620,11 @@
       <c r="H140" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I140" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>132</v>
       </c>
@@ -6387,8 +6649,11 @@
       <c r="H141" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I141" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>208</v>
       </c>
@@ -6413,8 +6678,11 @@
       <c r="H142" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I142" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>209</v>
       </c>
@@ -6439,8 +6707,11 @@
       <c r="H143" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I143" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>210</v>
       </c>
@@ -6465,8 +6736,11 @@
       <c r="H144" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I144" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>211</v>
       </c>
@@ -6491,8 +6765,11 @@
       <c r="H145" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I145" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>212</v>
       </c>
@@ -6517,8 +6794,11 @@
       <c r="H146" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I146" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>213</v>
       </c>
@@ -6543,8 +6823,11 @@
       <c r="H147" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I147" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>214</v>
       </c>
@@ -6569,8 +6852,11 @@
       <c r="H148" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I148" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>215</v>
       </c>
@@ -6595,8 +6881,11 @@
       <c r="H149" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I149" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>216</v>
       </c>
@@ -6621,8 +6910,11 @@
       <c r="H150" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I150" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>217</v>
       </c>
@@ -6647,8 +6939,11 @@
       <c r="H151" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I151" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>218</v>
       </c>
@@ -6673,8 +6968,11 @@
       <c r="H152" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I152" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>219</v>
       </c>
@@ -6699,8 +6997,11 @@
       <c r="H153" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I153" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>220</v>
       </c>
@@ -6725,8 +7026,11 @@
       <c r="H154" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I154" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>221</v>
       </c>
@@ -6751,8 +7055,11 @@
       <c r="H155" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I155" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>222</v>
       </c>
@@ -6777,8 +7084,11 @@
       <c r="H156" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I156" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>223</v>
       </c>
@@ -6803,8 +7113,11 @@
       <c r="H157" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I157" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>224</v>
       </c>
@@ -6829,8 +7142,11 @@
       <c r="H158" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I158" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>225</v>
       </c>
@@ -6855,8 +7171,11 @@
       <c r="H159" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I159" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>226</v>
       </c>
@@ -6881,8 +7200,11 @@
       <c r="H160" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I160" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>227</v>
       </c>
@@ -6907,8 +7229,11 @@
       <c r="H161" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I161" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>228</v>
       </c>
@@ -6933,8 +7258,11 @@
       <c r="H162" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I162" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>229</v>
       </c>
@@ -6959,8 +7287,11 @@
       <c r="H163" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I163" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>230</v>
       </c>
@@ -6985,8 +7316,11 @@
       <c r="H164" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I164" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>231</v>
       </c>
@@ -7011,8 +7345,11 @@
       <c r="H165" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I165" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>232</v>
       </c>
@@ -7037,8 +7374,11 @@
       <c r="H166" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I166" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>233</v>
       </c>
@@ -7063,8 +7403,11 @@
       <c r="H167" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I167" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>234</v>
       </c>
@@ -7089,8 +7432,11 @@
       <c r="H168" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I168" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>235</v>
       </c>
@@ -7115,8 +7461,11 @@
       <c r="H169" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I169" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>236</v>
       </c>
@@ -7141,8 +7490,11 @@
       <c r="H170" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I170" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>237</v>
       </c>
@@ -7167,8 +7519,11 @@
       <c r="H171" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I171" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>238</v>
       </c>
@@ -7193,8 +7548,11 @@
       <c r="H172" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I172" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>239</v>
       </c>
@@ -7219,8 +7577,11 @@
       <c r="H173" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I173" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>240</v>
       </c>
@@ -7245,8 +7606,11 @@
       <c r="H174" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I174" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>241</v>
       </c>
@@ -7271,8 +7635,11 @@
       <c r="H175" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I175" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>242</v>
       </c>
@@ -7297,8 +7664,11 @@
       <c r="H176" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I176" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>243</v>
       </c>
@@ -7323,8 +7693,11 @@
       <c r="H177" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I177" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>741</v>
       </c>
@@ -7343,8 +7716,11 @@
         <v>742</v>
       </c>
       <c r="H178" s="1"/>
-    </row>
-    <row r="179" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I178" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>746</v>
       </c>
@@ -7363,8 +7739,11 @@
         <v>745</v>
       </c>
       <c r="H179" s="1"/>
-    </row>
-    <row r="180" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I179" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>749</v>
       </c>
@@ -7383,8 +7762,11 @@
         <v>748</v>
       </c>
       <c r="H180" s="1"/>
-    </row>
-    <row r="181" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I180" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>750</v>
       </c>
@@ -7403,8 +7785,11 @@
         <v>752</v>
       </c>
       <c r="H181" s="1"/>
-    </row>
-    <row r="182" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I181" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>783</v>
       </c>
@@ -7423,8 +7808,11 @@
         <v>778</v>
       </c>
       <c r="H182" s="1"/>
-    </row>
-    <row r="183" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I182" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>784</v>
       </c>
@@ -7443,8 +7831,11 @@
         <v>785</v>
       </c>
       <c r="H183" s="1"/>
-    </row>
-    <row r="184" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I183" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>528</v>
       </c>
@@ -7467,8 +7858,9 @@
         <v>529</v>
       </c>
       <c r="H184" s="1"/>
-    </row>
-    <row r="185" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I184" s="1"/>
+    </row>
+    <row r="185" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>532</v>
       </c>
@@ -7491,8 +7883,9 @@
         <v>531</v>
       </c>
       <c r="H185" s="1"/>
-    </row>
-    <row r="186" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I185" s="1"/>
+    </row>
+    <row r="186" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>534</v>
       </c>
@@ -7515,8 +7908,9 @@
         <v>540</v>
       </c>
       <c r="H186" s="1"/>
-    </row>
-    <row r="187" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I186" s="1"/>
+    </row>
+    <row r="187" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>538</v>
       </c>
@@ -7539,8 +7933,9 @@
         <v>541</v>
       </c>
       <c r="H187" s="1"/>
-    </row>
-    <row r="188" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I187" s="1"/>
+    </row>
+    <row r="188" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>539</v>
       </c>
@@ -7563,8 +7958,9 @@
         <v>542</v>
       </c>
       <c r="H188" s="1"/>
-    </row>
-    <row r="189" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I188" s="1"/>
+    </row>
+    <row r="189" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>548</v>
       </c>
@@ -7587,8 +7983,9 @@
         <v>546</v>
       </c>
       <c r="H189" s="1"/>
-    </row>
-    <row r="190" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I189" s="1"/>
+    </row>
+    <row r="190" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>549</v>
       </c>
@@ -7611,8 +8008,9 @@
         <v>547</v>
       </c>
       <c r="H190" s="1"/>
-    </row>
-    <row r="191" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I190" s="1"/>
+    </row>
+    <row r="191" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>558</v>
       </c>
@@ -7635,8 +8033,9 @@
         <v>554</v>
       </c>
       <c r="H191" s="1"/>
-    </row>
-    <row r="192" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I191" s="1"/>
+    </row>
+    <row r="192" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>559</v>
       </c>
@@ -7659,8 +8058,9 @@
         <v>555</v>
       </c>
       <c r="H192" s="1"/>
-    </row>
-    <row r="193" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I192" s="1"/>
+    </row>
+    <row r="193" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>560</v>
       </c>
@@ -7683,8 +8083,9 @@
         <v>556</v>
       </c>
       <c r="H193" s="1"/>
-    </row>
-    <row r="194" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I193" s="1"/>
+    </row>
+    <row r="194" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>561</v>
       </c>
@@ -7707,8 +8108,9 @@
         <v>557</v>
       </c>
       <c r="H194" s="1"/>
-    </row>
-    <row r="195" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I194" s="1"/>
+    </row>
+    <row r="195" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>562</v>
       </c>
@@ -7731,8 +8133,9 @@
         <v>544</v>
       </c>
       <c r="H195" s="1"/>
-    </row>
-    <row r="196" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I195" s="1"/>
+    </row>
+    <row r="196" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>767</v>
       </c>
@@ -7751,8 +8154,9 @@
         <v>772</v>
       </c>
       <c r="H196" s="1"/>
-    </row>
-    <row r="197" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I196" s="1"/>
+    </row>
+    <row r="197" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>770</v>
       </c>
@@ -7771,8 +8175,9 @@
         <v>768</v>
       </c>
       <c r="H197" s="1"/>
-    </row>
-    <row r="198" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I197" s="1"/>
+    </row>
+    <row r="198" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>120</v>
       </c>
@@ -7795,8 +8200,9 @@
       <c r="H198" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I198" s="1"/>
+    </row>
+    <row r="199" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>251</v>
       </c>
@@ -7821,8 +8227,9 @@
       <c r="H199" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I199" s="1"/>
+    </row>
+    <row r="200" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>250</v>
       </c>
@@ -7847,8 +8254,9 @@
       <c r="H200" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I200" s="1"/>
+    </row>
+    <row r="201" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>252</v>
       </c>
@@ -7873,8 +8281,9 @@
       <c r="H201" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I201" s="1"/>
+    </row>
+    <row r="202" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>253</v>
       </c>
@@ -7899,8 +8308,9 @@
       <c r="H202" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I202" s="1"/>
+    </row>
+    <row r="203" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>254</v>
       </c>
@@ -7925,8 +8335,9 @@
       <c r="H203" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I203" s="1"/>
+    </row>
+    <row r="204" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>302</v>
       </c>
@@ -7951,8 +8362,9 @@
       <c r="H204" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I204" s="1"/>
+    </row>
+    <row r="205" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>311</v>
       </c>
@@ -7977,8 +8389,9 @@
       <c r="H205" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I205" s="1"/>
+    </row>
+    <row r="206" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>312</v>
       </c>
@@ -7997,8 +8410,9 @@
         <v>309</v>
       </c>
       <c r="H206" s="1"/>
-    </row>
-    <row r="207" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I206" s="1"/>
+    </row>
+    <row r="207" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>313</v>
       </c>
@@ -8023,8 +8437,9 @@
       <c r="H207" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I207" s="1"/>
+    </row>
+    <row r="208" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>314</v>
       </c>
@@ -8049,8 +8464,9 @@
       <c r="H208" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I208" s="1"/>
+    </row>
+    <row r="209" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>316</v>
       </c>
@@ -8075,8 +8491,9 @@
       <c r="H209" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I209" s="1"/>
+    </row>
+    <row r="210" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>317</v>
       </c>
@@ -8101,8 +8518,9 @@
       <c r="H210" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I210" s="1"/>
+    </row>
+    <row r="211" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>318</v>
       </c>
@@ -8127,8 +8545,9 @@
       <c r="H211" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I211" s="1"/>
+    </row>
+    <row r="212" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>321</v>
       </c>
@@ -8153,8 +8572,9 @@
       <c r="H212" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I212" s="1"/>
+    </row>
+    <row r="213" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>322</v>
       </c>
@@ -8179,8 +8599,9 @@
       <c r="H213" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I213" s="1"/>
+    </row>
+    <row r="214" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>323</v>
       </c>
@@ -8205,8 +8626,9 @@
       <c r="H214" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I214" s="1"/>
+    </row>
+    <row r="215" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>324</v>
       </c>
@@ -8231,8 +8653,9 @@
       <c r="H215" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I215" s="1"/>
+    </row>
+    <row r="216" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>351</v>
       </c>
@@ -8257,8 +8680,9 @@
       <c r="H216" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I216" s="1"/>
+    </row>
+    <row r="217" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>352</v>
       </c>
@@ -8283,8 +8707,9 @@
       <c r="H217" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I217" s="1"/>
+    </row>
+    <row r="218" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>353</v>
       </c>
@@ -8309,8 +8734,9 @@
       <c r="H218" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I218" s="1"/>
+    </row>
+    <row r="219" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>354</v>
       </c>
@@ -8335,8 +8761,9 @@
       <c r="H219" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I219" s="1"/>
+    </row>
+    <row r="220" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>355</v>
       </c>
@@ -8361,8 +8788,9 @@
       <c r="H220" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I220" s="1"/>
+    </row>
+    <row r="221" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>356</v>
       </c>
@@ -8387,8 +8815,9 @@
       <c r="H221" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I221" s="1"/>
+    </row>
+    <row r="222" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>357</v>
       </c>
@@ -8413,8 +8842,9 @@
       <c r="H222" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I222" s="1"/>
+    </row>
+    <row r="223" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>358</v>
       </c>
@@ -8439,8 +8869,9 @@
       <c r="H223" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I223" s="1"/>
+    </row>
+    <row r="224" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>359</v>
       </c>
@@ -8465,8 +8896,9 @@
       <c r="H224" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I224" s="1"/>
+    </row>
+    <row r="225" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>360</v>
       </c>
@@ -8491,8 +8923,9 @@
       <c r="H225" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I225" s="1"/>
+    </row>
+    <row r="226" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>361</v>
       </c>
@@ -8517,8 +8950,9 @@
       <c r="H226" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I226" s="1"/>
+    </row>
+    <row r="227" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>362</v>
       </c>
@@ -8543,8 +8977,9 @@
       <c r="H227" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I227" s="1"/>
+    </row>
+    <row r="228" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>368</v>
       </c>
@@ -8569,8 +9004,9 @@
       <c r="H228" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I228" s="1"/>
+    </row>
+    <row r="229" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>369</v>
       </c>
@@ -8595,8 +9031,9 @@
       <c r="H229" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I229" s="1"/>
+    </row>
+    <row r="230" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>385</v>
       </c>
@@ -8621,8 +9058,9 @@
       <c r="H230" s="1" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I230" s="1"/>
+    </row>
+    <row r="231" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>717</v>
       </c>
@@ -8641,8 +9079,9 @@
         <v>719</v>
       </c>
       <c r="H231" s="1"/>
-    </row>
-    <row r="232" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I231" s="1"/>
+    </row>
+    <row r="232" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>722</v>
       </c>
@@ -8661,8 +9100,9 @@
         <v>721</v>
       </c>
       <c r="H232" s="1"/>
-    </row>
-    <row r="233" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I232" s="1"/>
+    </row>
+    <row r="233" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>446</v>
       </c>
@@ -8683,8 +9123,9 @@
         <v>445</v>
       </c>
       <c r="H233" s="1"/>
-    </row>
-    <row r="234" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I233" s="1"/>
+    </row>
+    <row r="234" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>735</v>
       </c>
@@ -8703,8 +9144,9 @@
         <v>740</v>
       </c>
       <c r="H234" s="1"/>
-    </row>
-    <row r="235" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I234" s="1"/>
+    </row>
+    <row r="235" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>736</v>
       </c>
@@ -8723,8 +9165,9 @@
         <v>739</v>
       </c>
       <c r="H235" s="1"/>
-    </row>
-    <row r="236" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I235" s="1"/>
+    </row>
+    <row r="236" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>504</v>
       </c>
@@ -8745,8 +9188,9 @@
         <v>505</v>
       </c>
       <c r="H236" s="1"/>
-    </row>
-    <row r="237" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I236" s="1"/>
+    </row>
+    <row r="237" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>507</v>
       </c>
@@ -8767,8 +9211,9 @@
         <v>508</v>
       </c>
       <c r="H237" s="1"/>
-    </row>
-    <row r="238" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I237" s="1"/>
+    </row>
+    <row r="238" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>513</v>
       </c>
@@ -8789,8 +9234,9 @@
         <v>509</v>
       </c>
       <c r="H238" s="1"/>
-    </row>
-    <row r="239" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I238" s="1"/>
+    </row>
+    <row r="239" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>514</v>
       </c>
@@ -8811,8 +9257,9 @@
         <v>512</v>
       </c>
       <c r="H239" s="1"/>
-    </row>
-    <row r="240" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I239" s="1"/>
+    </row>
+    <row r="240" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>517</v>
       </c>
@@ -8833,8 +9280,9 @@
         <v>516</v>
       </c>
       <c r="H240" s="1"/>
-    </row>
-    <row r="241" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I240" s="1"/>
+    </row>
+    <row r="241" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>520</v>
       </c>
@@ -8855,8 +9303,9 @@
         <v>519</v>
       </c>
       <c r="H241" s="1"/>
-    </row>
-    <row r="242" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I241" s="1"/>
+    </row>
+    <row r="242" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>764</v>
       </c>
@@ -8877,8 +9326,9 @@
         <v>763</v>
       </c>
       <c r="H242" s="1"/>
-    </row>
-    <row r="243" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I242" s="1"/>
+    </row>
+    <row r="243" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>782</v>
       </c>
@@ -8899,8 +9349,9 @@
         <v>781</v>
       </c>
       <c r="H243" s="1"/>
-    </row>
-    <row r="244" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I243" s="1"/>
+    </row>
+    <row r="244" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>791</v>
       </c>
@@ -8919,8 +9370,9 @@
         <v>789</v>
       </c>
       <c r="H244" s="1"/>
-    </row>
-    <row r="245" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I244" s="1"/>
+    </row>
+    <row r="245" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>792</v>
       </c>
@@ -8939,6 +9391,7 @@
         <v>790</v>
       </c>
       <c r="H245" s="1"/>
+      <c r="I245" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
